--- a/FILER/google.xlsx
+++ b/FILER/google.xlsx
@@ -15217,6 +15217,46 @@
         <v>1345.02002</v>
       </c>
     </row>
+    <row r="743">
+      <c r="A743" t="n">
+        <v>1345.939941</v>
+      </c>
+      <c r="B743" t="n">
+        <v>1355.775024</v>
+      </c>
+      <c r="C743" t="n">
+        <v>1340.5</v>
+      </c>
+      <c r="D743" t="n">
+        <v>1350.27002</v>
+      </c>
+      <c r="E743" t="n">
+        <v>1281000</v>
+      </c>
+      <c r="F743" t="n">
+        <v>1350.27002</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="n">
+        <v>1347.949951</v>
+      </c>
+      <c r="B744" t="n">
+        <v>1352.97998</v>
+      </c>
+      <c r="C744" t="n">
+        <v>1343.920044</v>
+      </c>
+      <c r="D744" t="n">
+        <v>1347.829956</v>
+      </c>
+      <c r="E744" t="n">
+        <v>1550028</v>
+      </c>
+      <c r="F744" t="n">
+        <v>1347.829956</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -15250,172 +15290,172 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1346.53862580289</v>
+        <v>1344.48795319959</v>
       </c>
       <c r="B2" t="n">
-        <v>1326.20291754637</v>
+        <v>1324.1785767651</v>
       </c>
       <c r="C2" t="n">
-        <v>1366.87433405941</v>
+        <v>1364.79732963408</v>
       </c>
       <c r="D2" t="n">
-        <v>1315.43784386443</v>
+        <v>1313.42744230774</v>
       </c>
       <c r="E2" t="n">
-        <v>1377.63940774135</v>
+        <v>1375.54846409144</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1347.27036484464</v>
+        <v>1346.51320104588</v>
       </c>
       <c r="B3" t="n">
-        <v>1318.35951789388</v>
+        <v>1317.63635735666</v>
       </c>
       <c r="C3" t="n">
-        <v>1376.18121179541</v>
+        <v>1375.39004473509</v>
       </c>
       <c r="D3" t="n">
-        <v>1303.05503999194</v>
+        <v>1302.34987969407</v>
       </c>
       <c r="E3" t="n">
-        <v>1391.48568969735</v>
+        <v>1390.67652239768</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1344.33536713393</v>
+        <v>1347.67484503252</v>
       </c>
       <c r="B4" t="n">
-        <v>1310.03050849494</v>
+        <v>1313.41397880596</v>
       </c>
       <c r="C4" t="n">
-        <v>1378.64022577293</v>
+        <v>1381.93571125907</v>
       </c>
       <c r="D4" t="n">
-        <v>1291.870613288</v>
+        <v>1295.27737177544</v>
       </c>
       <c r="E4" t="n">
-        <v>1396.80012097987</v>
+        <v>1400.07231828959</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1346.16442480857</v>
+        <v>1345.14735123856</v>
       </c>
       <c r="B5" t="n">
-        <v>1307.59593397168</v>
+        <v>1306.62771976287</v>
       </c>
       <c r="C5" t="n">
-        <v>1384.73291564546</v>
+        <v>1383.66698271425</v>
       </c>
       <c r="D5" t="n">
-        <v>1287.17900821611</v>
+        <v>1286.23665859076</v>
       </c>
       <c r="E5" t="n">
-        <v>1405.14984140103</v>
+        <v>1404.05804388636</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1347.13250973712</v>
+        <v>1347.25665229049</v>
       </c>
       <c r="B6" t="n">
-        <v>1304.52019673727</v>
+        <v>1304.69678581652</v>
       </c>
       <c r="C6" t="n">
-        <v>1389.74482273696</v>
+        <v>1389.81651876447</v>
       </c>
       <c r="D6" t="n">
-        <v>1281.96260083676</v>
+        <v>1282.16695342974</v>
       </c>
       <c r="E6" t="n">
-        <v>1412.30241863747</v>
+        <v>1412.34635115124</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1344.95571161371</v>
+        <v>1348.46881845676</v>
       </c>
       <c r="B7" t="n">
-        <v>1299.23671515584</v>
+        <v>1302.80746562883</v>
       </c>
       <c r="C7" t="n">
-        <v>1390.67470807158</v>
+        <v>1394.13017128468</v>
       </c>
       <c r="D7" t="n">
-        <v>1275.03454037418</v>
+        <v>1278.6358055416</v>
       </c>
       <c r="E7" t="n">
-        <v>1414.87688285325</v>
+        <v>1418.30183137191</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1346.89161786958</v>
+        <v>1346.54018371132</v>
       </c>
       <c r="B8" t="n">
-        <v>1298.42321682006</v>
+        <v>1298.132327844</v>
       </c>
       <c r="C8" t="n">
-        <v>1395.3600189191</v>
+        <v>1394.94803957863</v>
       </c>
       <c r="D8" t="n">
-        <v>1272.76559516449</v>
+        <v>1272.50675687185</v>
       </c>
       <c r="E8" t="n">
-        <v>1421.01764057467</v>
+        <v>1420.57361055078</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1347.94498651269</v>
+        <v>1348.62666133064</v>
       </c>
       <c r="B9" t="n">
-        <v>1296.68390883755</v>
+        <v>1297.42881121932</v>
       </c>
       <c r="C9" t="n">
-        <v>1399.20606418784</v>
+        <v>1399.82451144196</v>
       </c>
       <c r="D9" t="n">
-        <v>1269.54793347699</v>
+        <v>1270.32630650924</v>
       </c>
       <c r="E9" t="n">
-        <v>1426.3420395484</v>
+        <v>1426.92701615205</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1346.31786439683</v>
+        <v>1349.81810294314</v>
       </c>
       <c r="B10" t="n">
-        <v>1292.7691367138</v>
+        <v>1296.33612804741</v>
       </c>
       <c r="C10" t="n">
-        <v>1399.86659207986</v>
+        <v>1403.30007783886</v>
       </c>
       <c r="D10" t="n">
-        <v>1264.42215259058</v>
+        <v>1268.02448071527</v>
       </c>
       <c r="E10" t="n">
-        <v>1428.21357620308</v>
+        <v>1431.61172517101</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1348.25091483723</v>
+        <v>1348.34635015439</v>
       </c>
       <c r="B11" t="n">
-        <v>1292.57879244704</v>
+        <v>1292.74313287261</v>
       </c>
       <c r="C11" t="n">
-        <v>1403.92303722742</v>
+        <v>1403.94956743617</v>
       </c>
       <c r="D11" t="n">
-        <v>1263.10775106503</v>
+        <v>1263.30856765164</v>
       </c>
       <c r="E11" t="n">
-        <v>1433.39407860943</v>
+        <v>1433.38413265714</v>
       </c>
     </row>
   </sheetData>

--- a/FILER/google.xlsx
+++ b/FILER/google.xlsx
@@ -15242,16 +15242,16 @@
         <v>1347.949951</v>
       </c>
       <c r="B744" t="n">
-        <v>1352.97998</v>
+        <v>1353.093018</v>
       </c>
       <c r="C744" t="n">
-        <v>1343.920044</v>
+        <v>1343.869995</v>
       </c>
       <c r="D744" t="n">
         <v>1347.829956</v>
       </c>
       <c r="E744" t="n">
-        <v>1550028</v>
+        <v>1549600</v>
       </c>
       <c r="F744" t="n">
         <v>1347.829956</v>

--- a/FILER/google.xlsx
+++ b/FILER/google.xlsx
@@ -15257,6 +15257,26 @@
         <v>1347.829956</v>
       </c>
     </row>
+    <row r="745">
+      <c r="A745" t="n">
+        <v>1356.5</v>
+      </c>
+      <c r="B745" t="n">
+        <v>1364.680054</v>
+      </c>
+      <c r="C745" t="n">
+        <v>1352.689941</v>
+      </c>
+      <c r="D745" t="n">
+        <v>1361.170044</v>
+      </c>
+      <c r="E745" t="n">
+        <v>1305320</v>
+      </c>
+      <c r="F745" t="n">
+        <v>1361.170044</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -15290,172 +15310,172 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1344.48795319959</v>
+        <v>1363.38285256829</v>
       </c>
       <c r="B2" t="n">
-        <v>1324.1785767651</v>
+        <v>1343.07190688448</v>
       </c>
       <c r="C2" t="n">
-        <v>1364.79732963408</v>
+        <v>1383.6937982521</v>
       </c>
       <c r="D2" t="n">
-        <v>1313.42744230774</v>
+        <v>1332.31994171671</v>
       </c>
       <c r="E2" t="n">
-        <v>1375.54846409144</v>
+        <v>1394.44576341987</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1346.51320104588</v>
+        <v>1362.81875960215</v>
       </c>
       <c r="B3" t="n">
-        <v>1317.63635735666</v>
+        <v>1333.94148819742</v>
       </c>
       <c r="C3" t="n">
-        <v>1375.39004473509</v>
+        <v>1391.69603100689</v>
       </c>
       <c r="D3" t="n">
-        <v>1302.34987969407</v>
+        <v>1318.65478411591</v>
       </c>
       <c r="E3" t="n">
-        <v>1390.67652239768</v>
+        <v>1406.9827350884</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1347.67484503252</v>
+        <v>1359.73269276187</v>
       </c>
       <c r="B4" t="n">
-        <v>1313.41397880596</v>
+        <v>1325.47017470659</v>
       </c>
       <c r="C4" t="n">
-        <v>1381.93571125907</v>
+        <v>1393.99521081716</v>
       </c>
       <c r="D4" t="n">
-        <v>1295.27737177544</v>
+        <v>1307.33269325075</v>
       </c>
       <c r="E4" t="n">
-        <v>1400.07231828959</v>
+        <v>1412.13269227299</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1345.14735123856</v>
+        <v>1362.23898427556</v>
       </c>
       <c r="B5" t="n">
-        <v>1306.62771976287</v>
+        <v>1323.70582022141</v>
       </c>
       <c r="C5" t="n">
-        <v>1383.66698271425</v>
+        <v>1400.77214832971</v>
       </c>
       <c r="D5" t="n">
-        <v>1286.23665859076</v>
+        <v>1303.30759533499</v>
       </c>
       <c r="E5" t="n">
-        <v>1404.05804388636</v>
+        <v>1421.17037321613</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1347.25665229049</v>
+        <v>1362.16795034649</v>
       </c>
       <c r="B6" t="n">
-        <v>1304.69678581652</v>
+        <v>1319.58692715786</v>
       </c>
       <c r="C6" t="n">
-        <v>1389.81651876447</v>
+        <v>1404.74897353511</v>
       </c>
       <c r="D6" t="n">
-        <v>1282.16695342974</v>
+        <v>1297.04589508287</v>
       </c>
       <c r="E6" t="n">
-        <v>1412.34635115124</v>
+        <v>1427.29000561011</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1348.46881845676</v>
+        <v>1359.96183452277</v>
       </c>
       <c r="B7" t="n">
-        <v>1302.80746562883</v>
+        <v>1314.2713164607</v>
       </c>
       <c r="C7" t="n">
-        <v>1394.13017128468</v>
+        <v>1405.65235258485</v>
       </c>
       <c r="D7" t="n">
-        <v>1278.6358055416</v>
+        <v>1290.08421723112</v>
       </c>
       <c r="E7" t="n">
-        <v>1418.30183137191</v>
+        <v>1429.83945181442</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1346.54018371132</v>
+        <v>1362.51982309426</v>
       </c>
       <c r="B8" t="n">
-        <v>1298.132327844</v>
+        <v>1314.0701750643</v>
       </c>
       <c r="C8" t="n">
-        <v>1394.94803957863</v>
+        <v>1410.96947112421</v>
       </c>
       <c r="D8" t="n">
-        <v>1272.50675687185</v>
+        <v>1288.42248065763</v>
       </c>
       <c r="E8" t="n">
-        <v>1420.57361055078</v>
+        <v>1436.61716553088</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1348.62666133064</v>
+        <v>1362.72144902991</v>
       </c>
       <c r="B9" t="n">
-        <v>1297.42881121932</v>
+        <v>1311.47242538752</v>
       </c>
       <c r="C9" t="n">
-        <v>1399.82451144196</v>
+        <v>1413.97047267231</v>
       </c>
       <c r="D9" t="n">
-        <v>1270.32630650924</v>
+        <v>1284.34283104644</v>
       </c>
       <c r="E9" t="n">
-        <v>1426.92701615205</v>
+        <v>1441.10006701339</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1349.81810294314</v>
+        <v>1361.13581905841</v>
       </c>
       <c r="B10" t="n">
-        <v>1296.33612804741</v>
+        <v>1307.59262271158</v>
       </c>
       <c r="C10" t="n">
-        <v>1403.30007783886</v>
+        <v>1414.67901540525</v>
       </c>
       <c r="D10" t="n">
-        <v>1268.02448071527</v>
+        <v>1279.24856670087</v>
       </c>
       <c r="E10" t="n">
-        <v>1431.61172517101</v>
+        <v>1443.02307141595</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1348.34635015439</v>
+        <v>1363.62120068584</v>
       </c>
       <c r="B11" t="n">
-        <v>1292.74313287261</v>
+        <v>1307.94439487558</v>
       </c>
       <c r="C11" t="n">
-        <v>1403.94956743617</v>
+        <v>1419.2980064961</v>
       </c>
       <c r="D11" t="n">
-        <v>1263.30856765164</v>
+        <v>1278.47087424075</v>
       </c>
       <c r="E11" t="n">
-        <v>1433.38413265714</v>
+        <v>1448.77152713093</v>
       </c>
     </row>
   </sheetData>

--- a/FILER/google.xlsx
+++ b/FILER/google.xlsx
@@ -12791,7 +12791,7 @@
         <v>1111.420044</v>
       </c>
       <c r="E621" t="n">
-        <v>1262000</v>
+        <v>1181100</v>
       </c>
       <c r="F621" t="n">
         <v>1111.420044</v>
@@ -15265,16 +15265,76 @@
         <v>1364.680054</v>
       </c>
       <c r="C745" t="n">
-        <v>1352.689941</v>
+        <v>1352.670044</v>
       </c>
       <c r="D745" t="n">
         <v>1361.170044</v>
       </c>
       <c r="E745" t="n">
-        <v>1305320</v>
+        <v>1397300</v>
       </c>
       <c r="F745" t="n">
         <v>1361.170044</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="n">
+        <v>1362.890015</v>
+      </c>
+      <c r="B746" t="n">
+        <v>1365</v>
+      </c>
+      <c r="C746" t="n">
+        <v>1351.322998</v>
+      </c>
+      <c r="D746" t="n">
+        <v>1355.119995</v>
+      </c>
+      <c r="E746" t="n">
+        <v>1854000</v>
+      </c>
+      <c r="F746" t="n">
+        <v>1355.119995</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="n">
+        <v>1356.599976</v>
+      </c>
+      <c r="B747" t="n">
+        <v>1360.469971</v>
+      </c>
+      <c r="C747" t="n">
+        <v>1351</v>
+      </c>
+      <c r="D747" t="n">
+        <v>1352.619995</v>
+      </c>
+      <c r="E747" t="n">
+        <v>1522600</v>
+      </c>
+      <c r="F747" t="n">
+        <v>1352.619995</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="n">
+        <v>1351.819946</v>
+      </c>
+      <c r="B748" t="n">
+        <v>1358.099976</v>
+      </c>
+      <c r="C748" t="n">
+        <v>1348.984985</v>
+      </c>
+      <c r="D748" t="n">
+        <v>1356.040039</v>
+      </c>
+      <c r="E748" t="n">
+        <v>1469900</v>
+      </c>
+      <c r="F748" t="n">
+        <v>1356.040039</v>
       </c>
     </row>
   </sheetData>
@@ -15310,172 +15370,172 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1363.38285256829</v>
+        <v>1359.07064220652</v>
       </c>
       <c r="B2" t="n">
-        <v>1343.07190688448</v>
+        <v>1338.795222501</v>
       </c>
       <c r="C2" t="n">
-        <v>1383.6937982521</v>
+        <v>1379.34606191205</v>
       </c>
       <c r="D2" t="n">
-        <v>1332.31994171671</v>
+        <v>1328.06206365013</v>
       </c>
       <c r="E2" t="n">
-        <v>1394.44576341987</v>
+        <v>1390.07922076292</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1362.81875960215</v>
+        <v>1358.28112000328</v>
       </c>
       <c r="B3" t="n">
-        <v>1333.94148819742</v>
+        <v>1329.46496699468</v>
       </c>
       <c r="C3" t="n">
-        <v>1391.69603100689</v>
+        <v>1387.09727301187</v>
       </c>
       <c r="D3" t="n">
-        <v>1318.65478411591</v>
+        <v>1314.21061703772</v>
       </c>
       <c r="E3" t="n">
-        <v>1406.9827350884</v>
+        <v>1402.35162296883</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1359.73269276187</v>
+        <v>1356.47353371174</v>
       </c>
       <c r="B4" t="n">
-        <v>1325.47017470659</v>
+        <v>1322.28971106294</v>
       </c>
       <c r="C4" t="n">
-        <v>1393.99521081716</v>
+        <v>1390.65735636055</v>
       </c>
       <c r="D4" t="n">
-        <v>1307.33269325075</v>
+        <v>1304.19388843888</v>
       </c>
       <c r="E4" t="n">
-        <v>1412.13269227299</v>
+        <v>1408.75317898461</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1362.23898427556</v>
+        <v>1359.44301180463</v>
       </c>
       <c r="B5" t="n">
-        <v>1323.70582022141</v>
+        <v>1320.99912549374</v>
       </c>
       <c r="C5" t="n">
-        <v>1400.77214832971</v>
+        <v>1397.88689811553</v>
       </c>
       <c r="D5" t="n">
-        <v>1303.30759533499</v>
+        <v>1300.64816138979</v>
       </c>
       <c r="E5" t="n">
-        <v>1421.17037321613</v>
+        <v>1418.23786221948</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1362.16795034649</v>
+        <v>1359.00900723142</v>
       </c>
       <c r="B6" t="n">
-        <v>1319.58692715786</v>
+        <v>1316.53201575919</v>
       </c>
       <c r="C6" t="n">
-        <v>1404.74897353511</v>
+        <v>1401.48599870366</v>
       </c>
       <c r="D6" t="n">
-        <v>1297.04589508287</v>
+        <v>1294.04605474827</v>
       </c>
       <c r="E6" t="n">
-        <v>1427.29000561011</v>
+        <v>1423.97195971458</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1359.96183452277</v>
+        <v>1357.762542675</v>
       </c>
       <c r="B7" t="n">
-        <v>1314.2713164607</v>
+        <v>1312.18778672527</v>
       </c>
       <c r="C7" t="n">
-        <v>1405.65235258485</v>
+        <v>1403.33729862474</v>
       </c>
       <c r="D7" t="n">
-        <v>1290.08421723112</v>
+        <v>1288.06196825627</v>
       </c>
       <c r="E7" t="n">
-        <v>1429.83945181442</v>
+        <v>1427.46311709374</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1362.51982309426</v>
+        <v>1360.57417015697</v>
       </c>
       <c r="B8" t="n">
-        <v>1314.0701750643</v>
+        <v>1312.24898990906</v>
       </c>
       <c r="C8" t="n">
-        <v>1410.96947112421</v>
+        <v>1408.89935040489</v>
       </c>
       <c r="D8" t="n">
-        <v>1288.42248065763</v>
+        <v>1286.66718476613</v>
       </c>
       <c r="E8" t="n">
-        <v>1436.61716553088</v>
+        <v>1434.48115554781</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1362.72144902991</v>
+        <v>1360.36997686168</v>
       </c>
       <c r="B9" t="n">
-        <v>1311.47242538752</v>
+        <v>1309.25695539087</v>
       </c>
       <c r="C9" t="n">
-        <v>1413.97047267231</v>
+        <v>1411.48299833248</v>
       </c>
       <c r="D9" t="n">
-        <v>1284.34283104644</v>
+        <v>1282.19935625053</v>
       </c>
       <c r="E9" t="n">
-        <v>1441.10006701339</v>
+        <v>1438.54059747282</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1361.13581905841</v>
+        <v>1359.53159351492</v>
       </c>
       <c r="B10" t="n">
-        <v>1307.59262271158</v>
+        <v>1306.13363852047</v>
       </c>
       <c r="C10" t="n">
-        <v>1414.67901540525</v>
+        <v>1412.92954850937</v>
       </c>
       <c r="D10" t="n">
-        <v>1279.24856670087</v>
+        <v>1277.86646863738</v>
       </c>
       <c r="E10" t="n">
-        <v>1443.02307141595</v>
+        <v>1441.19671839247</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1363.62120068584</v>
+        <v>1362.14611330194</v>
       </c>
       <c r="B11" t="n">
-        <v>1307.94439487558</v>
+        <v>1306.6222197597</v>
       </c>
       <c r="C11" t="n">
-        <v>1419.2980064961</v>
+        <v>1417.67000684419</v>
       </c>
       <c r="D11" t="n">
-        <v>1278.47087424075</v>
+        <v>1277.22964598992</v>
       </c>
       <c r="E11" t="n">
-        <v>1448.77152713093</v>
+        <v>1447.06258061397</v>
       </c>
     </row>
   </sheetData>

--- a/FILER/google.xlsx
+++ b/FILER/google.xlsx
@@ -12791,7 +12791,7 @@
         <v>1111.420044</v>
       </c>
       <c r="E621" t="n">
-        <v>1181100</v>
+        <v>1262000</v>
       </c>
       <c r="F621" t="n">
         <v>1111.420044</v>
@@ -12811,7 +12811,7 @@
         <v>1121.880005</v>
       </c>
       <c r="E622" t="n">
-        <v>1947600</v>
+        <v>1930100</v>
       </c>
       <c r="F622" t="n">
         <v>1121.880005</v>
@@ -15335,6 +15335,26 @@
       </c>
       <c r="F748" t="n">
         <v>1356.040039</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="n">
+        <v>1363.349976</v>
+      </c>
+      <c r="B749" t="n">
+        <v>1363.640015</v>
+      </c>
+      <c r="C749" t="n">
+        <v>1349</v>
+      </c>
+      <c r="D749" t="n">
+        <v>1349.589966</v>
+      </c>
+      <c r="E749" t="n">
+        <v>3315000</v>
+      </c>
+      <c r="F749" t="n">
+        <v>1349.589966</v>
       </c>
     </row>
   </sheetData>
@@ -15370,172 +15390,172 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1359.07064220652</v>
+        <v>1348.71156527942</v>
       </c>
       <c r="B2" t="n">
-        <v>1338.795222501</v>
+        <v>1328.44492413606</v>
       </c>
       <c r="C2" t="n">
-        <v>1379.34606191205</v>
+        <v>1368.97820642278</v>
       </c>
       <c r="D2" t="n">
-        <v>1328.06206365013</v>
+        <v>1317.71641237529</v>
       </c>
       <c r="E2" t="n">
-        <v>1390.07922076292</v>
+        <v>1379.70671818356</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1358.28112000328</v>
+        <v>1347.8726196522</v>
       </c>
       <c r="B3" t="n">
-        <v>1329.46496699468</v>
+        <v>1319.07680664279</v>
       </c>
       <c r="C3" t="n">
-        <v>1387.09727301187</v>
+        <v>1376.66843266162</v>
       </c>
       <c r="D3" t="n">
-        <v>1314.21061703772</v>
+        <v>1303.83322403099</v>
       </c>
       <c r="E3" t="n">
-        <v>1402.35162296883</v>
+        <v>1391.91201527341</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1356.47353371174</v>
+        <v>1351.16065358777</v>
       </c>
       <c r="B4" t="n">
-        <v>1322.28971106294</v>
+        <v>1317.00132870801</v>
       </c>
       <c r="C4" t="n">
-        <v>1390.65735636055</v>
+        <v>1385.31997846752</v>
       </c>
       <c r="D4" t="n">
-        <v>1304.19388843888</v>
+        <v>1298.91847441953</v>
       </c>
       <c r="E4" t="n">
-        <v>1408.75317898461</v>
+        <v>1403.40283275601</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1359.44301180463</v>
+        <v>1350.51269730627</v>
       </c>
       <c r="B5" t="n">
-        <v>1320.99912549374</v>
+        <v>1312.09537219459</v>
       </c>
       <c r="C5" t="n">
-        <v>1397.88689811553</v>
+        <v>1388.93002241795</v>
       </c>
       <c r="D5" t="n">
-        <v>1300.64816138979</v>
+        <v>1291.75846874016</v>
       </c>
       <c r="E5" t="n">
-        <v>1418.23786221948</v>
+        <v>1409.26692587238</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1359.00900723142</v>
+        <v>1349.98312711198</v>
       </c>
       <c r="B6" t="n">
-        <v>1316.53201575919</v>
+        <v>1307.53941333358</v>
       </c>
       <c r="C6" t="n">
-        <v>1401.48599870366</v>
+        <v>1392.42684089038</v>
       </c>
       <c r="D6" t="n">
-        <v>1294.04605474827</v>
+        <v>1285.07106846966</v>
       </c>
       <c r="E6" t="n">
-        <v>1423.97195971458</v>
+        <v>1414.89518575431</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1357.762542675</v>
+        <v>1352.95741559062</v>
       </c>
       <c r="B7" t="n">
-        <v>1312.18778672527</v>
+        <v>1307.42015383974</v>
       </c>
       <c r="C7" t="n">
-        <v>1403.33729862474</v>
+        <v>1398.49467734149</v>
       </c>
       <c r="D7" t="n">
-        <v>1288.06196825627</v>
+        <v>1283.31418360068</v>
       </c>
       <c r="E7" t="n">
-        <v>1427.46311709374</v>
+        <v>1422.60064758056</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1360.57417015697</v>
+        <v>1352.49220164837</v>
       </c>
       <c r="B8" t="n">
-        <v>1312.24898990906</v>
+        <v>1304.20824457494</v>
       </c>
       <c r="C8" t="n">
-        <v>1408.89935040489</v>
+        <v>1400.7761587218</v>
       </c>
       <c r="D8" t="n">
-        <v>1286.66718476613</v>
+        <v>1278.6482616624</v>
       </c>
       <c r="E8" t="n">
-        <v>1434.48115554781</v>
+        <v>1426.33614163434</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1360.36997686168</v>
+        <v>1352.20434111687</v>
       </c>
       <c r="B9" t="n">
-        <v>1309.25695539087</v>
+        <v>1301.13919425129</v>
       </c>
       <c r="C9" t="n">
-        <v>1411.48299833248</v>
+        <v>1403.26948798246</v>
       </c>
       <c r="D9" t="n">
-        <v>1282.19935625053</v>
+        <v>1274.10693839609</v>
       </c>
       <c r="E9" t="n">
-        <v>1438.54059747282</v>
+        <v>1430.30174383766</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1359.53159351492</v>
+        <v>1354.89136446955</v>
       </c>
       <c r="B10" t="n">
-        <v>1306.13363852047</v>
+        <v>1301.54626758003</v>
       </c>
       <c r="C10" t="n">
-        <v>1412.92954850937</v>
+        <v>1408.23646135908</v>
       </c>
       <c r="D10" t="n">
-        <v>1277.86646863738</v>
+        <v>1273.30707908746</v>
       </c>
       <c r="E10" t="n">
-        <v>1441.19671839247</v>
+        <v>1436.47564985165</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1362.14611330194</v>
+        <v>1354.57650880911</v>
       </c>
       <c r="B11" t="n">
-        <v>1306.6222197597</v>
+        <v>1299.11041501063</v>
       </c>
       <c r="C11" t="n">
-        <v>1417.67000684419</v>
+        <v>1410.0426026076</v>
       </c>
       <c r="D11" t="n">
-        <v>1277.22964598992</v>
+        <v>1269.74843857696</v>
       </c>
       <c r="E11" t="n">
-        <v>1447.06258061397</v>
+        <v>1439.40457904127</v>
       </c>
     </row>
   </sheetData>

--- a/FILER/google.xlsx
+++ b/FILER/google.xlsx
@@ -15357,6 +15357,26 @@
         <v>1349.589966</v>
       </c>
     </row>
+    <row r="750">
+      <c r="A750" t="n">
+        <v>1355.869995</v>
+      </c>
+      <c r="B750" t="n">
+        <v>1359.780029</v>
+      </c>
+      <c r="C750" t="n">
+        <v>1346.51001</v>
+      </c>
+      <c r="D750" t="n">
+        <v>1348.839966</v>
+      </c>
+      <c r="E750" t="n">
+        <v>811583</v>
+      </c>
+      <c r="F750" t="n">
+        <v>1348.839966</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -15390,172 +15410,172 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1348.71156527942</v>
+        <v>1348.00171810518</v>
       </c>
       <c r="B2" t="n">
-        <v>1328.44492413606</v>
+        <v>1327.74875669333</v>
       </c>
       <c r="C2" t="n">
-        <v>1368.97820642278</v>
+        <v>1368.25467951704</v>
       </c>
       <c r="D2" t="n">
-        <v>1317.71641237529</v>
+        <v>1317.02748654498</v>
       </c>
       <c r="E2" t="n">
-        <v>1379.70671818356</v>
+        <v>1378.97594966539</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1347.8726196522</v>
+        <v>1351.27685795318</v>
       </c>
       <c r="B3" t="n">
-        <v>1319.07680664279</v>
+        <v>1322.50058569502</v>
       </c>
       <c r="C3" t="n">
-        <v>1376.66843266162</v>
+        <v>1380.05313021135</v>
       </c>
       <c r="D3" t="n">
-        <v>1303.83322403099</v>
+        <v>1307.26734733208</v>
       </c>
       <c r="E3" t="n">
-        <v>1391.91201527341</v>
+        <v>1395.28636857428</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1351.16065358777</v>
+        <v>1350.624763458</v>
       </c>
       <c r="B4" t="n">
-        <v>1317.00132870801</v>
+        <v>1316.48854171124</v>
       </c>
       <c r="C4" t="n">
-        <v>1385.31997846752</v>
+        <v>1384.76098520477</v>
       </c>
       <c r="D4" t="n">
-        <v>1298.91847441953</v>
+        <v>1298.4179174826</v>
       </c>
       <c r="E4" t="n">
-        <v>1403.40283275601</v>
+        <v>1402.83160943341</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1350.51269730627</v>
+        <v>1350.09764828843</v>
       </c>
       <c r="B5" t="n">
-        <v>1312.09537219459</v>
+        <v>1311.7063205645</v>
       </c>
       <c r="C5" t="n">
-        <v>1388.93002241795</v>
+        <v>1388.48897601236</v>
       </c>
       <c r="D5" t="n">
-        <v>1291.75846874016</v>
+        <v>1291.38317929584</v>
       </c>
       <c r="E5" t="n">
-        <v>1409.26692587238</v>
+        <v>1408.81211728102</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1349.98312711198</v>
+        <v>1353.06246634232</v>
       </c>
       <c r="B6" t="n">
-        <v>1307.53941333358</v>
+        <v>1310.64750621956</v>
       </c>
       <c r="C6" t="n">
-        <v>1392.42684089038</v>
+        <v>1395.47742646508</v>
       </c>
       <c r="D6" t="n">
-        <v>1285.07106846966</v>
+        <v>1288.19438262148</v>
       </c>
       <c r="E6" t="n">
-        <v>1414.89518575431</v>
+        <v>1417.93055006316</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1352.95741559062</v>
+        <v>1352.59513750516</v>
       </c>
       <c r="B7" t="n">
-        <v>1307.42015383974</v>
+        <v>1307.08868324391</v>
       </c>
       <c r="C7" t="n">
-        <v>1398.49467734149</v>
+        <v>1398.1015917664</v>
       </c>
       <c r="D7" t="n">
-        <v>1283.31418360068</v>
+        <v>1282.99902150474</v>
       </c>
       <c r="E7" t="n">
-        <v>1422.60064758056</v>
+        <v>1422.19125350557</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1352.49220164837</v>
+        <v>1352.31043541347</v>
       </c>
       <c r="B8" t="n">
-        <v>1304.20824457494</v>
+        <v>1304.05913951533</v>
       </c>
       <c r="C8" t="n">
-        <v>1400.7761587218</v>
+        <v>1400.56173131162</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.6482616624</v>
+        <v>1278.51644638459</v>
       </c>
       <c r="E8" t="n">
-        <v>1426.33614163434</v>
+        <v>1426.10442444235</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1352.20434111687</v>
+        <v>1354.99025221076</v>
       </c>
       <c r="B9" t="n">
-        <v>1301.13919425129</v>
+        <v>1303.95964323988</v>
       </c>
       <c r="C9" t="n">
-        <v>1403.26948798246</v>
+        <v>1406.02086118165</v>
       </c>
       <c r="D9" t="n">
-        <v>1274.10693839609</v>
+        <v>1276.94567064172</v>
       </c>
       <c r="E9" t="n">
-        <v>1430.30174383766</v>
+        <v>1433.03483377981</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1354.89136446955</v>
+        <v>1354.67443930564</v>
       </c>
       <c r="B10" t="n">
-        <v>1301.54626758003</v>
+        <v>1301.36538194609</v>
       </c>
       <c r="C10" t="n">
-        <v>1408.23646135908</v>
+        <v>1407.98349666518</v>
       </c>
       <c r="D10" t="n">
-        <v>1273.30707908746</v>
+        <v>1273.14527162827</v>
       </c>
       <c r="E10" t="n">
-        <v>1436.47564985165</v>
+        <v>1436.20360698301</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1354.57650880911</v>
+        <v>1354.58211427678</v>
       </c>
       <c r="B11" t="n">
-        <v>1299.11041501063</v>
+        <v>1299.1534744452</v>
       </c>
       <c r="C11" t="n">
-        <v>1410.0426026076</v>
+        <v>1410.01075410835</v>
       </c>
       <c r="D11" t="n">
-        <v>1269.74843857696</v>
+        <v>1269.81132494395</v>
       </c>
       <c r="E11" t="n">
-        <v>1439.40457904127</v>
+        <v>1439.3529036096</v>
       </c>
     </row>
   </sheetData>

--- a/FILER/google.xlsx
+++ b/FILER/google.xlsx
@@ -12811,7 +12811,7 @@
         <v>1121.880005</v>
       </c>
       <c r="E622" t="n">
-        <v>1930100</v>
+        <v>1947600</v>
       </c>
       <c r="F622" t="n">
         <v>1121.880005</v>
@@ -15362,7 +15362,7 @@
         <v>1355.869995</v>
       </c>
       <c r="B750" t="n">
-        <v>1359.780029</v>
+        <v>1359.800049</v>
       </c>
       <c r="C750" t="n">
         <v>1346.51001</v>
@@ -15371,7 +15371,7 @@
         <v>1348.839966</v>
       </c>
       <c r="E750" t="n">
-        <v>811583</v>
+        <v>883100</v>
       </c>
       <c r="F750" t="n">
         <v>1348.839966</v>

--- a/FILER/google.xlsx
+++ b/FILER/google.xlsx
@@ -12851,7 +12851,7 @@
         <v>1086.349976</v>
       </c>
       <c r="E624" t="n">
-        <v>1546900</v>
+        <v>1546300</v>
       </c>
       <c r="F624" t="n">
         <v>1086.349976</v>
@@ -15375,6 +15375,26 @@
       </c>
       <c r="F750" t="n">
         <v>1348.839966</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="n">
+        <v>1348.5</v>
+      </c>
+      <c r="B751" t="n">
+        <v>1350.26001</v>
+      </c>
+      <c r="C751" t="n">
+        <v>1342.780029</v>
+      </c>
+      <c r="D751" t="n">
+        <v>1343.560059</v>
+      </c>
+      <c r="E751" t="n">
+        <v>347500</v>
+      </c>
+      <c r="F751" t="n">
+        <v>1343.560059</v>
       </c>
     </row>
   </sheetData>
@@ -15410,172 +15430,172 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1348.00171810518</v>
+        <v>1346.77564365473</v>
       </c>
       <c r="B2" t="n">
-        <v>1327.74875669333</v>
+        <v>1326.53527252245</v>
       </c>
       <c r="C2" t="n">
-        <v>1368.25467951704</v>
+        <v>1367.01601478701</v>
       </c>
       <c r="D2" t="n">
-        <v>1317.02748654498</v>
+        <v>1315.82066726552</v>
       </c>
       <c r="E2" t="n">
-        <v>1378.97594966539</v>
+        <v>1377.73062004395</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1351.27685795318</v>
+        <v>1346.57658630443</v>
       </c>
       <c r="B3" t="n">
-        <v>1322.50058569502</v>
+        <v>1317.80729648102</v>
       </c>
       <c r="C3" t="n">
-        <v>1380.05313021135</v>
+        <v>1375.34587612783</v>
       </c>
       <c r="D3" t="n">
-        <v>1307.26734733208</v>
+        <v>1302.57775439577</v>
       </c>
       <c r="E3" t="n">
-        <v>1395.28636857428</v>
+        <v>1390.57541821308</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1350.624763458</v>
+        <v>1346.1896847343</v>
       </c>
       <c r="B4" t="n">
-        <v>1316.48854171124</v>
+        <v>1312.04893571981</v>
       </c>
       <c r="C4" t="n">
-        <v>1384.76098520477</v>
+        <v>1380.3304337488</v>
       </c>
       <c r="D4" t="n">
-        <v>1298.4179174826</v>
+        <v>1293.97591490039</v>
       </c>
       <c r="E4" t="n">
-        <v>1402.83160943341</v>
+        <v>1398.40345456822</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1350.09764828843</v>
+        <v>1349.04513953188</v>
       </c>
       <c r="B5" t="n">
-        <v>1311.7063205645</v>
+        <v>1310.64139491598</v>
       </c>
       <c r="C5" t="n">
-        <v>1388.48897601236</v>
+        <v>1387.44888414778</v>
       </c>
       <c r="D5" t="n">
-        <v>1291.38317929584</v>
+        <v>1290.31168054176</v>
       </c>
       <c r="E5" t="n">
-        <v>1408.81211728102</v>
+        <v>1407.778598522</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1353.06246634232</v>
+        <v>1348.91839774065</v>
       </c>
       <c r="B6" t="n">
-        <v>1310.64750621956</v>
+        <v>1306.48401163279</v>
       </c>
       <c r="C6" t="n">
-        <v>1395.47742646508</v>
+        <v>1391.35278384852</v>
       </c>
       <c r="D6" t="n">
-        <v>1288.19438262148</v>
+        <v>1284.02060453938</v>
       </c>
       <c r="E6" t="n">
-        <v>1417.93055006316</v>
+        <v>1413.81619094193</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1352.59513750516</v>
+        <v>1348.70524836303</v>
       </c>
       <c r="B7" t="n">
-        <v>1307.08868324391</v>
+        <v>1303.17223381155</v>
       </c>
       <c r="C7" t="n">
-        <v>1398.1015917664</v>
+        <v>1394.23826291452</v>
       </c>
       <c r="D7" t="n">
-        <v>1282.99902150474</v>
+        <v>1279.06851190403</v>
       </c>
       <c r="E7" t="n">
-        <v>1422.19125350557</v>
+        <v>1418.34198482203</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1352.31043541347</v>
+        <v>1351.25847628266</v>
       </c>
       <c r="B8" t="n">
-        <v>1304.05913951533</v>
+        <v>1302.97703747083</v>
       </c>
       <c r="C8" t="n">
-        <v>1400.56173131162</v>
+        <v>1399.53991509449</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.51644638459</v>
+        <v>1277.41838764546</v>
       </c>
       <c r="E8" t="n">
-        <v>1426.10442444235</v>
+        <v>1425.09856491986</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1354.99025221076</v>
+        <v>1351.20774464091</v>
       </c>
       <c r="B9" t="n">
-        <v>1303.95964323988</v>
+        <v>1300.14486709556</v>
       </c>
       <c r="C9" t="n">
-        <v>1406.02086118165</v>
+        <v>1402.27062218626</v>
       </c>
       <c r="D9" t="n">
-        <v>1276.94567064172</v>
+        <v>1273.11381254593</v>
       </c>
       <c r="E9" t="n">
-        <v>1433.03483377981</v>
+        <v>1429.3016767359</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1354.67443930564</v>
+        <v>1351.1468487086</v>
       </c>
       <c r="B10" t="n">
-        <v>1301.36538194609</v>
+        <v>1297.80376233717</v>
       </c>
       <c r="C10" t="n">
-        <v>1407.98349666518</v>
+        <v>1404.48993508002</v>
       </c>
       <c r="D10" t="n">
-        <v>1273.14527162827</v>
+        <v>1269.56563814859</v>
       </c>
       <c r="E10" t="n">
-        <v>1436.20360698301</v>
+        <v>1432.72805926861</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1354.58211427678</v>
+        <v>1353.44407272935</v>
       </c>
       <c r="B11" t="n">
-        <v>1299.1534744452</v>
+        <v>1297.98230285682</v>
       </c>
       <c r="C11" t="n">
-        <v>1410.01075410835</v>
+        <v>1408.90584260187</v>
       </c>
       <c r="D11" t="n">
-        <v>1269.81132494395</v>
+        <v>1268.62261537128</v>
       </c>
       <c r="E11" t="n">
-        <v>1439.3529036096</v>
+        <v>1438.26553008741</v>
       </c>
     </row>
   </sheetData>

--- a/FILER/google.xlsx
+++ b/FILER/google.xlsx
@@ -12851,7 +12851,7 @@
         <v>1086.349976</v>
       </c>
       <c r="E624" t="n">
-        <v>1546300</v>
+        <v>1546900</v>
       </c>
       <c r="F624" t="n">
         <v>1086.349976</v>
@@ -12871,7 +12871,7 @@
         <v>1079.800049</v>
       </c>
       <c r="E625" t="n">
-        <v>1810900</v>
+        <v>1799100</v>
       </c>
       <c r="F625" t="n">
         <v>1079.800049</v>

--- a/FILER/google.xlsx
+++ b/FILER/google.xlsx
@@ -12871,7 +12871,7 @@
         <v>1079.800049</v>
       </c>
       <c r="E625" t="n">
-        <v>1799100</v>
+        <v>1810900</v>
       </c>
       <c r="F625" t="n">
         <v>1079.800049</v>
@@ -15395,6 +15395,46 @@
       </c>
       <c r="F751" t="n">
         <v>1343.560059</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="n">
+        <v>1346.170044</v>
+      </c>
+      <c r="B752" t="n">
+        <v>1361.327026</v>
+      </c>
+      <c r="C752" t="n">
+        <v>1344.469971</v>
+      </c>
+      <c r="D752" t="n">
+        <v>1360.400024</v>
+      </c>
+      <c r="E752" t="n">
+        <v>667500</v>
+      </c>
+      <c r="F752" t="n">
+        <v>1360.400024</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="n">
+        <v>1362.98999</v>
+      </c>
+      <c r="B753" t="n">
+        <v>1364.530029</v>
+      </c>
+      <c r="C753" t="n">
+        <v>1349.310059</v>
+      </c>
+      <c r="D753" t="n">
+        <v>1351.890015</v>
+      </c>
+      <c r="E753" t="n">
+        <v>1038400</v>
+      </c>
+      <c r="F753" t="n">
+        <v>1351.890015</v>
       </c>
     </row>
   </sheetData>
@@ -15430,172 +15470,172 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1346.77564365473</v>
+        <v>1350.01309331503</v>
       </c>
       <c r="B2" t="n">
-        <v>1326.53527252245</v>
+        <v>1329.78608028127</v>
       </c>
       <c r="C2" t="n">
-        <v>1367.01601478701</v>
+        <v>1370.2401063488</v>
       </c>
       <c r="D2" t="n">
-        <v>1315.82066726552</v>
+        <v>1319.07854637455</v>
       </c>
       <c r="E2" t="n">
-        <v>1377.73062004395</v>
+        <v>1380.94764025552</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1346.57658630443</v>
+        <v>1353.23798409471</v>
       </c>
       <c r="B3" t="n">
-        <v>1317.80729648102</v>
+        <v>1324.48701215375</v>
       </c>
       <c r="C3" t="n">
-        <v>1375.34587612783</v>
+        <v>1381.98895603566</v>
       </c>
       <c r="D3" t="n">
-        <v>1302.57775439577</v>
+        <v>1309.26716696973</v>
       </c>
       <c r="E3" t="n">
-        <v>1390.57541821308</v>
+        <v>1397.20880121968</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1346.1896847343</v>
+        <v>1353.70420684369</v>
       </c>
       <c r="B4" t="n">
-        <v>1312.04893571981</v>
+        <v>1319.59090101745</v>
       </c>
       <c r="C4" t="n">
-        <v>1380.3304337488</v>
+        <v>1387.81751266993</v>
       </c>
       <c r="D4" t="n">
-        <v>1293.97591490039</v>
+        <v>1301.53240774435</v>
       </c>
       <c r="E4" t="n">
-        <v>1398.40345456822</v>
+        <v>1405.87600594303</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1349.04513953188</v>
+        <v>1352.25173551819</v>
       </c>
       <c r="B5" t="n">
-        <v>1310.64139491598</v>
+        <v>1313.88834671216</v>
       </c>
       <c r="C5" t="n">
-        <v>1387.44888414778</v>
+        <v>1390.61512432422</v>
       </c>
       <c r="D5" t="n">
-        <v>1290.31168054176</v>
+        <v>1293.57999541324</v>
       </c>
       <c r="E5" t="n">
-        <v>1407.778598522</v>
+        <v>1410.92347562315</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1348.91839774065</v>
+        <v>1355.18561325084</v>
       </c>
       <c r="B6" t="n">
-        <v>1306.48401163279</v>
+        <v>1312.80073775929</v>
       </c>
       <c r="C6" t="n">
-        <v>1391.35278384852</v>
+        <v>1397.57048874238</v>
       </c>
       <c r="D6" t="n">
-        <v>1284.02060453938</v>
+        <v>1290.36354000298</v>
       </c>
       <c r="E6" t="n">
-        <v>1413.81619094193</v>
+        <v>1420.00768649869</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1348.70524836303</v>
+        <v>1355.64925708586</v>
       </c>
       <c r="B7" t="n">
-        <v>1303.17223381155</v>
+        <v>1310.17588594044</v>
       </c>
       <c r="C7" t="n">
-        <v>1394.23826291452</v>
+        <v>1401.12262823129</v>
       </c>
       <c r="D7" t="n">
-        <v>1279.06851190403</v>
+        <v>1286.10373734489</v>
       </c>
       <c r="E7" t="n">
-        <v>1418.34198482203</v>
+        <v>1425.19477682683</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1351.25847628266</v>
+        <v>1354.54723411403</v>
       </c>
       <c r="B8" t="n">
-        <v>1302.97703747083</v>
+        <v>1306.33549348851</v>
       </c>
       <c r="C8" t="n">
-        <v>1399.53991509449</v>
+        <v>1402.75897473956</v>
       </c>
       <c r="D8" t="n">
-        <v>1277.41838764546</v>
+        <v>1280.81373965425</v>
       </c>
       <c r="E8" t="n">
-        <v>1425.09856491986</v>
+        <v>1428.28072857382</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1351.20774464091</v>
+        <v>1357.2152597741</v>
       </c>
       <c r="B9" t="n">
-        <v>1300.14486709556</v>
+        <v>1306.23000548727</v>
       </c>
       <c r="C9" t="n">
-        <v>1402.27062218626</v>
+        <v>1408.20051406092</v>
       </c>
       <c r="D9" t="n">
-        <v>1273.11381254593</v>
+        <v>1279.24004220856</v>
       </c>
       <c r="E9" t="n">
-        <v>1429.3016767359</v>
+        <v>1435.19047733963</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1351.1468487086</v>
+        <v>1357.67678084952</v>
       </c>
       <c r="B10" t="n">
-        <v>1297.80376233717</v>
+        <v>1304.42013546614</v>
       </c>
       <c r="C10" t="n">
-        <v>1404.48993508002</v>
+        <v>1410.9334262329</v>
       </c>
       <c r="D10" t="n">
-        <v>1269.56563814859</v>
+        <v>1276.22777037253</v>
       </c>
       <c r="E10" t="n">
-        <v>1432.72805926861</v>
+        <v>1439.12579132651</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1353.44407272935</v>
+        <v>1356.86666809008</v>
       </c>
       <c r="B11" t="n">
-        <v>1297.98230285682</v>
+        <v>1301.49886451625</v>
       </c>
       <c r="C11" t="n">
-        <v>1408.90584260187</v>
+        <v>1412.23447166392</v>
       </c>
       <c r="D11" t="n">
-        <v>1268.62261537128</v>
+        <v>1272.1889197845</v>
       </c>
       <c r="E11" t="n">
-        <v>1438.26553008741</v>
+        <v>1441.54441639566</v>
       </c>
     </row>
   </sheetData>

--- a/FILER/google.xlsx
+++ b/FILER/google.xlsx
@@ -15437,6 +15437,46 @@
         <v>1351.890015</v>
       </c>
     </row>
+    <row r="754">
+      <c r="A754" t="n">
+        <v>1350</v>
+      </c>
+      <c r="B754" t="n">
+        <v>1353</v>
+      </c>
+      <c r="C754" t="n">
+        <v>1334.02002</v>
+      </c>
+      <c r="D754" t="n">
+        <v>1336.140015</v>
+      </c>
+      <c r="E754" t="n">
+        <v>1050900</v>
+      </c>
+      <c r="F754" t="n">
+        <v>1336.140015</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="n">
+        <v>1330.109985</v>
+      </c>
+      <c r="B755" t="n">
+        <v>1338</v>
+      </c>
+      <c r="C755" t="n">
+        <v>1329.084961</v>
+      </c>
+      <c r="D755" t="n">
+        <v>1337.02002</v>
+      </c>
+      <c r="E755" t="n">
+        <v>961800</v>
+      </c>
+      <c r="F755" t="n">
+        <v>1337.02002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -15470,172 +15510,172 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1350.01309331503</v>
+        <v>1338.91448052516</v>
       </c>
       <c r="B2" t="n">
-        <v>1329.78608028127</v>
+        <v>1318.70408337493</v>
       </c>
       <c r="C2" t="n">
-        <v>1370.2401063488</v>
+        <v>1359.12487767539</v>
       </c>
       <c r="D2" t="n">
-        <v>1319.07854637455</v>
+        <v>1308.00534538563</v>
       </c>
       <c r="E2" t="n">
-        <v>1380.94764025552</v>
+        <v>1369.82361566469</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1353.23798409471</v>
+        <v>1338.18454615914</v>
       </c>
       <c r="B3" t="n">
-        <v>1324.48701215375</v>
+        <v>1309.46343279152</v>
       </c>
       <c r="C3" t="n">
-        <v>1381.98895603566</v>
+        <v>1366.90565952677</v>
       </c>
       <c r="D3" t="n">
-        <v>1309.26716696973</v>
+        <v>1294.25939378144</v>
       </c>
       <c r="E3" t="n">
-        <v>1397.20880121968</v>
+        <v>1382.10969853685</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1353.70420684369</v>
+        <v>1340.91852413172</v>
       </c>
       <c r="B4" t="n">
-        <v>1319.59090101745</v>
+        <v>1306.84297330564</v>
       </c>
       <c r="C4" t="n">
-        <v>1387.81751266993</v>
+        <v>1374.9940749578</v>
       </c>
       <c r="D4" t="n">
-        <v>1301.53240774435</v>
+        <v>1288.80446632234</v>
       </c>
       <c r="E4" t="n">
-        <v>1405.87600594303</v>
+        <v>1393.0325819411</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1352.25173551819</v>
+        <v>1342.40982066122</v>
       </c>
       <c r="B5" t="n">
-        <v>1313.88834671216</v>
+        <v>1304.09848234574</v>
       </c>
       <c r="C5" t="n">
-        <v>1390.61512432422</v>
+        <v>1380.7211589767</v>
       </c>
       <c r="D5" t="n">
-        <v>1293.57999541324</v>
+        <v>1283.81768491211</v>
       </c>
       <c r="E5" t="n">
-        <v>1410.92347562315</v>
+        <v>1401.00195641033</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1355.18561325084</v>
+        <v>1341.72747422909</v>
       </c>
       <c r="B6" t="n">
-        <v>1312.80073775929</v>
+        <v>1299.40483614463</v>
       </c>
       <c r="C6" t="n">
-        <v>1397.57048874238</v>
+        <v>1384.05011231354</v>
       </c>
       <c r="D6" t="n">
-        <v>1290.36354000298</v>
+        <v>1277.00058488148</v>
       </c>
       <c r="E6" t="n">
-        <v>1420.00768649869</v>
+        <v>1406.45436357669</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1355.64925708586</v>
+        <v>1344.08357301917</v>
       </c>
       <c r="B7" t="n">
-        <v>1310.17588594044</v>
+        <v>1298.67915271099</v>
       </c>
       <c r="C7" t="n">
-        <v>1401.12262823129</v>
+        <v>1389.48799332735</v>
       </c>
       <c r="D7" t="n">
-        <v>1286.10373734489</v>
+        <v>1274.64350448385</v>
       </c>
       <c r="E7" t="n">
-        <v>1425.19477682683</v>
+        <v>1413.52364155449</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1354.54723411403</v>
+        <v>1345.31632566586</v>
       </c>
       <c r="B8" t="n">
-        <v>1306.33549348851</v>
+        <v>1297.1829083525</v>
       </c>
       <c r="C8" t="n">
-        <v>1402.75897473956</v>
+        <v>1393.44974297922</v>
       </c>
       <c r="D8" t="n">
-        <v>1280.81373965425</v>
+        <v>1271.70261637517</v>
       </c>
       <c r="E8" t="n">
-        <v>1428.28072857382</v>
+        <v>1418.93003495654</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1357.2152597741</v>
+        <v>1344.7439084136</v>
       </c>
       <c r="B9" t="n">
-        <v>1306.23000548727</v>
+        <v>1293.84222545672</v>
       </c>
       <c r="C9" t="n">
-        <v>1408.20051406092</v>
+        <v>1395.64559137049</v>
       </c>
       <c r="D9" t="n">
-        <v>1279.24004220856</v>
+        <v>1266.89650216774</v>
       </c>
       <c r="E9" t="n">
-        <v>1435.19047733963</v>
+        <v>1422.59131465946</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1357.67678084952</v>
+        <v>1346.82649424761</v>
       </c>
       <c r="B10" t="n">
-        <v>1304.42013546614</v>
+        <v>1293.65704629358</v>
       </c>
       <c r="C10" t="n">
-        <v>1410.9334262329</v>
+        <v>1399.99594220164</v>
       </c>
       <c r="D10" t="n">
-        <v>1276.22777037253</v>
+        <v>1265.51084073078</v>
       </c>
       <c r="E10" t="n">
-        <v>1439.12579132651</v>
+        <v>1428.14214776444</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1356.86666809008</v>
+        <v>1347.88942831231</v>
       </c>
       <c r="B11" t="n">
-        <v>1301.49886451625</v>
+        <v>1292.61411220256</v>
       </c>
       <c r="C11" t="n">
-        <v>1412.23447166392</v>
+        <v>1403.16474442205</v>
       </c>
       <c r="D11" t="n">
-        <v>1272.1889197845</v>
+        <v>1263.35312737686</v>
       </c>
       <c r="E11" t="n">
-        <v>1441.54441639566</v>
+        <v>1432.42572924775</v>
       </c>
     </row>
   </sheetData>

--- a/FILER/google.xlsx
+++ b/FILER/google.xlsx
@@ -13011,7 +13011,7 @@
         <v>1116.349976</v>
       </c>
       <c r="E632" t="n">
-        <v>1236400</v>
+        <v>1235800</v>
       </c>
       <c r="F632" t="n">
         <v>1116.349976</v>
@@ -15475,6 +15475,86 @@
       </c>
       <c r="F755" t="n">
         <v>1337.02002</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="n">
+        <v>1341.550049</v>
+      </c>
+      <c r="B756" t="n">
+        <v>1368.140015</v>
+      </c>
+      <c r="C756" t="n">
+        <v>1341.550049</v>
+      </c>
+      <c r="D756" t="n">
+        <v>1367.369995</v>
+      </c>
+      <c r="E756" t="n">
+        <v>1406600</v>
+      </c>
+      <c r="F756" t="n">
+        <v>1367.369995</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="n">
+        <v>1347.859985</v>
+      </c>
+      <c r="B757" t="n">
+        <v>1372.5</v>
+      </c>
+      <c r="C757" t="n">
+        <v>1345.543945</v>
+      </c>
+      <c r="D757" t="n">
+        <v>1360.660034</v>
+      </c>
+      <c r="E757" t="n">
+        <v>1186400</v>
+      </c>
+      <c r="F757" t="n">
+        <v>1360.660034</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="n">
+        <v>1350</v>
+      </c>
+      <c r="B758" t="n">
+        <v>1396.5</v>
+      </c>
+      <c r="C758" t="n">
+        <v>1350</v>
+      </c>
+      <c r="D758" t="n">
+        <v>1394.209961</v>
+      </c>
+      <c r="E758" t="n">
+        <v>1732300</v>
+      </c>
+      <c r="F758" t="n">
+        <v>1394.209961</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="n">
+        <v>1397.939941</v>
+      </c>
+      <c r="B759" t="n">
+        <v>1402.98999</v>
+      </c>
+      <c r="C759" t="n">
+        <v>1390.380005</v>
+      </c>
+      <c r="D759" t="n">
+        <v>1393.339966</v>
+      </c>
+      <c r="E759" t="n">
+        <v>1502700</v>
+      </c>
+      <c r="F759" t="n">
+        <v>1393.339966</v>
       </c>
     </row>
   </sheetData>
@@ -15510,172 +15590,172 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1338.91448052516</v>
+        <v>1390.11072930639</v>
       </c>
       <c r="B2" t="n">
-        <v>1318.70408337493</v>
+        <v>1369.84755179962</v>
       </c>
       <c r="C2" t="n">
-        <v>1359.12487767539</v>
+        <v>1410.37390681316</v>
       </c>
       <c r="D2" t="n">
-        <v>1308.00534538563</v>
+        <v>1359.1208735773</v>
       </c>
       <c r="E2" t="n">
-        <v>1369.82361566469</v>
+        <v>1421.10058503548</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1338.18454615914</v>
+        <v>1389.19920058969</v>
       </c>
       <c r="B3" t="n">
-        <v>1309.46343279152</v>
+        <v>1360.44382508399</v>
       </c>
       <c r="C3" t="n">
-        <v>1366.90565952677</v>
+        <v>1417.9545760954</v>
       </c>
       <c r="D3" t="n">
-        <v>1294.25939378144</v>
+        <v>1345.2216487936</v>
       </c>
       <c r="E3" t="n">
-        <v>1382.10969853685</v>
+        <v>1433.17675238579</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1340.91852413172</v>
+        <v>1391.12724292034</v>
       </c>
       <c r="B4" t="n">
-        <v>1306.84297330564</v>
+        <v>1356.99616029423</v>
       </c>
       <c r="C4" t="n">
-        <v>1374.9940749578</v>
+        <v>1425.25832554645</v>
       </c>
       <c r="D4" t="n">
-        <v>1288.80446632234</v>
+        <v>1338.92825655172</v>
       </c>
       <c r="E4" t="n">
-        <v>1393.0325819411</v>
+        <v>1443.32622928896</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1342.40982066122</v>
+        <v>1388.8869255909</v>
       </c>
       <c r="B5" t="n">
-        <v>1304.09848234574</v>
+        <v>1350.52378137232</v>
       </c>
       <c r="C5" t="n">
-        <v>1380.7211589767</v>
+        <v>1427.25006980949</v>
       </c>
       <c r="D5" t="n">
-        <v>1283.81768491211</v>
+        <v>1330.21555955016</v>
       </c>
       <c r="E5" t="n">
-        <v>1401.00195641033</v>
+        <v>1447.55829163164</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1341.72747422909</v>
+        <v>1388.70433118223</v>
       </c>
       <c r="B6" t="n">
-        <v>1299.40483614463</v>
+        <v>1346.34075569964</v>
       </c>
       <c r="C6" t="n">
-        <v>1384.05011231354</v>
+        <v>1431.06790666482</v>
       </c>
       <c r="D6" t="n">
-        <v>1277.00058488148</v>
+        <v>1323.91483348695</v>
       </c>
       <c r="E6" t="n">
-        <v>1406.45436357669</v>
+        <v>1453.4938288775</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1344.08357301917</v>
+        <v>1390.82752935094</v>
       </c>
       <c r="B7" t="n">
-        <v>1298.67915271099</v>
+        <v>1345.37450196126</v>
       </c>
       <c r="C7" t="n">
-        <v>1389.48799332735</v>
+        <v>1436.28055674062</v>
       </c>
       <c r="D7" t="n">
-        <v>1274.64350448385</v>
+        <v>1321.31312269947</v>
       </c>
       <c r="E7" t="n">
-        <v>1413.52364155449</v>
+        <v>1460.34193600241</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1345.31632566586</v>
+        <v>1389.22788333299</v>
       </c>
       <c r="B8" t="n">
-        <v>1297.1829083525</v>
+        <v>1341.04686895369</v>
       </c>
       <c r="C8" t="n">
-        <v>1393.44974297922</v>
+        <v>1437.40889771228</v>
       </c>
       <c r="D8" t="n">
-        <v>1271.70261637517</v>
+        <v>1315.54138061166</v>
       </c>
       <c r="E8" t="n">
-        <v>1418.93003495654</v>
+        <v>1462.91438605431</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1344.7439084136</v>
+        <v>1389.48197835034</v>
       </c>
       <c r="B9" t="n">
-        <v>1293.84222545672</v>
+        <v>1338.5334925125</v>
       </c>
       <c r="C9" t="n">
-        <v>1395.64559137049</v>
+        <v>1440.43046418818</v>
       </c>
       <c r="D9" t="n">
-        <v>1266.89650216774</v>
+        <v>1311.56299327495</v>
       </c>
       <c r="E9" t="n">
-        <v>1422.59131465946</v>
+        <v>1467.40096342573</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1346.82649424761</v>
+        <v>1391.61859830125</v>
       </c>
       <c r="B10" t="n">
-        <v>1293.65704629358</v>
+        <v>1338.39484990043</v>
       </c>
       <c r="C10" t="n">
-        <v>1399.99594220164</v>
+        <v>1444.84234670207</v>
       </c>
       <c r="D10" t="n">
-        <v>1265.51084073078</v>
+        <v>1310.21989941744</v>
       </c>
       <c r="E10" t="n">
-        <v>1428.14214776444</v>
+        <v>1473.01729718506</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1347.88942831231</v>
+        <v>1390.4545256215</v>
       </c>
       <c r="B11" t="n">
-        <v>1292.61411220256</v>
+        <v>1335.12124605969</v>
       </c>
       <c r="C11" t="n">
-        <v>1403.16474442205</v>
+        <v>1445.78780518331</v>
       </c>
       <c r="D11" t="n">
-        <v>1263.35312737686</v>
+        <v>1305.82957723595</v>
       </c>
       <c r="E11" t="n">
-        <v>1432.42572924775</v>
+        <v>1475.07947400705</v>
       </c>
     </row>
   </sheetData>

--- a/FILER/google.xlsx
+++ b/FILER/google.xlsx
@@ -13011,7 +13011,7 @@
         <v>1116.349976</v>
       </c>
       <c r="E632" t="n">
-        <v>1235800</v>
+        <v>1236400</v>
       </c>
       <c r="F632" t="n">
         <v>1116.349976</v>
@@ -13031,7 +13031,7 @@
         <v>1124.829956</v>
       </c>
       <c r="E633" t="n">
-        <v>1330400</v>
+        <v>1329600</v>
       </c>
       <c r="F633" t="n">
         <v>1124.829956</v>
@@ -15555,6 +15555,26 @@
       </c>
       <c r="F759" t="n">
         <v>1393.339966</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="n">
+        <v>1392.079956</v>
+      </c>
+      <c r="B760" t="n">
+        <v>1411.579956</v>
+      </c>
+      <c r="C760" t="n">
+        <v>1390.839966</v>
+      </c>
+      <c r="D760" t="n">
+        <v>1404.319946</v>
+      </c>
+      <c r="E760" t="n">
+        <v>1528000</v>
+      </c>
+      <c r="F760" t="n">
+        <v>1404.319946</v>
       </c>
     </row>
   </sheetData>
@@ -15590,172 +15610,172 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1390.11072930639</v>
+        <v>1403.53011142329</v>
       </c>
       <c r="B2" t="n">
-        <v>1369.84755179962</v>
+        <v>1383.26946685873</v>
       </c>
       <c r="C2" t="n">
-        <v>1410.37390681316</v>
+        <v>1423.79075598784</v>
       </c>
       <c r="D2" t="n">
-        <v>1359.1208735773</v>
+        <v>1372.54412949503</v>
       </c>
       <c r="E2" t="n">
-        <v>1421.10058503548</v>
+        <v>1434.51609335154</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1389.19920058969</v>
+        <v>1404.07547299087</v>
       </c>
       <c r="B3" t="n">
-        <v>1360.44382508399</v>
+        <v>1375.31238312045</v>
       </c>
       <c r="C3" t="n">
-        <v>1417.9545760954</v>
+        <v>1432.83856286129</v>
       </c>
       <c r="D3" t="n">
-        <v>1345.2216487936</v>
+        <v>1360.08612309206</v>
       </c>
       <c r="E3" t="n">
-        <v>1433.17675238579</v>
+        <v>1448.06482288968</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1391.12724292034</v>
+        <v>1401.29361569344</v>
       </c>
       <c r="B4" t="n">
-        <v>1356.99616029423</v>
+        <v>1367.13930626479</v>
       </c>
       <c r="C4" t="n">
-        <v>1425.25832554645</v>
+        <v>1435.4479251221</v>
       </c>
       <c r="D4" t="n">
-        <v>1338.92825655172</v>
+        <v>1349.05910699573</v>
       </c>
       <c r="E4" t="n">
-        <v>1443.32622928896</v>
+        <v>1453.52812439116</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1388.8869255909</v>
+        <v>1401.43911066183</v>
       </c>
       <c r="B5" t="n">
-        <v>1350.52378137232</v>
+        <v>1363.040302458</v>
       </c>
       <c r="C5" t="n">
-        <v>1427.25006980949</v>
+        <v>1439.83791886567</v>
       </c>
       <c r="D5" t="n">
-        <v>1330.21555955016</v>
+        <v>1342.71320126247</v>
       </c>
       <c r="E5" t="n">
-        <v>1447.55829163164</v>
+        <v>1460.16502006119</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1388.70433118223</v>
+        <v>1402.52543134976</v>
       </c>
       <c r="B6" t="n">
-        <v>1346.34075569964</v>
+        <v>1360.11331994463</v>
       </c>
       <c r="C6" t="n">
-        <v>1431.06790666482</v>
+        <v>1444.9375427549</v>
       </c>
       <c r="D6" t="n">
-        <v>1323.91483348695</v>
+        <v>1337.66170436657</v>
       </c>
       <c r="E6" t="n">
-        <v>1453.4938288775</v>
+        <v>1467.38915833296</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1390.82752935094</v>
+        <v>1400.63901499276</v>
       </c>
       <c r="B7" t="n">
-        <v>1345.37450196126</v>
+        <v>1355.12262303166</v>
       </c>
       <c r="C7" t="n">
-        <v>1436.28055674062</v>
+        <v>1446.15540695386</v>
       </c>
       <c r="D7" t="n">
-        <v>1321.31312269947</v>
+        <v>1331.02770059196</v>
       </c>
       <c r="E7" t="n">
-        <v>1460.34193600241</v>
+        <v>1470.25032939356</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1389.22788333299</v>
+        <v>1401.30345771164</v>
       </c>
       <c r="B8" t="n">
-        <v>1341.04686895369</v>
+        <v>1353.04629600545</v>
       </c>
       <c r="C8" t="n">
-        <v>1437.40889771228</v>
+        <v>1449.56061941782</v>
       </c>
       <c r="D8" t="n">
-        <v>1315.54138061166</v>
+        <v>1327.50049770351</v>
       </c>
       <c r="E8" t="n">
-        <v>1462.91438605431</v>
+        <v>1475.10641771977</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1389.48197835034</v>
+        <v>1402.62702212842</v>
       </c>
       <c r="B9" t="n">
-        <v>1338.5334925125</v>
+        <v>1351.59061299681</v>
       </c>
       <c r="C9" t="n">
-        <v>1440.43046418818</v>
+        <v>1453.66343126003</v>
       </c>
       <c r="D9" t="n">
-        <v>1311.56299327495</v>
+        <v>1324.57356997904</v>
       </c>
       <c r="E9" t="n">
-        <v>1467.40096342573</v>
+        <v>1480.6804742778</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1391.61859830125</v>
+        <v>1401.32809576335</v>
       </c>
       <c r="B10" t="n">
-        <v>1338.39484990043</v>
+        <v>1348.00342354089</v>
       </c>
       <c r="C10" t="n">
-        <v>1444.84234670207</v>
+        <v>1454.65276798582</v>
       </c>
       <c r="D10" t="n">
-        <v>1310.21989941744</v>
+        <v>1319.77504721394</v>
       </c>
       <c r="E10" t="n">
-        <v>1473.01729718506</v>
+        <v>1482.88114431277</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1390.4545256215</v>
+        <v>1402.27396204417</v>
       </c>
       <c r="B11" t="n">
-        <v>1335.12124605969</v>
+        <v>1346.82809102751</v>
       </c>
       <c r="C11" t="n">
-        <v>1445.78780518331</v>
+        <v>1457.71983306082</v>
       </c>
       <c r="D11" t="n">
-        <v>1305.82957723595</v>
+        <v>1317.47681988788</v>
       </c>
       <c r="E11" t="n">
-        <v>1475.07947400705</v>
+        <v>1487.07110420045</v>
       </c>
     </row>
   </sheetData>

--- a/FILER/google.xlsx
+++ b/FILER/google.xlsx
@@ -13031,7 +13031,7 @@
         <v>1124.829956</v>
       </c>
       <c r="E633" t="n">
-        <v>1329600</v>
+        <v>1330400</v>
       </c>
       <c r="F633" t="n">
         <v>1124.829956</v>
@@ -15575,6 +15575,726 @@
       </c>
       <c r="F760" t="n">
         <v>1404.319946</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="n">
+        <v>1420.569946</v>
+      </c>
+      <c r="B761" t="n">
+        <v>1427.329956</v>
+      </c>
+      <c r="C761" t="n">
+        <v>1410.27002</v>
+      </c>
+      <c r="D761" t="n">
+        <v>1419.829956</v>
+      </c>
+      <c r="E761" t="n">
+        <v>1500900</v>
+      </c>
+      <c r="F761" t="n">
+        <v>1419.829956</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="n">
+        <v>1427.560059</v>
+      </c>
+      <c r="B762" t="n">
+        <v>1434.928955</v>
+      </c>
+      <c r="C762" t="n">
+        <v>1418.349976</v>
+      </c>
+      <c r="D762" t="n">
+        <v>1429.72998</v>
+      </c>
+      <c r="E762" t="n">
+        <v>1820700</v>
+      </c>
+      <c r="F762" t="n">
+        <v>1429.72998</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="n">
+        <v>1436.130005</v>
+      </c>
+      <c r="B763" t="n">
+        <v>1440.52002</v>
+      </c>
+      <c r="C763" t="n">
+        <v>1426.02002</v>
+      </c>
+      <c r="D763" t="n">
+        <v>1439.22998</v>
+      </c>
+      <c r="E763" t="n">
+        <v>1652300</v>
+      </c>
+      <c r="F763" t="n">
+        <v>1439.22998</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="n">
+        <v>1439.01001</v>
+      </c>
+      <c r="B764" t="n">
+        <v>1441.800049</v>
+      </c>
+      <c r="C764" t="n">
+        <v>1428.369995</v>
+      </c>
+      <c r="D764" t="n">
+        <v>1430.880005</v>
+      </c>
+      <c r="E764" t="n">
+        <v>1558900</v>
+      </c>
+      <c r="F764" t="n">
+        <v>1430.880005</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="n">
+        <v>1430.209961</v>
+      </c>
+      <c r="B765" t="n">
+        <v>1441.39502</v>
+      </c>
+      <c r="C765" t="n">
+        <v>1430.209961</v>
+      </c>
+      <c r="D765" t="n">
+        <v>1439.199951</v>
+      </c>
+      <c r="E765" t="n">
+        <v>1282700</v>
+      </c>
+      <c r="F765" t="n">
+        <v>1439.199951</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="n">
+        <v>1447.439941</v>
+      </c>
+      <c r="B766" t="n">
+        <v>1451.98999</v>
+      </c>
+      <c r="C766" t="n">
+        <v>1440.920044</v>
+      </c>
+      <c r="D766" t="n">
+        <v>1451.699951</v>
+      </c>
+      <c r="E766" t="n">
+        <v>1173700</v>
+      </c>
+      <c r="F766" t="n">
+        <v>1451.699951</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="n">
+        <v>1462.910034</v>
+      </c>
+      <c r="B767" t="n">
+        <v>1481.295044</v>
+      </c>
+      <c r="C767" t="n">
+        <v>1458.219971</v>
+      </c>
+      <c r="D767" t="n">
+        <v>1480.390015</v>
+      </c>
+      <c r="E767" t="n">
+        <v>2396200</v>
+      </c>
+      <c r="F767" t="n">
+        <v>1480.390015</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="n">
+        <v>1479.119995</v>
+      </c>
+      <c r="B768" t="n">
+        <v>1491.849976</v>
+      </c>
+      <c r="C768" t="n">
+        <v>1471.199951</v>
+      </c>
+      <c r="D768" t="n">
+        <v>1484.400024</v>
+      </c>
+      <c r="E768" t="n">
+        <v>2036700</v>
+      </c>
+      <c r="F768" t="n">
+        <v>1484.400024</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="n">
+        <v>1491</v>
+      </c>
+      <c r="B769" t="n">
+        <v>1503.213989</v>
+      </c>
+      <c r="C769" t="n">
+        <v>1484.930054</v>
+      </c>
+      <c r="D769" t="n">
+        <v>1485.949951</v>
+      </c>
+      <c r="E769" t="n">
+        <v>1610800</v>
+      </c>
+      <c r="F769" t="n">
+        <v>1485.949951</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="n">
+        <v>1487.640015</v>
+      </c>
+      <c r="B770" t="n">
+        <v>1495.52002</v>
+      </c>
+      <c r="C770" t="n">
+        <v>1482.099976</v>
+      </c>
+      <c r="D770" t="n">
+        <v>1486.650024</v>
+      </c>
+      <c r="E770" t="n">
+        <v>1351200</v>
+      </c>
+      <c r="F770" t="n">
+        <v>1486.650024</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="n">
+        <v>1493.589966</v>
+      </c>
+      <c r="B771" t="n">
+        <v>1495.494995</v>
+      </c>
+      <c r="C771" t="n">
+        <v>1465.25</v>
+      </c>
+      <c r="D771" t="n">
+        <v>1466.709961</v>
+      </c>
+      <c r="E771" t="n">
+        <v>1784600</v>
+      </c>
+      <c r="F771" t="n">
+        <v>1466.709961</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="n">
+        <v>1431</v>
+      </c>
+      <c r="B772" t="n">
+        <v>1438.069946</v>
+      </c>
+      <c r="C772" t="n">
+        <v>1421.199951</v>
+      </c>
+      <c r="D772" t="n">
+        <v>1433.900024</v>
+      </c>
+      <c r="E772" t="n">
+        <v>1755200</v>
+      </c>
+      <c r="F772" t="n">
+        <v>1433.900024</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="n">
+        <v>1443</v>
+      </c>
+      <c r="B773" t="n">
+        <v>1456</v>
+      </c>
+      <c r="C773" t="n">
+        <v>1432.469971</v>
+      </c>
+      <c r="D773" t="n">
+        <v>1452.560059</v>
+      </c>
+      <c r="E773" t="n">
+        <v>1577400</v>
+      </c>
+      <c r="F773" t="n">
+        <v>1452.560059</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="n">
+        <v>1458.800049</v>
+      </c>
+      <c r="B774" t="n">
+        <v>1465.430054</v>
+      </c>
+      <c r="C774" t="n">
+        <v>1446.73999</v>
+      </c>
+      <c r="D774" t="n">
+        <v>1458.630005</v>
+      </c>
+      <c r="E774" t="n">
+        <v>1077700</v>
+      </c>
+      <c r="F774" t="n">
+        <v>1458.630005</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="n">
+        <v>1439.959961</v>
+      </c>
+      <c r="B775" t="n">
+        <v>1457.280029</v>
+      </c>
+      <c r="C775" t="n">
+        <v>1436.400024</v>
+      </c>
+      <c r="D775" t="n">
+        <v>1455.839966</v>
+      </c>
+      <c r="E775" t="n">
+        <v>1339400</v>
+      </c>
+      <c r="F775" t="n">
+        <v>1455.839966</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="n">
+        <v>1468.900024</v>
+      </c>
+      <c r="B776" t="n">
+        <v>1470.130005</v>
+      </c>
+      <c r="C776" t="n">
+        <v>1428.530029</v>
+      </c>
+      <c r="D776" t="n">
+        <v>1434.22998</v>
+      </c>
+      <c r="E776" t="n">
+        <v>2417200</v>
+      </c>
+      <c r="F776" t="n">
+        <v>1434.22998</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="n">
+        <v>1462</v>
+      </c>
+      <c r="B777" t="n">
+        <v>1490</v>
+      </c>
+      <c r="C777" t="n">
+        <v>1458.98999</v>
+      </c>
+      <c r="D777" t="n">
+        <v>1485.939941</v>
+      </c>
+      <c r="E777" t="n">
+        <v>3055200</v>
+      </c>
+      <c r="F777" t="n">
+        <v>1485.939941</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="n">
+        <v>1457.069946</v>
+      </c>
+      <c r="B778" t="n">
+        <v>1469.5</v>
+      </c>
+      <c r="C778" t="n">
+        <v>1426.300049</v>
+      </c>
+      <c r="D778" t="n">
+        <v>1447.069946</v>
+      </c>
+      <c r="E778" t="n">
+        <v>3933000</v>
+      </c>
+      <c r="F778" t="n">
+        <v>1447.069946</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="n">
+        <v>1462.420044</v>
+      </c>
+      <c r="B779" t="n">
+        <v>1463.839966</v>
+      </c>
+      <c r="C779" t="n">
+        <v>1430.560059</v>
+      </c>
+      <c r="D779" t="n">
+        <v>1448.22998</v>
+      </c>
+      <c r="E779" t="n">
+        <v>1986200</v>
+      </c>
+      <c r="F779" t="n">
+        <v>1448.22998</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="n">
+        <v>1450.329956</v>
+      </c>
+      <c r="B780" t="n">
+        <v>1482</v>
+      </c>
+      <c r="C780" t="n">
+        <v>1449.569946</v>
+      </c>
+      <c r="D780" t="n">
+        <v>1476.22998</v>
+      </c>
+      <c r="E780" t="n">
+        <v>1679400</v>
+      </c>
+      <c r="F780" t="n">
+        <v>1476.22998</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="n">
+        <v>1467.300049</v>
+      </c>
+      <c r="B781" t="n">
+        <v>1485.839966</v>
+      </c>
+      <c r="C781" t="n">
+        <v>1466.349976</v>
+      </c>
+      <c r="D781" t="n">
+        <v>1479.22998</v>
+      </c>
+      <c r="E781" t="n">
+        <v>1172300</v>
+      </c>
+      <c r="F781" t="n">
+        <v>1479.22998</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="n">
+        <v>1474.319946</v>
+      </c>
+      <c r="B782" t="n">
+        <v>1509.5</v>
+      </c>
+      <c r="C782" t="n">
+        <v>1474.319946</v>
+      </c>
+      <c r="D782" t="n">
+        <v>1508.680054</v>
+      </c>
+      <c r="E782" t="n">
+        <v>1419900</v>
+      </c>
+      <c r="F782" t="n">
+        <v>1508.680054</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="n">
+        <v>1511.810059</v>
+      </c>
+      <c r="B783" t="n">
+        <v>1529.630005</v>
+      </c>
+      <c r="C783" t="n">
+        <v>1505.637939</v>
+      </c>
+      <c r="D783" t="n">
+        <v>1508.790039</v>
+      </c>
+      <c r="E783" t="n">
+        <v>1344600</v>
+      </c>
+      <c r="F783" t="n">
+        <v>1508.790039</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="n">
+        <v>1514.47998</v>
+      </c>
+      <c r="B784" t="n">
+        <v>1520.694946</v>
+      </c>
+      <c r="C784" t="n">
+        <v>1508.109985</v>
+      </c>
+      <c r="D784" t="n">
+        <v>1518.27002</v>
+      </c>
+      <c r="E784" t="n">
+        <v>1167600</v>
+      </c>
+      <c r="F784" t="n">
+        <v>1518.27002</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="n">
+        <v>1512.689941</v>
+      </c>
+      <c r="B785" t="n">
+        <v>1527.180054</v>
+      </c>
+      <c r="C785" t="n">
+        <v>1504.599976</v>
+      </c>
+      <c r="D785" t="n">
+        <v>1514.660034</v>
+      </c>
+      <c r="E785" t="n">
+        <v>929500</v>
+      </c>
+      <c r="F785" t="n">
+        <v>1514.660034</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="n">
+        <v>1515.599976</v>
+      </c>
+      <c r="B786" t="n">
+        <v>1520.73999</v>
+      </c>
+      <c r="C786" t="n">
+        <v>1507.339966</v>
+      </c>
+      <c r="D786" t="n">
+        <v>1520.73999</v>
+      </c>
+      <c r="E786" t="n">
+        <v>1197800</v>
+      </c>
+      <c r="F786" t="n">
+        <v>1520.73999</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="n">
+        <v>1515</v>
+      </c>
+      <c r="B787" t="n">
+        <v>1531.630005</v>
+      </c>
+      <c r="C787" t="n">
+        <v>1512.589966</v>
+      </c>
+      <c r="D787" t="n">
+        <v>1519.670044</v>
+      </c>
+      <c r="E787" t="n">
+        <v>1120700</v>
+      </c>
+      <c r="F787" t="n">
+        <v>1519.670044</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="n">
+        <v>1525.069946</v>
+      </c>
+      <c r="B788" t="n">
+        <v>1532.105957</v>
+      </c>
+      <c r="C788" t="n">
+        <v>1521.400024</v>
+      </c>
+      <c r="D788" t="n">
+        <v>1526.689941</v>
+      </c>
+      <c r="E788" t="n">
+        <v>949300</v>
+      </c>
+      <c r="F788" t="n">
+        <v>1526.689941</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="n">
+        <v>1522</v>
+      </c>
+      <c r="B789" t="n">
+        <v>1529.640015</v>
+      </c>
+      <c r="C789" t="n">
+        <v>1506.819946</v>
+      </c>
+      <c r="D789" t="n">
+        <v>1518.150024</v>
+      </c>
+      <c r="E789" t="n">
+        <v>1096600</v>
+      </c>
+      <c r="F789" t="n">
+        <v>1518.150024</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="n">
+        <v>1508.030029</v>
+      </c>
+      <c r="B790" t="n">
+        <v>1512.214966</v>
+      </c>
+      <c r="C790" t="n">
+        <v>1480.439941</v>
+      </c>
+      <c r="D790" t="n">
+        <v>1485.109985</v>
+      </c>
+      <c r="E790" t="n">
+        <v>1731700</v>
+      </c>
+      <c r="F790" t="n">
+        <v>1485.109985</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="n">
+        <v>1426.109985</v>
+      </c>
+      <c r="B791" t="n">
+        <v>1436.969971</v>
+      </c>
+      <c r="C791" t="n">
+        <v>1411.390015</v>
+      </c>
+      <c r="D791" t="n">
+        <v>1421.589966</v>
+      </c>
+      <c r="E791" t="n">
+        <v>2867100</v>
+      </c>
+      <c r="F791" t="n">
+        <v>1421.589966</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="n">
+        <v>1433</v>
+      </c>
+      <c r="B792" t="n">
+        <v>1438.140015</v>
+      </c>
+      <c r="C792" t="n">
+        <v>1382.400024</v>
+      </c>
+      <c r="D792" t="n">
+        <v>1388.449951</v>
+      </c>
+      <c r="E792" t="n">
+        <v>2478300</v>
+      </c>
+      <c r="F792" t="n">
+        <v>1388.449951</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="n">
+        <v>1396.140015</v>
+      </c>
+      <c r="B793" t="n">
+        <v>1415.699951</v>
+      </c>
+      <c r="C793" t="n">
+        <v>1379</v>
+      </c>
+      <c r="D793" t="n">
+        <v>1393.180054</v>
+      </c>
+      <c r="E793" t="n">
+        <v>2202400</v>
+      </c>
+      <c r="F793" t="n">
+        <v>1393.180054</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="n">
+        <v>1362.060059</v>
+      </c>
+      <c r="B794" t="n">
+        <v>1371.703979</v>
+      </c>
+      <c r="C794" t="n">
+        <v>1317.170044</v>
+      </c>
+      <c r="D794" t="n">
+        <v>1318.089966</v>
+      </c>
+      <c r="E794" t="n">
+        <v>2978300</v>
+      </c>
+      <c r="F794" t="n">
+        <v>1318.089966</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="n">
+        <v>1277.5</v>
+      </c>
+      <c r="B795" t="n">
+        <v>1341.140015</v>
+      </c>
+      <c r="C795" t="n">
+        <v>1271</v>
+      </c>
+      <c r="D795" t="n">
+        <v>1339.329956</v>
+      </c>
+      <c r="E795" t="n">
+        <v>3789100</v>
+      </c>
+      <c r="F795" t="n">
+        <v>1339.329956</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="n">
+        <v>1351.609985</v>
+      </c>
+      <c r="B796" t="n">
+        <v>1390.410034</v>
+      </c>
+      <c r="C796" t="n">
+        <v>1326.814941</v>
+      </c>
+      <c r="D796" t="n">
+        <v>1389.109985</v>
+      </c>
+      <c r="E796" t="n">
+        <v>2337313</v>
+      </c>
+      <c r="F796" t="n">
+        <v>1389.109985</v>
       </c>
     </row>
   </sheetData>
@@ -15610,172 +16330,172 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1403.53011142329</v>
+        <v>1393.44011160883</v>
       </c>
       <c r="B2" t="n">
-        <v>1383.26946685873</v>
+        <v>1372.42222540869</v>
       </c>
       <c r="C2" t="n">
-        <v>1423.79075598784</v>
+        <v>1414.45799780897</v>
       </c>
       <c r="D2" t="n">
-        <v>1372.54412949503</v>
+        <v>1361.29602853721</v>
       </c>
       <c r="E2" t="n">
-        <v>1434.51609335154</v>
+        <v>1425.58419468045</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1404.07547299087</v>
+        <v>1391.57370072652</v>
       </c>
       <c r="B3" t="n">
-        <v>1375.31238312045</v>
+        <v>1361.5357295674</v>
       </c>
       <c r="C3" t="n">
-        <v>1432.83856286129</v>
+        <v>1421.61167188565</v>
       </c>
       <c r="D3" t="n">
-        <v>1360.08612309206</v>
+        <v>1345.63458815127</v>
       </c>
       <c r="E3" t="n">
-        <v>1448.06482288968</v>
+        <v>1437.51281330177</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1401.29361569344</v>
+        <v>1398.14873474379</v>
       </c>
       <c r="B4" t="n">
-        <v>1367.13930626479</v>
+        <v>1362.32003965798</v>
       </c>
       <c r="C4" t="n">
-        <v>1435.4479251221</v>
+        <v>1433.9774298296</v>
       </c>
       <c r="D4" t="n">
-        <v>1349.05910699573</v>
+        <v>1343.35347416338</v>
       </c>
       <c r="E4" t="n">
-        <v>1453.52812439116</v>
+        <v>1452.9439953242</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1401.43911066183</v>
+        <v>1401.3630604783</v>
       </c>
       <c r="B5" t="n">
-        <v>1363.040302458</v>
+        <v>1360.95040878798</v>
       </c>
       <c r="C5" t="n">
-        <v>1439.83791886567</v>
+        <v>1441.77571216862</v>
       </c>
       <c r="D5" t="n">
-        <v>1342.71320126247</v>
+        <v>1339.5572432468</v>
       </c>
       <c r="E5" t="n">
-        <v>1460.16502006119</v>
+        <v>1463.1688777098</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1402.52543134976</v>
+        <v>1399.34578896</v>
       </c>
       <c r="B6" t="n">
-        <v>1360.11331994463</v>
+        <v>1354.56980706293</v>
       </c>
       <c r="C6" t="n">
-        <v>1444.9375427549</v>
+        <v>1444.12177085707</v>
       </c>
       <c r="D6" t="n">
-        <v>1337.66170436657</v>
+        <v>1330.86683403524</v>
       </c>
       <c r="E6" t="n">
-        <v>1467.38915833296</v>
+        <v>1467.82474388475</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1400.63901499276</v>
+        <v>1404.81986739759</v>
       </c>
       <c r="B7" t="n">
-        <v>1355.12262303166</v>
+        <v>1356.65286355091</v>
       </c>
       <c r="C7" t="n">
-        <v>1446.15540695386</v>
+        <v>1452.98687124426</v>
       </c>
       <c r="D7" t="n">
-        <v>1331.02770059196</v>
+        <v>1331.15479193683</v>
       </c>
       <c r="E7" t="n">
-        <v>1470.25032939356</v>
+        <v>1478.48494285834</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1401.30345771164</v>
+        <v>1407.2718834286</v>
       </c>
       <c r="B8" t="n">
-        <v>1353.04629600545</v>
+        <v>1356.12615508522</v>
       </c>
       <c r="C8" t="n">
-        <v>1449.56061941782</v>
+        <v>1458.41761177199</v>
       </c>
       <c r="D8" t="n">
-        <v>1327.50049770351</v>
+        <v>1329.05124197239</v>
       </c>
       <c r="E8" t="n">
-        <v>1475.10641771977</v>
+        <v>1485.49252488482</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1402.62702212842</v>
+        <v>1405.29747892431</v>
       </c>
       <c r="B9" t="n">
-        <v>1351.59061299681</v>
+        <v>1351.13019706518</v>
       </c>
       <c r="C9" t="n">
-        <v>1453.66343126003</v>
+        <v>1459.46476078344</v>
       </c>
       <c r="D9" t="n">
-        <v>1324.57356997904</v>
+        <v>1322.45577014047</v>
       </c>
       <c r="E9" t="n">
-        <v>1480.6804742778</v>
+        <v>1488.13918770815</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1401.32809576335</v>
+        <v>1409.95238821388</v>
       </c>
       <c r="B10" t="n">
-        <v>1348.00342354089</v>
+        <v>1353.29718147043</v>
       </c>
       <c r="C10" t="n">
-        <v>1454.65276798582</v>
+        <v>1466.60759495734</v>
       </c>
       <c r="D10" t="n">
-        <v>1319.77504721394</v>
+        <v>1323.3057266676</v>
       </c>
       <c r="E10" t="n">
-        <v>1482.88114431277</v>
+        <v>1496.59904976016</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1402.27396204417</v>
+        <v>1411.87908777801</v>
       </c>
       <c r="B11" t="n">
-        <v>1346.82809102751</v>
+        <v>1352.94196766513</v>
       </c>
       <c r="C11" t="n">
-        <v>1457.71983306082</v>
+        <v>1470.81620789089</v>
       </c>
       <c r="D11" t="n">
-        <v>1317.47681988788</v>
+        <v>1321.74254089262</v>
       </c>
       <c r="E11" t="n">
-        <v>1487.07110420045</v>
+        <v>1502.0156346634</v>
       </c>
     </row>
   </sheetData>

--- a/FILER/google.xlsx
+++ b/FILER/google.xlsx
@@ -16271,7 +16271,7 @@
         <v>1339.329956</v>
       </c>
       <c r="E795" t="n">
-        <v>3789100</v>
+        <v>3790600</v>
       </c>
       <c r="F795" t="n">
         <v>1339.329956</v>
@@ -16282,7 +16282,7 @@
         <v>1351.609985</v>
       </c>
       <c r="B796" t="n">
-        <v>1390.410034</v>
+        <v>1390.869995</v>
       </c>
       <c r="C796" t="n">
         <v>1326.814941</v>
@@ -16291,10 +16291,410 @@
         <v>1389.109985</v>
       </c>
       <c r="E796" t="n">
-        <v>2337313</v>
+        <v>2431500</v>
       </c>
       <c r="F796" t="n">
         <v>1389.109985</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="n">
+        <v>1399.420044</v>
+      </c>
+      <c r="B797" t="n">
+        <v>1410.150024</v>
+      </c>
+      <c r="C797" t="n">
+        <v>1332</v>
+      </c>
+      <c r="D797" t="n">
+        <v>1341.390015</v>
+      </c>
+      <c r="E797" t="n">
+        <v>2402300</v>
+      </c>
+      <c r="F797" t="n">
+        <v>1341.390015</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="n">
+        <v>1359.22998</v>
+      </c>
+      <c r="B798" t="n">
+        <v>1388.089966</v>
+      </c>
+      <c r="C798" t="n">
+        <v>1343.109985</v>
+      </c>
+      <c r="D798" t="n">
+        <v>1386.52002</v>
+      </c>
+      <c r="E798" t="n">
+        <v>1913300</v>
+      </c>
+      <c r="F798" t="n">
+        <v>1386.52002</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="n">
+        <v>1350.199951</v>
+      </c>
+      <c r="B799" t="n">
+        <v>1358.910034</v>
+      </c>
+      <c r="C799" t="n">
+        <v>1305.099976</v>
+      </c>
+      <c r="D799" t="n">
+        <v>1319.040039</v>
+      </c>
+      <c r="E799" t="n">
+        <v>2561300</v>
+      </c>
+      <c r="F799" t="n">
+        <v>1319.040039</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="n">
+        <v>1277.060059</v>
+      </c>
+      <c r="B800" t="n">
+        <v>1306.219971</v>
+      </c>
+      <c r="C800" t="n">
+        <v>1261.050049</v>
+      </c>
+      <c r="D800" t="n">
+        <v>1298.410034</v>
+      </c>
+      <c r="E800" t="n">
+        <v>2660600</v>
+      </c>
+      <c r="F800" t="n">
+        <v>1298.410034</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="n">
+        <v>1205.300049</v>
+      </c>
+      <c r="B801" t="n">
+        <v>1254.76001</v>
+      </c>
+      <c r="C801" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D801" t="n">
+        <v>1215.560059</v>
+      </c>
+      <c r="E801" t="n">
+        <v>3365400</v>
+      </c>
+      <c r="F801" t="n">
+        <v>1215.560059</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="n">
+        <v>1260</v>
+      </c>
+      <c r="B802" t="n">
+        <v>1281.150024</v>
+      </c>
+      <c r="C802" t="n">
+        <v>1218.77002</v>
+      </c>
+      <c r="D802" t="n">
+        <v>1280.390015</v>
+      </c>
+      <c r="E802" t="n">
+        <v>2611400</v>
+      </c>
+      <c r="F802" t="n">
+        <v>1280.390015</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="n">
+        <v>1249.699951</v>
+      </c>
+      <c r="B803" t="n">
+        <v>1260.959961</v>
+      </c>
+      <c r="C803" t="n">
+        <v>1196.069946</v>
+      </c>
+      <c r="D803" t="n">
+        <v>1215.410034</v>
+      </c>
+      <c r="E803" t="n">
+        <v>2608500</v>
+      </c>
+      <c r="F803" t="n">
+        <v>1215.410034</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="n">
+        <v>1126</v>
+      </c>
+      <c r="B804" t="n">
+        <v>1193.869995</v>
+      </c>
+      <c r="C804" t="n">
+        <v>1113.300049</v>
+      </c>
+      <c r="D804" t="n">
+        <v>1114.910034</v>
+      </c>
+      <c r="E804" t="n">
+        <v>4226700</v>
+      </c>
+      <c r="F804" t="n">
+        <v>1114.910034</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="n">
+        <v>1179</v>
+      </c>
+      <c r="B805" t="n">
+        <v>1219.76001</v>
+      </c>
+      <c r="C805" t="n">
+        <v>1117.142944</v>
+      </c>
+      <c r="D805" t="n">
+        <v>1219.72998</v>
+      </c>
+      <c r="E805" t="n">
+        <v>3700100</v>
+      </c>
+      <c r="F805" t="n">
+        <v>1219.72998</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="n">
+        <v>1096</v>
+      </c>
+      <c r="B806" t="n">
+        <v>1152.266968</v>
+      </c>
+      <c r="C806" t="n">
+        <v>1074.439941</v>
+      </c>
+      <c r="D806" t="n">
+        <v>1084.329956</v>
+      </c>
+      <c r="E806" t="n">
+        <v>4252400</v>
+      </c>
+      <c r="F806" t="n">
+        <v>1084.329956</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="n">
+        <v>1093.109985</v>
+      </c>
+      <c r="B807" t="n">
+        <v>1130.859985</v>
+      </c>
+      <c r="C807" t="n">
+        <v>1056.01001</v>
+      </c>
+      <c r="D807" t="n">
+        <v>1119.800049</v>
+      </c>
+      <c r="E807" t="n">
+        <v>3861500</v>
+      </c>
+      <c r="F807" t="n">
+        <v>1119.800049</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="n">
+        <v>1056.51001</v>
+      </c>
+      <c r="B808" t="n">
+        <v>1106.5</v>
+      </c>
+      <c r="C808" t="n">
+        <v>1037.280029</v>
+      </c>
+      <c r="D808" t="n">
+        <v>1096.800049</v>
+      </c>
+      <c r="E808" t="n">
+        <v>4233400</v>
+      </c>
+      <c r="F808" t="n">
+        <v>1096.800049</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="n">
+        <v>1093.050049</v>
+      </c>
+      <c r="B809" t="n">
+        <v>1157.969971</v>
+      </c>
+      <c r="C809" t="n">
+        <v>1060.108032</v>
+      </c>
+      <c r="D809" t="n">
+        <v>1115.290039</v>
+      </c>
+      <c r="E809" t="n">
+        <v>3651100</v>
+      </c>
+      <c r="F809" t="n">
+        <v>1115.290039</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="n">
+        <v>1135.719971</v>
+      </c>
+      <c r="B810" t="n">
+        <v>1143.98999</v>
+      </c>
+      <c r="C810" t="n">
+        <v>1065.48999</v>
+      </c>
+      <c r="D810" t="n">
+        <v>1072.319946</v>
+      </c>
+      <c r="E810" t="n">
+        <v>3601800</v>
+      </c>
+      <c r="F810" t="n">
+        <v>1072.319946</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="n">
+        <v>1061.319946</v>
+      </c>
+      <c r="B811" t="n">
+        <v>1071.319946</v>
+      </c>
+      <c r="C811" t="n">
+        <v>1013.536011</v>
+      </c>
+      <c r="D811" t="n">
+        <v>1056.619995</v>
+      </c>
+      <c r="E811" t="n">
+        <v>4044100</v>
+      </c>
+      <c r="F811" t="n">
+        <v>1056.619995</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="n">
+        <v>1103.77002</v>
+      </c>
+      <c r="B812" t="n">
+        <v>1135</v>
+      </c>
+      <c r="C812" t="n">
+        <v>1090.619995</v>
+      </c>
+      <c r="D812" t="n">
+        <v>1134.459961</v>
+      </c>
+      <c r="E812" t="n">
+        <v>3344500</v>
+      </c>
+      <c r="F812" t="n">
+        <v>1134.459961</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="n">
+        <v>1126.469971</v>
+      </c>
+      <c r="B813" t="n">
+        <v>1148.900024</v>
+      </c>
+      <c r="C813" t="n">
+        <v>1086.01001</v>
+      </c>
+      <c r="D813" t="n">
+        <v>1102.48999</v>
+      </c>
+      <c r="E813" t="n">
+        <v>4081500</v>
+      </c>
+      <c r="F813" t="n">
+        <v>1102.48999</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="n">
+        <v>1111.800049</v>
+      </c>
+      <c r="B814" t="n">
+        <v>1169.969971</v>
+      </c>
+      <c r="C814" t="n">
+        <v>1093.530029</v>
+      </c>
+      <c r="D814" t="n">
+        <v>1161.75</v>
+      </c>
+      <c r="E814" t="n">
+        <v>3571700</v>
+      </c>
+      <c r="F814" t="n">
+        <v>1161.75</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="n">
+        <v>1125.670044</v>
+      </c>
+      <c r="B815" t="n">
+        <v>1150.670044</v>
+      </c>
+      <c r="C815" t="n">
+        <v>1105.910034</v>
+      </c>
+      <c r="D815" t="n">
+        <v>1110.709961</v>
+      </c>
+      <c r="E815" t="n">
+        <v>3208500</v>
+      </c>
+      <c r="F815" t="n">
+        <v>1110.709961</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="n">
+        <v>1125.040039</v>
+      </c>
+      <c r="B816" t="n">
+        <v>1151.630005</v>
+      </c>
+      <c r="C816" t="n">
+        <v>1096.47998</v>
+      </c>
+      <c r="D816" t="n">
+        <v>1146.819946</v>
+      </c>
+      <c r="E816" t="n">
+        <v>2573400</v>
+      </c>
+      <c r="F816" t="n">
+        <v>1146.819946</v>
       </c>
     </row>
   </sheetData>
@@ -16330,172 +16730,172 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1393.44011160883</v>
+        <v>1141.14755567682</v>
       </c>
       <c r="B2" t="n">
-        <v>1372.42222540869</v>
+        <v>1116.73394888126</v>
       </c>
       <c r="C2" t="n">
-        <v>1414.45799780897</v>
+        <v>1165.56116247239</v>
       </c>
       <c r="D2" t="n">
-        <v>1361.29602853721</v>
+        <v>1103.81016611053</v>
       </c>
       <c r="E2" t="n">
-        <v>1425.58419468045</v>
+        <v>1178.48494524312</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1391.57370072652</v>
+        <v>1142.03861148808</v>
       </c>
       <c r="B3" t="n">
-        <v>1361.5357295674</v>
+        <v>1110.1089810437</v>
       </c>
       <c r="C3" t="n">
-        <v>1421.61167188565</v>
+        <v>1173.96824193245</v>
       </c>
       <c r="D3" t="n">
-        <v>1345.63458815127</v>
+        <v>1093.20645569101</v>
       </c>
       <c r="E3" t="n">
-        <v>1437.51281330177</v>
+        <v>1190.87076728514</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1398.14873474379</v>
+        <v>1141.89863867</v>
       </c>
       <c r="B4" t="n">
-        <v>1362.32003965798</v>
+        <v>1103.58237864501</v>
       </c>
       <c r="C4" t="n">
-        <v>1433.9774298296</v>
+        <v>1180.21489869499</v>
       </c>
       <c r="D4" t="n">
-        <v>1343.35347416338</v>
+        <v>1083.29897581574</v>
       </c>
       <c r="E4" t="n">
-        <v>1452.9439953242</v>
+        <v>1200.49830152426</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1401.3630604783</v>
+        <v>1141.92062650685</v>
       </c>
       <c r="B5" t="n">
-        <v>1360.95040878798</v>
+        <v>1098.18539671338</v>
       </c>
       <c r="C5" t="n">
-        <v>1441.77571216862</v>
+        <v>1185.65585630031</v>
       </c>
       <c r="D5" t="n">
-        <v>1339.5572432468</v>
+        <v>1075.03336456952</v>
       </c>
       <c r="E5" t="n">
-        <v>1463.1688777098</v>
+        <v>1208.80788844418</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1399.34578896</v>
+        <v>1141.91717251502</v>
       </c>
       <c r="B6" t="n">
-        <v>1354.56980706293</v>
+        <v>1093.35760066343</v>
       </c>
       <c r="C6" t="n">
-        <v>1444.12177085707</v>
+        <v>1190.47674436661</v>
       </c>
       <c r="D6" t="n">
-        <v>1330.86683403524</v>
+        <v>1067.65171610059</v>
       </c>
       <c r="E6" t="n">
-        <v>1467.82474388475</v>
+        <v>1216.18262892946</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1404.81986739759</v>
+        <v>1141.91771509043</v>
       </c>
       <c r="B7" t="n">
-        <v>1356.65286355091</v>
+        <v>1088.97250600026</v>
       </c>
       <c r="C7" t="n">
-        <v>1452.98687124426</v>
+        <v>1194.8629241806</v>
       </c>
       <c r="D7" t="n">
-        <v>1331.15479193683</v>
+        <v>1060.94500532156</v>
       </c>
       <c r="E7" t="n">
-        <v>1478.48494285834</v>
+        <v>1222.8904248593</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1407.2718834286</v>
+        <v>1141.91762985917</v>
       </c>
       <c r="B8" t="n">
-        <v>1356.12615508522</v>
+        <v>1084.92312317355</v>
       </c>
       <c r="C8" t="n">
-        <v>1458.41761177199</v>
+        <v>1198.91213654479</v>
       </c>
       <c r="D8" t="n">
-        <v>1329.05124197239</v>
+        <v>1054.75205383105</v>
       </c>
       <c r="E8" t="n">
-        <v>1485.49252488482</v>
+        <v>1229.08320588729</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1405.29747892431</v>
+        <v>1141.91764324785</v>
       </c>
       <c r="B9" t="n">
-        <v>1351.13019706518</v>
+        <v>1081.14305984799</v>
       </c>
       <c r="C9" t="n">
-        <v>1459.46476078344</v>
+        <v>1202.69222664771</v>
       </c>
       <c r="D9" t="n">
-        <v>1322.45577014047</v>
+        <v>1048.97093876738</v>
       </c>
       <c r="E9" t="n">
-        <v>1488.13918770815</v>
+        <v>1234.86434772832</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1409.95238821388</v>
+        <v>1141.91764114467</v>
       </c>
       <c r="B10" t="n">
-        <v>1353.29718147043</v>
+        <v>1077.58470584326</v>
       </c>
       <c r="C10" t="n">
-        <v>1466.60759495734</v>
+        <v>1206.25057644608</v>
       </c>
       <c r="D10" t="n">
-        <v>1323.3057266676</v>
+        <v>1043.52890705037</v>
       </c>
       <c r="E10" t="n">
-        <v>1496.59904976016</v>
+        <v>1240.30637523897</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1411.87908777801</v>
+        <v>1141.91764147505</v>
       </c>
       <c r="B11" t="n">
-        <v>1352.94196766513</v>
+        <v>1074.21311369766</v>
       </c>
       <c r="C11" t="n">
-        <v>1470.81620789089</v>
+        <v>1209.62216925244</v>
       </c>
       <c r="D11" t="n">
-        <v>1321.74254089262</v>
+        <v>1038.37250166041</v>
       </c>
       <c r="E11" t="n">
-        <v>1502.0156346634</v>
+        <v>1245.46278128969</v>
       </c>
     </row>
   </sheetData>

--- a/FILER/google.xlsx
+++ b/FILER/google.xlsx
@@ -16691,10 +16691,290 @@
         <v>1146.819946</v>
       </c>
       <c r="E816" t="n">
-        <v>2573400</v>
+        <v>2574100</v>
       </c>
       <c r="F816" t="n">
         <v>1146.819946</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="n">
+        <v>1147.300049</v>
+      </c>
+      <c r="B817" t="n">
+        <v>1175.310059</v>
+      </c>
+      <c r="C817" t="n">
+        <v>1138.140015</v>
+      </c>
+      <c r="D817" t="n">
+        <v>1162.810059</v>
+      </c>
+      <c r="E817" t="n">
+        <v>2486400</v>
+      </c>
+      <c r="F817" t="n">
+        <v>1162.810059</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="n">
+        <v>1122</v>
+      </c>
+      <c r="B818" t="n">
+        <v>1129.689941</v>
+      </c>
+      <c r="C818" t="n">
+        <v>1097.449951</v>
+      </c>
+      <c r="D818" t="n">
+        <v>1105.619995</v>
+      </c>
+      <c r="E818" t="n">
+        <v>2344200</v>
+      </c>
+      <c r="F818" t="n">
+        <v>1105.619995</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="n">
+        <v>1098.26001</v>
+      </c>
+      <c r="B819" t="n">
+        <v>1126.859985</v>
+      </c>
+      <c r="C819" t="n">
+        <v>1096.400024</v>
+      </c>
+      <c r="D819" t="n">
+        <v>1120.839966</v>
+      </c>
+      <c r="E819" t="n">
+        <v>1964900</v>
+      </c>
+      <c r="F819" t="n">
+        <v>1120.839966</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="n">
+        <v>1119.015015</v>
+      </c>
+      <c r="B820" t="n">
+        <v>1123.540039</v>
+      </c>
+      <c r="C820" t="n">
+        <v>1079.810059</v>
+      </c>
+      <c r="D820" t="n">
+        <v>1097.880005</v>
+      </c>
+      <c r="E820" t="n">
+        <v>2313400</v>
+      </c>
+      <c r="F820" t="n">
+        <v>1097.880005</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="n">
+        <v>1138</v>
+      </c>
+      <c r="B821" t="n">
+        <v>1194.660034</v>
+      </c>
+      <c r="C821" t="n">
+        <v>1130.939941</v>
+      </c>
+      <c r="D821" t="n">
+        <v>1186.920044</v>
+      </c>
+      <c r="E821" t="n">
+        <v>2664700</v>
+      </c>
+      <c r="F821" t="n">
+        <v>1186.920044</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="n">
+        <v>1221</v>
+      </c>
+      <c r="B822" t="n">
+        <v>1225</v>
+      </c>
+      <c r="C822" t="n">
+        <v>1182.22998</v>
+      </c>
+      <c r="D822" t="n">
+        <v>1186.51001</v>
+      </c>
+      <c r="E822" t="n">
+        <v>2387300</v>
+      </c>
+      <c r="F822" t="n">
+        <v>1186.51001</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="n">
+        <v>1206.5</v>
+      </c>
+      <c r="B823" t="n">
+        <v>1219.069946</v>
+      </c>
+      <c r="C823" t="n">
+        <v>1188.160034</v>
+      </c>
+      <c r="D823" t="n">
+        <v>1210.280029</v>
+      </c>
+      <c r="E823" t="n">
+        <v>1975100</v>
+      </c>
+      <c r="F823" t="n">
+        <v>1210.280029</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="n">
+        <v>1224.079956</v>
+      </c>
+      <c r="B824" t="n">
+        <v>1225.569946</v>
+      </c>
+      <c r="C824" t="n">
+        <v>1196.734985</v>
+      </c>
+      <c r="D824" t="n">
+        <v>1211.449951</v>
+      </c>
+      <c r="E824" t="n">
+        <v>2175400</v>
+      </c>
+      <c r="F824" t="n">
+        <v>1211.449951</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="n">
+        <v>1209.180054</v>
+      </c>
+      <c r="B825" t="n">
+        <v>1220.51001</v>
+      </c>
+      <c r="C825" t="n">
+        <v>1187.598022</v>
+      </c>
+      <c r="D825" t="n">
+        <v>1217.560059</v>
+      </c>
+      <c r="E825" t="n">
+        <v>1739800</v>
+      </c>
+      <c r="F825" t="n">
+        <v>1217.560059</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="n">
+        <v>1245.089966</v>
+      </c>
+      <c r="B826" t="n">
+        <v>1282.069946</v>
+      </c>
+      <c r="C826" t="n">
+        <v>1236.930054</v>
+      </c>
+      <c r="D826" t="n">
+        <v>1269.22998</v>
+      </c>
+      <c r="E826" t="n">
+        <v>2470400</v>
+      </c>
+      <c r="F826" t="n">
+        <v>1269.22998</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="n">
+        <v>1245.609985</v>
+      </c>
+      <c r="B827" t="n">
+        <v>1280.459961</v>
+      </c>
+      <c r="C827" t="n">
+        <v>1240.400024</v>
+      </c>
+      <c r="D827" t="n">
+        <v>1262.469971</v>
+      </c>
+      <c r="E827" t="n">
+        <v>1671700</v>
+      </c>
+      <c r="F827" t="n">
+        <v>1262.469971</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="n">
+        <v>1274.099976</v>
+      </c>
+      <c r="B828" t="n">
+        <v>1279</v>
+      </c>
+      <c r="C828" t="n">
+        <v>1242.619995</v>
+      </c>
+      <c r="D828" t="n">
+        <v>1263.469971</v>
+      </c>
+      <c r="E828" t="n">
+        <v>2518100</v>
+      </c>
+      <c r="F828" t="n">
+        <v>1263.469971</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="n">
+        <v>1284.849976</v>
+      </c>
+      <c r="B829" t="n">
+        <v>1294.430054</v>
+      </c>
+      <c r="C829" t="n">
+        <v>1271.22998</v>
+      </c>
+      <c r="D829" t="n">
+        <v>1283.25</v>
+      </c>
+      <c r="E829" t="n">
+        <v>1949000</v>
+      </c>
+      <c r="F829" t="n">
+        <v>1283.25</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="n">
+        <v>1271</v>
+      </c>
+      <c r="B830" t="n">
+        <v>1281.599976</v>
+      </c>
+      <c r="C830" t="n">
+        <v>1261.369995</v>
+      </c>
+      <c r="D830" t="n">
+        <v>1266.609985</v>
+      </c>
+      <c r="E830" t="n">
+        <v>1692400</v>
+      </c>
+      <c r="F830" t="n">
+        <v>1266.609985</v>
       </c>
     </row>
   </sheetData>
@@ -16730,172 +17010,172 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1141.14755567682</v>
+        <v>1269.28934977876</v>
       </c>
       <c r="B2" t="n">
-        <v>1116.73394888126</v>
+        <v>1244.4605039774</v>
       </c>
       <c r="C2" t="n">
-        <v>1165.56116247239</v>
+        <v>1294.11819558013</v>
       </c>
       <c r="D2" t="n">
-        <v>1103.81016611053</v>
+        <v>1231.31690695498</v>
       </c>
       <c r="E2" t="n">
-        <v>1178.48494524312</v>
+        <v>1307.26179260255</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1142.03861148808</v>
+        <v>1268.85792014257</v>
       </c>
       <c r="B3" t="n">
-        <v>1110.1089810437</v>
+        <v>1236.44806303353</v>
       </c>
       <c r="C3" t="n">
-        <v>1173.96824193245</v>
+        <v>1301.26777725161</v>
       </c>
       <c r="D3" t="n">
-        <v>1093.20645569101</v>
+        <v>1219.29132104064</v>
       </c>
       <c r="E3" t="n">
-        <v>1190.87076728514</v>
+        <v>1318.4245192445</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1141.89863867</v>
+        <v>1268.927388672</v>
       </c>
       <c r="B4" t="n">
-        <v>1103.58237864501</v>
+        <v>1230.04860225921</v>
       </c>
       <c r="C4" t="n">
-        <v>1180.21489869499</v>
+        <v>1307.80617508479</v>
       </c>
       <c r="D4" t="n">
-        <v>1083.29897581574</v>
+        <v>1209.46741594799</v>
       </c>
       <c r="E4" t="n">
-        <v>1200.49830152426</v>
+        <v>1328.38736139601</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1141.92062650685</v>
+        <v>1268.91620289296</v>
       </c>
       <c r="B5" t="n">
-        <v>1098.18539671338</v>
+        <v>1224.55090053869</v>
       </c>
       <c r="C5" t="n">
-        <v>1185.65585630031</v>
+        <v>1313.28150524723</v>
       </c>
       <c r="D5" t="n">
-        <v>1075.03336456952</v>
+        <v>1201.06532812879</v>
       </c>
       <c r="E5" t="n">
-        <v>1208.80788844418</v>
+        <v>1336.76707765714</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1141.91717251502</v>
+        <v>1268.91800402009</v>
       </c>
       <c r="B6" t="n">
-        <v>1093.35760066343</v>
+        <v>1219.66646864526</v>
       </c>
       <c r="C6" t="n">
-        <v>1190.47674436661</v>
+        <v>1318.16953939492</v>
       </c>
       <c r="D6" t="n">
-        <v>1067.65171610059</v>
+        <v>1193.59428071993</v>
       </c>
       <c r="E6" t="n">
-        <v>1216.18262892946</v>
+        <v>1344.24172732025</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1141.91771509043</v>
+        <v>1268.91771400373</v>
       </c>
       <c r="B7" t="n">
-        <v>1088.97250600026</v>
+        <v>1215.223836613</v>
       </c>
       <c r="C7" t="n">
-        <v>1194.8629241806</v>
+        <v>1322.61159139445</v>
       </c>
       <c r="D7" t="n">
-        <v>1060.94500532156</v>
+        <v>1186.80001487594</v>
       </c>
       <c r="E7" t="n">
-        <v>1222.8904248593</v>
+        <v>1351.03541313151</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1141.91762985917</v>
+        <v>1268.91776070198</v>
       </c>
       <c r="B8" t="n">
-        <v>1084.92312317355</v>
+        <v>1211.12182909658</v>
       </c>
       <c r="C8" t="n">
-        <v>1198.91213654479</v>
+        <v>1326.71369230738</v>
       </c>
       <c r="D8" t="n">
-        <v>1054.75205383105</v>
+        <v>1180.52651102847</v>
       </c>
       <c r="E8" t="n">
-        <v>1229.08320588729</v>
+        <v>1357.30901037549</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1141.91764324785</v>
+        <v>1268.91775318266</v>
       </c>
       <c r="B9" t="n">
-        <v>1081.14305984799</v>
+        <v>1207.29223922307</v>
       </c>
       <c r="C9" t="n">
-        <v>1202.69222664771</v>
+        <v>1330.54326714225</v>
       </c>
       <c r="D9" t="n">
-        <v>1048.97093876738</v>
+        <v>1174.6696627141</v>
       </c>
       <c r="E9" t="n">
-        <v>1234.86434772832</v>
+        <v>1363.16584365121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1141.91764114467</v>
+        <v>1268.91775439341</v>
       </c>
       <c r="B10" t="n">
-        <v>1077.58470584326</v>
+        <v>1203.68709663721</v>
       </c>
       <c r="C10" t="n">
-        <v>1206.25057644608</v>
+        <v>1334.14841214961</v>
       </c>
       <c r="D10" t="n">
-        <v>1043.52890705037</v>
+        <v>1169.15607228296</v>
       </c>
       <c r="E10" t="n">
-        <v>1240.30637523897</v>
+        <v>1368.67943650386</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1141.91764147505</v>
+        <v>1268.91775419846</v>
       </c>
       <c r="B11" t="n">
-        <v>1074.21311369766</v>
+        <v>1200.27102540123</v>
       </c>
       <c r="C11" t="n">
-        <v>1209.62216925244</v>
+        <v>1337.56448299568</v>
       </c>
       <c r="D11" t="n">
-        <v>1038.37250166041</v>
+        <v>1163.93164227258</v>
       </c>
       <c r="E11" t="n">
-        <v>1245.46278128969</v>
+        <v>1373.90386612434</v>
       </c>
     </row>
   </sheetData>

--- a/FILER/google.xlsx
+++ b/FILER/google.xlsx
@@ -14571,7 +14571,7 @@
         <v>1265.130005</v>
       </c>
       <c r="E710" t="n">
-        <v>1213100</v>
+        <v>1210100</v>
       </c>
       <c r="F710" t="n">
         <v>1265.130005</v>
@@ -14611,7 +14611,7 @@
         <v>1262.619995</v>
       </c>
       <c r="E712" t="n">
-        <v>1886400</v>
+        <v>1869200</v>
       </c>
       <c r="F712" t="n">
         <v>1262.619995</v>
@@ -14631,7 +14631,7 @@
         <v>1261.290039</v>
       </c>
       <c r="E713" t="n">
-        <v>1408900</v>
+        <v>1407700</v>
       </c>
       <c r="F713" t="n">
         <v>1261.290039</v>
@@ -14651,7 +14651,7 @@
         <v>1260.109985</v>
       </c>
       <c r="E714" t="n">
-        <v>1455700</v>
+        <v>1454700</v>
       </c>
       <c r="F714" t="n">
         <v>1260.109985</v>
@@ -14671,7 +14671,7 @@
         <v>1273.73999</v>
       </c>
       <c r="E715" t="n">
-        <v>1670100</v>
+        <v>1669400</v>
       </c>
       <c r="F715" t="n">
         <v>1273.73999</v>
@@ -16971,10 +16971,190 @@
         <v>1266.609985</v>
       </c>
       <c r="E830" t="n">
-        <v>1692400</v>
+        <v>1695500</v>
       </c>
       <c r="F830" t="n">
         <v>1266.609985</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="n">
+        <v>1247</v>
+      </c>
+      <c r="B831" t="n">
+        <v>1254.27002</v>
+      </c>
+      <c r="C831" t="n">
+        <v>1209.709961</v>
+      </c>
+      <c r="D831" t="n">
+        <v>1216.339966</v>
+      </c>
+      <c r="E831" t="n">
+        <v>2153000</v>
+      </c>
+      <c r="F831" t="n">
+        <v>1216.339966</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="n">
+        <v>1245.540039</v>
+      </c>
+      <c r="B832" t="n">
+        <v>1285.613037</v>
+      </c>
+      <c r="C832" t="n">
+        <v>1242</v>
+      </c>
+      <c r="D832" t="n">
+        <v>1263.209961</v>
+      </c>
+      <c r="E832" t="n">
+        <v>2093100</v>
+      </c>
+      <c r="F832" t="n">
+        <v>1263.209961</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="n">
+        <v>1271.550049</v>
+      </c>
+      <c r="B833" t="n">
+        <v>1293.310059</v>
+      </c>
+      <c r="C833" t="n">
+        <v>1265.670044</v>
+      </c>
+      <c r="D833" t="n">
+        <v>1276.310059</v>
+      </c>
+      <c r="E833" t="n">
+        <v>1566200</v>
+      </c>
+      <c r="F833" t="n">
+        <v>1276.310059</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="n">
+        <v>1261.170044</v>
+      </c>
+      <c r="B834" t="n">
+        <v>1280.400024</v>
+      </c>
+      <c r="C834" t="n">
+        <v>1249.449951</v>
+      </c>
+      <c r="D834" t="n">
+        <v>1279.310059</v>
+      </c>
+      <c r="E834" t="n">
+        <v>1640400</v>
+      </c>
+      <c r="F834" t="n">
+        <v>1279.310059</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="n">
+        <v>1296</v>
+      </c>
+      <c r="B835" t="n">
+        <v>1296.150024</v>
+      </c>
+      <c r="C835" t="n">
+        <v>1269</v>
+      </c>
+      <c r="D835" t="n">
+        <v>1275.880005</v>
+      </c>
+      <c r="E835" t="n">
+        <v>1600600</v>
+      </c>
+      <c r="F835" t="n">
+        <v>1275.880005</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="n">
+        <v>1287.930054</v>
+      </c>
+      <c r="B836" t="n">
+        <v>1288.050049</v>
+      </c>
+      <c r="C836" t="n">
+        <v>1232.199951</v>
+      </c>
+      <c r="D836" t="n">
+        <v>1233.670044</v>
+      </c>
+      <c r="E836" t="n">
+        <v>2951300</v>
+      </c>
+      <c r="F836" t="n">
+        <v>1233.670044</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="n">
+        <v>1341.459961</v>
+      </c>
+      <c r="B837" t="n">
+        <v>1359.98999</v>
+      </c>
+      <c r="C837" t="n">
+        <v>1325.339966</v>
+      </c>
+      <c r="D837" t="n">
+        <v>1341.47998</v>
+      </c>
+      <c r="E837" t="n">
+        <v>3793600</v>
+      </c>
+      <c r="F837" t="n">
+        <v>1341.47998</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="n">
+        <v>1324.880005</v>
+      </c>
+      <c r="B838" t="n">
+        <v>1352.819946</v>
+      </c>
+      <c r="C838" t="n">
+        <v>1322.48999</v>
+      </c>
+      <c r="D838" t="n">
+        <v>1348.660034</v>
+      </c>
+      <c r="E838" t="n">
+        <v>2668900</v>
+      </c>
+      <c r="F838" t="n">
+        <v>1348.660034</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="n">
+        <v>1328.5</v>
+      </c>
+      <c r="B839" t="n">
+        <v>1352.069946</v>
+      </c>
+      <c r="C839" t="n">
+        <v>1311</v>
+      </c>
+      <c r="D839" t="n">
+        <v>1320.609985</v>
+      </c>
+      <c r="E839" t="n">
+        <v>2072500</v>
+      </c>
+      <c r="F839" t="n">
+        <v>1320.609985</v>
       </c>
     </row>
   </sheetData>
@@ -17010,172 +17190,172 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1269.28934977876</v>
+        <v>1324.5015713037</v>
       </c>
       <c r="B2" t="n">
-        <v>1244.4605039774</v>
+        <v>1299.08634428699</v>
       </c>
       <c r="C2" t="n">
-        <v>1294.11819558013</v>
+        <v>1349.91679832041</v>
       </c>
       <c r="D2" t="n">
-        <v>1231.31690695498</v>
+        <v>1285.63233579971</v>
       </c>
       <c r="E2" t="n">
-        <v>1307.26179260255</v>
+        <v>1363.3708068077</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1268.85792014257</v>
+        <v>1324.5015713037</v>
       </c>
       <c r="B3" t="n">
-        <v>1236.44806303353</v>
+        <v>1291.3105861124</v>
       </c>
       <c r="C3" t="n">
-        <v>1301.26777725161</v>
+        <v>1357.69255649501</v>
       </c>
       <c r="D3" t="n">
-        <v>1219.29132104064</v>
+        <v>1273.74033989066</v>
       </c>
       <c r="E3" t="n">
-        <v>1318.4245192445</v>
+        <v>1375.26280271675</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1268.927388672</v>
+        <v>1324.5015713037</v>
       </c>
       <c r="B4" t="n">
-        <v>1230.04860225921</v>
+        <v>1285.03830697309</v>
       </c>
       <c r="C4" t="n">
-        <v>1307.80617508479</v>
+        <v>1363.96483563431</v>
       </c>
       <c r="D4" t="n">
-        <v>1209.46741594799</v>
+        <v>1264.14771674186</v>
       </c>
       <c r="E4" t="n">
-        <v>1328.38736139601</v>
+        <v>1384.85542586555</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1268.91620289296</v>
+        <v>1324.5015713037</v>
       </c>
       <c r="B5" t="n">
-        <v>1224.55090053869</v>
+        <v>1279.63446792845</v>
       </c>
       <c r="C5" t="n">
-        <v>1313.28150524723</v>
+        <v>1369.36867467896</v>
       </c>
       <c r="D5" t="n">
-        <v>1201.06532812879</v>
+        <v>1255.88325810398</v>
       </c>
       <c r="E5" t="n">
-        <v>1336.76707765714</v>
+        <v>1393.11988450343</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1268.91800402009</v>
+        <v>1324.5015713037</v>
       </c>
       <c r="B6" t="n">
-        <v>1219.66646864526</v>
+        <v>1274.81490610121</v>
       </c>
       <c r="C6" t="n">
-        <v>1318.16953939492</v>
+        <v>1374.18823650619</v>
       </c>
       <c r="D6" t="n">
-        <v>1193.59428071993</v>
+        <v>1248.51237435914</v>
       </c>
       <c r="E6" t="n">
-        <v>1344.24172732025</v>
+        <v>1400.49076824827</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1268.91771400373</v>
+        <v>1324.5015713037</v>
       </c>
       <c r="B7" t="n">
-        <v>1215.223836613</v>
+        <v>1270.423179754</v>
       </c>
       <c r="C7" t="n">
-        <v>1322.61159139445</v>
+        <v>1378.5799628534</v>
       </c>
       <c r="D7" t="n">
-        <v>1186.80001487594</v>
+        <v>1241.79580851668</v>
       </c>
       <c r="E7" t="n">
-        <v>1351.03541313151</v>
+        <v>1407.20733409073</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1268.91776070198</v>
+        <v>1324.5015713037</v>
       </c>
       <c r="B8" t="n">
-        <v>1211.12182909658</v>
+        <v>1266.36225443241</v>
       </c>
       <c r="C8" t="n">
-        <v>1326.71369230738</v>
+        <v>1382.640888175</v>
       </c>
       <c r="D8" t="n">
-        <v>1180.52651102847</v>
+        <v>1235.58515918487</v>
       </c>
       <c r="E8" t="n">
-        <v>1357.30901037549</v>
+        <v>1413.41798342254</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1268.91775318266</v>
+        <v>1324.5015713037</v>
       </c>
       <c r="B9" t="n">
-        <v>1207.29223922307</v>
+        <v>1262.56702601661</v>
       </c>
       <c r="C9" t="n">
-        <v>1330.54326714225</v>
+        <v>1386.4361165908</v>
       </c>
       <c r="D9" t="n">
-        <v>1174.6696627141</v>
+        <v>1229.78085820466</v>
       </c>
       <c r="E9" t="n">
-        <v>1363.16584365121</v>
+        <v>1419.22228440274</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1268.91775439341</v>
+        <v>1324.5015713037</v>
       </c>
       <c r="B10" t="n">
-        <v>1203.68709663721</v>
+        <v>1258.99130009698</v>
       </c>
       <c r="C10" t="n">
-        <v>1334.14841214961</v>
+        <v>1390.01184251042</v>
       </c>
       <c r="D10" t="n">
-        <v>1169.15607228296</v>
+        <v>1224.31225732315</v>
       </c>
       <c r="E10" t="n">
-        <v>1368.67943650386</v>
+        <v>1424.69088528426</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1268.91775419846</v>
+        <v>1324.5015713037</v>
       </c>
       <c r="B11" t="n">
-        <v>1200.27102540123</v>
+        <v>1255.60089375089</v>
       </c>
       <c r="C11" t="n">
-        <v>1337.56448299568</v>
+        <v>1393.40224885651</v>
       </c>
       <c r="D11" t="n">
-        <v>1163.93164227258</v>
+        <v>1219.12707827148</v>
       </c>
       <c r="E11" t="n">
-        <v>1373.90386612434</v>
+        <v>1429.87606433593</v>
       </c>
     </row>
   </sheetData>

--- a/FILER/google.xlsx
+++ b/FILER/google.xlsx
@@ -14571,7 +14571,7 @@
         <v>1265.130005</v>
       </c>
       <c r="E710" t="n">
-        <v>1210100</v>
+        <v>1213100</v>
       </c>
       <c r="F710" t="n">
         <v>1265.130005</v>
@@ -14611,7 +14611,7 @@
         <v>1262.619995</v>
       </c>
       <c r="E712" t="n">
-        <v>1869200</v>
+        <v>1886400</v>
       </c>
       <c r="F712" t="n">
         <v>1262.619995</v>
@@ -14631,7 +14631,7 @@
         <v>1261.290039</v>
       </c>
       <c r="E713" t="n">
-        <v>1407700</v>
+        <v>1408900</v>
       </c>
       <c r="F713" t="n">
         <v>1261.290039</v>
@@ -14651,7 +14651,7 @@
         <v>1260.109985</v>
       </c>
       <c r="E714" t="n">
-        <v>1454700</v>
+        <v>1455700</v>
       </c>
       <c r="F714" t="n">
         <v>1260.109985</v>
@@ -14671,7 +14671,7 @@
         <v>1273.73999</v>
       </c>
       <c r="E715" t="n">
-        <v>1669400</v>
+        <v>1670100</v>
       </c>
       <c r="F715" t="n">
         <v>1273.73999</v>
@@ -17155,6 +17155,186 @@
       </c>
       <c r="F839" t="n">
         <v>1320.609985</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="n">
+        <v>1308.22998</v>
+      </c>
+      <c r="B840" t="n">
+        <v>1327.660034</v>
+      </c>
+      <c r="C840" t="n">
+        <v>1299</v>
+      </c>
+      <c r="D840" t="n">
+        <v>1326.800049</v>
+      </c>
+      <c r="E840" t="n">
+        <v>1504000</v>
+      </c>
+      <c r="F840" t="n">
+        <v>1326.800049</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="n">
+        <v>1337.920044</v>
+      </c>
+      <c r="B841" t="n">
+        <v>1373.939941</v>
+      </c>
+      <c r="C841" t="n">
+        <v>1337.459961</v>
+      </c>
+      <c r="D841" t="n">
+        <v>1351.109985</v>
+      </c>
+      <c r="E841" t="n">
+        <v>1651500</v>
+      </c>
+      <c r="F841" t="n">
+        <v>1351.109985</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="n">
+        <v>1361.689941</v>
+      </c>
+      <c r="B842" t="n">
+        <v>1371.119995</v>
+      </c>
+      <c r="C842" t="n">
+        <v>1347.290039</v>
+      </c>
+      <c r="D842" t="n">
+        <v>1347.300049</v>
+      </c>
+      <c r="E842" t="n">
+        <v>1215400</v>
+      </c>
+      <c r="F842" t="n">
+        <v>1347.300049</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="n">
+        <v>1365.939941</v>
+      </c>
+      <c r="B843" t="n">
+        <v>1377.599976</v>
+      </c>
+      <c r="C843" t="n">
+        <v>1355.27002</v>
+      </c>
+      <c r="D843" t="n">
+        <v>1372.560059</v>
+      </c>
+      <c r="E843" t="n">
+        <v>1397600</v>
+      </c>
+      <c r="F843" t="n">
+        <v>1372.560059</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="n">
+        <v>1383.130005</v>
+      </c>
+      <c r="B844" t="n">
+        <v>1398.76001</v>
+      </c>
+      <c r="C844" t="n">
+        <v>1375.47998</v>
+      </c>
+      <c r="D844" t="n">
+        <v>1388.369995</v>
+      </c>
+      <c r="E844" t="n">
+        <v>1388100</v>
+      </c>
+      <c r="F844" t="n">
+        <v>1388.369995</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="n">
+        <v>1378.280029</v>
+      </c>
+      <c r="B845" t="n">
+        <v>1416.530029</v>
+      </c>
+      <c r="C845" t="n">
+        <v>1377.151978</v>
+      </c>
+      <c r="D845" t="n">
+        <v>1403.26001</v>
+      </c>
+      <c r="E845" t="n">
+        <v>1412100</v>
+      </c>
+      <c r="F845" t="n">
+        <v>1403.26001</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="n">
+        <v>1407.119995</v>
+      </c>
+      <c r="B846" t="n">
+        <v>1415</v>
+      </c>
+      <c r="C846" t="n">
+        <v>1374.77002</v>
+      </c>
+      <c r="D846" t="n">
+        <v>1375.73999</v>
+      </c>
+      <c r="E846" t="n">
+        <v>1390600</v>
+      </c>
+      <c r="F846" t="n">
+        <v>1375.73999</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="n">
+        <v>1377.050049</v>
+      </c>
+      <c r="B847" t="n">
+        <v>1385.482056</v>
+      </c>
+      <c r="C847" t="n">
+        <v>1328.400024</v>
+      </c>
+      <c r="D847" t="n">
+        <v>1349.329956</v>
+      </c>
+      <c r="E847" t="n">
+        <v>1812600</v>
+      </c>
+      <c r="F847" t="n">
+        <v>1349.329956</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="n">
+        <v>1335.02002</v>
+      </c>
+      <c r="B848" t="n">
+        <v>1357.420044</v>
+      </c>
+      <c r="C848" t="n">
+        <v>1323.910034</v>
+      </c>
+      <c r="D848" t="n">
+        <v>1356.130005</v>
+      </c>
+      <c r="E848" t="n">
+        <v>1600100</v>
+      </c>
+      <c r="F848" t="n">
+        <v>1356.130005</v>
       </c>
     </row>
   </sheetData>
@@ -17190,172 +17370,172 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1324.5015713037</v>
+        <v>1355.80982887802</v>
       </c>
       <c r="B2" t="n">
-        <v>1299.08634428699</v>
+        <v>1330.39599066032</v>
       </c>
       <c r="C2" t="n">
-        <v>1349.91679832041</v>
+        <v>1381.22366709572</v>
       </c>
       <c r="D2" t="n">
-        <v>1285.63233579971</v>
+        <v>1316.94271735883</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.3708068077</v>
+        <v>1394.67694039721</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1324.5015713037</v>
+        <v>1355.80982887802</v>
       </c>
       <c r="B3" t="n">
-        <v>1291.3105861124</v>
+        <v>1322.57508179</v>
       </c>
       <c r="C3" t="n">
-        <v>1357.69255649501</v>
+        <v>1389.04457596604</v>
       </c>
       <c r="D3" t="n">
-        <v>1273.74033989066</v>
+        <v>1304.9816694195</v>
       </c>
       <c r="E3" t="n">
-        <v>1375.26280271675</v>
+        <v>1406.63798833654</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1324.5015713037</v>
+        <v>1355.80982887802</v>
       </c>
       <c r="B4" t="n">
-        <v>1285.03830697309</v>
+        <v>1316.27207913105</v>
       </c>
       <c r="C4" t="n">
-        <v>1363.96483563431</v>
+        <v>1395.34757862499</v>
       </c>
       <c r="D4" t="n">
-        <v>1264.14771674186</v>
+        <v>1295.34205870219</v>
       </c>
       <c r="E4" t="n">
-        <v>1384.85542586555</v>
+        <v>1416.27759905385</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1324.5015713037</v>
+        <v>1355.80982887802</v>
       </c>
       <c r="B5" t="n">
-        <v>1279.63446792845</v>
+        <v>1310.8440763979</v>
       </c>
       <c r="C5" t="n">
-        <v>1369.36867467896</v>
+        <v>1400.77558135814</v>
       </c>
       <c r="D5" t="n">
-        <v>1255.88325810398</v>
+        <v>1287.04064489179</v>
       </c>
       <c r="E5" t="n">
-        <v>1393.11988450343</v>
+        <v>1424.57901286426</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1324.5015713037</v>
+        <v>1355.80982887802</v>
       </c>
       <c r="B6" t="n">
-        <v>1274.81490610121</v>
+        <v>1306.00416517244</v>
       </c>
       <c r="C6" t="n">
-        <v>1374.18823650619</v>
+        <v>1405.6154925836</v>
       </c>
       <c r="D6" t="n">
-        <v>1248.51237435914</v>
+        <v>1279.63863942802</v>
       </c>
       <c r="E6" t="n">
-        <v>1400.49076824827</v>
+        <v>1431.98101832803</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1324.5015713037</v>
+        <v>1355.80982887802</v>
       </c>
       <c r="B7" t="n">
-        <v>1270.423179754</v>
+        <v>1301.59461534711</v>
       </c>
       <c r="C7" t="n">
-        <v>1378.5799628534</v>
+        <v>1410.02504240894</v>
       </c>
       <c r="D7" t="n">
-        <v>1241.79580851668</v>
+        <v>1272.89481492805</v>
       </c>
       <c r="E7" t="n">
-        <v>1407.20733409073</v>
+        <v>1438.72484282799</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1324.5015713037</v>
+        <v>1355.80982887802</v>
       </c>
       <c r="B8" t="n">
-        <v>1266.36225443241</v>
+        <v>1297.51768001343</v>
       </c>
       <c r="C8" t="n">
-        <v>1382.640888175</v>
+        <v>1414.10197774262</v>
       </c>
       <c r="D8" t="n">
-        <v>1235.58515918487</v>
+        <v>1266.6596803957</v>
       </c>
       <c r="E8" t="n">
-        <v>1413.41798342254</v>
+        <v>1444.95997736034</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1324.5015713037</v>
+        <v>1355.80982887802</v>
       </c>
       <c r="B9" t="n">
-        <v>1262.56702601661</v>
+        <v>1293.70781715295</v>
       </c>
       <c r="C9" t="n">
-        <v>1386.4361165908</v>
+        <v>1417.9118406031</v>
       </c>
       <c r="D9" t="n">
-        <v>1229.78085820466</v>
+        <v>1260.83299796376</v>
       </c>
       <c r="E9" t="n">
-        <v>1419.22228440274</v>
+        <v>1450.78665979228</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1324.5015713037</v>
+        <v>1355.80982887802</v>
       </c>
       <c r="B10" t="n">
-        <v>1258.99130009698</v>
+        <v>1290.11854253538</v>
       </c>
       <c r="C10" t="n">
-        <v>1390.01184251042</v>
+        <v>1421.50111522066</v>
       </c>
       <c r="D10" t="n">
-        <v>1224.31225732315</v>
+        <v>1255.34367613686</v>
       </c>
       <c r="E10" t="n">
-        <v>1424.69088528426</v>
+        <v>1456.27598161919</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1324.5015713037</v>
+        <v>1355.80982887802</v>
       </c>
       <c r="B11" t="n">
-        <v>1255.60089375089</v>
+        <v>1286.71547062498</v>
       </c>
       <c r="C11" t="n">
-        <v>1393.40224885651</v>
+        <v>1424.90418713107</v>
       </c>
       <c r="D11" t="n">
-        <v>1219.12707827148</v>
+        <v>1250.13912677613</v>
       </c>
       <c r="E11" t="n">
-        <v>1429.87606433593</v>
+        <v>1461.48053097992</v>
       </c>
     </row>
   </sheetData>

--- a/FILER/google.xlsx
+++ b/FILER/google.xlsx
@@ -16251,7 +16251,7 @@
         <v>1318.089966</v>
       </c>
       <c r="E794" t="n">
-        <v>2978300</v>
+        <v>2971100</v>
       </c>
       <c r="F794" t="n">
         <v>1318.089966</v>
@@ -17131,7 +17131,7 @@
         <v>1348.660034</v>
       </c>
       <c r="E838" t="n">
-        <v>2668900</v>
+        <v>2665400</v>
       </c>
       <c r="F838" t="n">
         <v>1348.660034</v>
@@ -17331,10 +17331,1310 @@
         <v>1356.130005</v>
       </c>
       <c r="E848" t="n">
-        <v>1600100</v>
+        <v>1603100</v>
       </c>
       <c r="F848" t="n">
         <v>1356.130005</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="n">
+        <v>1350</v>
+      </c>
+      <c r="B849" t="n">
+        <v>1374.47998</v>
+      </c>
+      <c r="C849" t="n">
+        <v>1339</v>
+      </c>
+      <c r="D849" t="n">
+        <v>1373.189941</v>
+      </c>
+      <c r="E849" t="n">
+        <v>1707700</v>
+      </c>
+      <c r="F849" t="n">
+        <v>1373.189941</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="n">
+        <v>1361.75</v>
+      </c>
+      <c r="B850" t="n">
+        <v>1392.324951</v>
+      </c>
+      <c r="C850" t="n">
+        <v>1354.25</v>
+      </c>
+      <c r="D850" t="n">
+        <v>1383.939941</v>
+      </c>
+      <c r="E850" t="n">
+        <v>1824000</v>
+      </c>
+      <c r="F850" t="n">
+        <v>1383.939941</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="n">
+        <v>1386.996948</v>
+      </c>
+      <c r="B851" t="n">
+        <v>1392</v>
+      </c>
+      <c r="C851" t="n">
+        <v>1373.484985</v>
+      </c>
+      <c r="D851" t="n">
+        <v>1373.484985</v>
+      </c>
+      <c r="E851" t="n">
+        <v>1280600</v>
+      </c>
+      <c r="F851" t="n">
+        <v>1373.484985</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="n">
+        <v>1389.579956</v>
+      </c>
+      <c r="B852" t="n">
+        <v>1410.420044</v>
+      </c>
+      <c r="C852" t="n">
+        <v>1387.25</v>
+      </c>
+      <c r="D852" t="n">
+        <v>1406.719971</v>
+      </c>
+      <c r="E852" t="n">
+        <v>1655400</v>
+      </c>
+      <c r="F852" t="n">
+        <v>1406.719971</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="n">
+        <v>1408</v>
+      </c>
+      <c r="B853" t="n">
+        <v>1415.48999</v>
+      </c>
+      <c r="C853" t="n">
+        <v>1393.449951</v>
+      </c>
+      <c r="D853" t="n">
+        <v>1402.800049</v>
+      </c>
+      <c r="E853" t="n">
+        <v>1385000</v>
+      </c>
+      <c r="F853" t="n">
+        <v>1402.800049</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="n">
+        <v>1396.709961</v>
+      </c>
+      <c r="B854" t="n">
+        <v>1412.76001</v>
+      </c>
+      <c r="C854" t="n">
+        <v>1391.829956</v>
+      </c>
+      <c r="D854" t="n">
+        <v>1410.420044</v>
+      </c>
+      <c r="E854" t="n">
+        <v>1309400</v>
+      </c>
+      <c r="F854" t="n">
+        <v>1410.420044</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="n">
+        <v>1437.27002</v>
+      </c>
+      <c r="B855" t="n">
+        <v>1441</v>
+      </c>
+      <c r="C855" t="n">
+        <v>1412.130005</v>
+      </c>
+      <c r="D855" t="n">
+        <v>1417.02002</v>
+      </c>
+      <c r="E855" t="n">
+        <v>2060600</v>
+      </c>
+      <c r="F855" t="n">
+        <v>1417.02002</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="n">
+        <v>1417.25</v>
+      </c>
+      <c r="B856" t="n">
+        <v>1421.73999</v>
+      </c>
+      <c r="C856" t="n">
+        <v>1391.290039</v>
+      </c>
+      <c r="D856" t="n">
+        <v>1417.839966</v>
+      </c>
+      <c r="E856" t="n">
+        <v>1685800</v>
+      </c>
+      <c r="F856" t="n">
+        <v>1417.839966</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="n">
+        <v>1396.859985</v>
+      </c>
+      <c r="B857" t="n">
+        <v>1440.839966</v>
+      </c>
+      <c r="C857" t="n">
+        <v>1396</v>
+      </c>
+      <c r="D857" t="n">
+        <v>1416.72998</v>
+      </c>
+      <c r="E857" t="n">
+        <v>1692200</v>
+      </c>
+      <c r="F857" t="n">
+        <v>1416.72998</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="n">
+        <v>1416.939941</v>
+      </c>
+      <c r="B858" t="n">
+        <v>1432.569946</v>
+      </c>
+      <c r="C858" t="n">
+        <v>1413.349976</v>
+      </c>
+      <c r="D858" t="n">
+        <v>1428.920044</v>
+      </c>
+      <c r="E858" t="n">
+        <v>1838100</v>
+      </c>
+      <c r="F858" t="n">
+        <v>1428.920044</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="n">
+        <v>1418.390015</v>
+      </c>
+      <c r="B859" t="n">
+        <v>1437.959961</v>
+      </c>
+      <c r="C859" t="n">
+        <v>1418</v>
+      </c>
+      <c r="D859" t="n">
+        <v>1431.819946</v>
+      </c>
+      <c r="E859" t="n">
+        <v>1217100</v>
+      </c>
+      <c r="F859" t="n">
+        <v>1431.819946</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="n">
+        <v>1430.550049</v>
+      </c>
+      <c r="B860" t="n">
+        <v>1439.609985</v>
+      </c>
+      <c r="C860" t="n">
+        <v>1418.829956</v>
+      </c>
+      <c r="D860" t="n">
+        <v>1439.219971</v>
+      </c>
+      <c r="E860" t="n">
+        <v>1278100</v>
+      </c>
+      <c r="F860" t="n">
+        <v>1439.219971</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="n">
+        <v>1438.300049</v>
+      </c>
+      <c r="B861" t="n">
+        <v>1446.552002</v>
+      </c>
+      <c r="C861" t="n">
+        <v>1429.776978</v>
+      </c>
+      <c r="D861" t="n">
+        <v>1436.380005</v>
+      </c>
+      <c r="E861" t="n">
+        <v>1256200</v>
+      </c>
+      <c r="F861" t="n">
+        <v>1436.380005</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="n">
+        <v>1430.400024</v>
+      </c>
+      <c r="B862" t="n">
+        <v>1438.959961</v>
+      </c>
+      <c r="C862" t="n">
+        <v>1404.72998</v>
+      </c>
+      <c r="D862" t="n">
+        <v>1412.180054</v>
+      </c>
+      <c r="E862" t="n">
+        <v>1484300</v>
+      </c>
+      <c r="F862" t="n">
+        <v>1412.180054</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="n">
+        <v>1413.170044</v>
+      </c>
+      <c r="B863" t="n">
+        <v>1445.050049</v>
+      </c>
+      <c r="C863" t="n">
+        <v>1406</v>
+      </c>
+      <c r="D863" t="n">
+        <v>1438.390015</v>
+      </c>
+      <c r="E863" t="n">
+        <v>1734900</v>
+      </c>
+      <c r="F863" t="n">
+        <v>1438.390015</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="n">
+        <v>1422.339966</v>
+      </c>
+      <c r="B864" t="n">
+        <v>1447.98999</v>
+      </c>
+      <c r="C864" t="n">
+        <v>1422.339966</v>
+      </c>
+      <c r="D864" t="n">
+        <v>1446.609985</v>
+      </c>
+      <c r="E864" t="n">
+        <v>1404200</v>
+      </c>
+      <c r="F864" t="n">
+        <v>1446.609985</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="n">
+        <v>1445.359985</v>
+      </c>
+      <c r="B865" t="n">
+        <v>1468</v>
+      </c>
+      <c r="C865" t="n">
+        <v>1443.209961</v>
+      </c>
+      <c r="D865" t="n">
+        <v>1456.160034</v>
+      </c>
+      <c r="E865" t="n">
+        <v>1409200</v>
+      </c>
+      <c r="F865" t="n">
+        <v>1456.160034</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="n">
+        <v>1459.540039</v>
+      </c>
+      <c r="B866" t="n">
+        <v>1474.259033</v>
+      </c>
+      <c r="C866" t="n">
+        <v>1456.27002</v>
+      </c>
+      <c r="D866" t="n">
+        <v>1465.849976</v>
+      </c>
+      <c r="E866" t="n">
+        <v>1525200</v>
+      </c>
+      <c r="F866" t="n">
+        <v>1465.849976</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="n">
+        <v>1442.47998</v>
+      </c>
+      <c r="B867" t="n">
+        <v>1454.474976</v>
+      </c>
+      <c r="C867" t="n">
+        <v>1402</v>
+      </c>
+      <c r="D867" t="n">
+        <v>1403.839966</v>
+      </c>
+      <c r="E867" t="n">
+        <v>1991300</v>
+      </c>
+      <c r="F867" t="n">
+        <v>1403.839966</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="n">
+        <v>1428.48999</v>
+      </c>
+      <c r="B868" t="n">
+        <v>1437</v>
+      </c>
+      <c r="C868" t="n">
+        <v>1386.02002</v>
+      </c>
+      <c r="D868" t="n">
+        <v>1413.180054</v>
+      </c>
+      <c r="E868" t="n">
+        <v>1944200</v>
+      </c>
+      <c r="F868" t="n">
+        <v>1413.180054</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="n">
+        <v>1390.800049</v>
+      </c>
+      <c r="B869" t="n">
+        <v>1424.800049</v>
+      </c>
+      <c r="C869" t="n">
+        <v>1387.920044</v>
+      </c>
+      <c r="D869" t="n">
+        <v>1419.849976</v>
+      </c>
+      <c r="E869" t="n">
+        <v>1503900</v>
+      </c>
+      <c r="F869" t="n">
+        <v>1419.849976</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="n">
+        <v>1445.219971</v>
+      </c>
+      <c r="B870" t="n">
+        <v>1455.02002</v>
+      </c>
+      <c r="C870" t="n">
+        <v>1425.900024</v>
+      </c>
+      <c r="D870" t="n">
+        <v>1442.719971</v>
+      </c>
+      <c r="E870" t="n">
+        <v>1709200</v>
+      </c>
+      <c r="F870" t="n">
+        <v>1442.719971</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="n">
+        <v>1447.160034</v>
+      </c>
+      <c r="B871" t="n">
+        <v>1460</v>
+      </c>
+      <c r="C871" t="n">
+        <v>1431.380005</v>
+      </c>
+      <c r="D871" t="n">
+        <v>1451.119995</v>
+      </c>
+      <c r="E871" t="n">
+        <v>1548300</v>
+      </c>
+      <c r="F871" t="n">
+        <v>1451.119995</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="n">
+        <v>1449.160034</v>
+      </c>
+      <c r="B872" t="n">
+        <v>1451.410034</v>
+      </c>
+      <c r="C872" t="n">
+        <v>1427.01001</v>
+      </c>
+      <c r="D872" t="n">
+        <v>1435.959961</v>
+      </c>
+      <c r="E872" t="n">
+        <v>1581900</v>
+      </c>
+      <c r="F872" t="n">
+        <v>1435.959961</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="n">
+        <v>1444</v>
+      </c>
+      <c r="B873" t="n">
+        <v>1447.800049</v>
+      </c>
+      <c r="C873" t="n">
+        <v>1421.349976</v>
+      </c>
+      <c r="D873" t="n">
+        <v>1431.719971</v>
+      </c>
+      <c r="E873" t="n">
+        <v>3157900</v>
+      </c>
+      <c r="F873" t="n">
+        <v>1431.719971</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="n">
+        <v>1429</v>
+      </c>
+      <c r="B874" t="n">
+        <v>1452.75</v>
+      </c>
+      <c r="C874" t="n">
+        <v>1423.209961</v>
+      </c>
+      <c r="D874" t="n">
+        <v>1451.859985</v>
+      </c>
+      <c r="E874" t="n">
+        <v>1542400</v>
+      </c>
+      <c r="F874" t="n">
+        <v>1451.859985</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="n">
+        <v>1455.640015</v>
+      </c>
+      <c r="B875" t="n">
+        <v>1475.94104</v>
+      </c>
+      <c r="C875" t="n">
+        <v>1445.23999</v>
+      </c>
+      <c r="D875" t="n">
+        <v>1464.410034</v>
+      </c>
+      <c r="E875" t="n">
+        <v>1429800</v>
+      </c>
+      <c r="F875" t="n">
+        <v>1464.410034</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="n">
+        <v>1461.51001</v>
+      </c>
+      <c r="B876" t="n">
+        <v>1475.420044</v>
+      </c>
+      <c r="C876" t="n">
+        <v>1429.75</v>
+      </c>
+      <c r="D876" t="n">
+        <v>1431.969971</v>
+      </c>
+      <c r="E876" t="n">
+        <v>1756000</v>
+      </c>
+      <c r="F876" t="n">
+        <v>1431.969971</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="n">
+        <v>1429.900024</v>
+      </c>
+      <c r="B877" t="n">
+        <v>1442.900024</v>
+      </c>
+      <c r="C877" t="n">
+        <v>1420</v>
+      </c>
+      <c r="D877" t="n">
+        <v>1441.329956</v>
+      </c>
+      <c r="E877" t="n">
+        <v>1230500</v>
+      </c>
+      <c r="F877" t="n">
+        <v>1441.329956</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="n">
+        <v>1431.390015</v>
+      </c>
+      <c r="B878" t="n">
+        <v>1433.449951</v>
+      </c>
+      <c r="C878" t="n">
+        <v>1351.98999</v>
+      </c>
+      <c r="D878" t="n">
+        <v>1359.900024</v>
+      </c>
+      <c r="E878" t="n">
+        <v>4267700</v>
+      </c>
+      <c r="F878" t="n">
+        <v>1359.900024</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="n">
+        <v>1358.180054</v>
+      </c>
+      <c r="B879" t="n">
+        <v>1395.599976</v>
+      </c>
+      <c r="C879" t="n">
+        <v>1347.01001</v>
+      </c>
+      <c r="D879" t="n">
+        <v>1394.969971</v>
+      </c>
+      <c r="E879" t="n">
+        <v>1810200</v>
+      </c>
+      <c r="F879" t="n">
+        <v>1394.969971</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="n">
+        <v>1390.439941</v>
+      </c>
+      <c r="B880" t="n">
+        <v>1418.650024</v>
+      </c>
+      <c r="C880" t="n">
+        <v>1383.959961</v>
+      </c>
+      <c r="D880" t="n">
+        <v>1413.609985</v>
+      </c>
+      <c r="E880" t="n">
+        <v>2042400</v>
+      </c>
+      <c r="F880" t="n">
+        <v>1413.609985</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="n">
+        <v>1411.099976</v>
+      </c>
+      <c r="B881" t="n">
+        <v>1443</v>
+      </c>
+      <c r="C881" t="n">
+        <v>1409.819946</v>
+      </c>
+      <c r="D881" t="n">
+        <v>1438.040039</v>
+      </c>
+      <c r="E881" t="n">
+        <v>1775200</v>
+      </c>
+      <c r="F881" t="n">
+        <v>1438.040039</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="n">
+        <v>1446.939941</v>
+      </c>
+      <c r="B882" t="n">
+        <v>1482.949951</v>
+      </c>
+      <c r="C882" t="n">
+        <v>1446.420044</v>
+      </c>
+      <c r="D882" t="n">
+        <v>1464.699951</v>
+      </c>
+      <c r="E882" t="n">
+        <v>1859100</v>
+      </c>
+      <c r="F882" t="n">
+        <v>1464.699951</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="n">
+        <v>1480.060059</v>
+      </c>
+      <c r="B883" t="n">
+        <v>1506.589966</v>
+      </c>
+      <c r="C883" t="n">
+        <v>1472.859985</v>
+      </c>
+      <c r="D883" t="n">
+        <v>1495.699951</v>
+      </c>
+      <c r="E883" t="n">
+        <v>1564000</v>
+      </c>
+      <c r="F883" t="n">
+        <v>1495.699951</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="n">
+        <v>1490</v>
+      </c>
+      <c r="B884" t="n">
+        <v>1516.800049</v>
+      </c>
+      <c r="C884" t="n">
+        <v>1483.550049</v>
+      </c>
+      <c r="D884" t="n">
+        <v>1485.180054</v>
+      </c>
+      <c r="E884" t="n">
+        <v>1458200</v>
+      </c>
+      <c r="F884" t="n">
+        <v>1485.180054</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="n">
+        <v>1494.319946</v>
+      </c>
+      <c r="B885" t="n">
+        <v>1505.880005</v>
+      </c>
+      <c r="C885" t="n">
+        <v>1485.630005</v>
+      </c>
+      <c r="D885" t="n">
+        <v>1496</v>
+      </c>
+      <c r="E885" t="n">
+        <v>1249700</v>
+      </c>
+      <c r="F885" t="n">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="n">
+        <v>1506.449951</v>
+      </c>
+      <c r="B886" t="n">
+        <v>1522.719971</v>
+      </c>
+      <c r="C886" t="n">
+        <v>1488.084961</v>
+      </c>
+      <c r="D886" t="n">
+        <v>1510.98999</v>
+      </c>
+      <c r="E886" t="n">
+        <v>1423300</v>
+      </c>
+      <c r="F886" t="n">
+        <v>1510.98999</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="n">
+        <v>1506.150024</v>
+      </c>
+      <c r="B887" t="n">
+        <v>1543.829956</v>
+      </c>
+      <c r="C887" t="n">
+        <v>1496.540039</v>
+      </c>
+      <c r="D887" t="n">
+        <v>1541.73999</v>
+      </c>
+      <c r="E887" t="n">
+        <v>1856300</v>
+      </c>
+      <c r="F887" t="n">
+        <v>1541.73999</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="n">
+        <v>1550</v>
+      </c>
+      <c r="B888" t="n">
+        <v>1577.131958</v>
+      </c>
+      <c r="C888" t="n">
+        <v>1505.243042</v>
+      </c>
+      <c r="D888" t="n">
+        <v>1511.339966</v>
+      </c>
+      <c r="E888" t="n">
+        <v>1846400</v>
+      </c>
+      <c r="F888" t="n">
+        <v>1511.339966</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="n">
+        <v>1490.310059</v>
+      </c>
+      <c r="B889" t="n">
+        <v>1522.949951</v>
+      </c>
+      <c r="C889" t="n">
+        <v>1483.5</v>
+      </c>
+      <c r="D889" t="n">
+        <v>1520.579956</v>
+      </c>
+      <c r="E889" t="n">
+        <v>1585000</v>
+      </c>
+      <c r="F889" t="n">
+        <v>1520.579956</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="n">
+        <v>1523.130005</v>
+      </c>
+      <c r="B890" t="n">
+        <v>1535.329956</v>
+      </c>
+      <c r="C890" t="n">
+        <v>1498</v>
+      </c>
+      <c r="D890" t="n">
+        <v>1513.640015</v>
+      </c>
+      <c r="E890" t="n">
+        <v>1610700</v>
+      </c>
+      <c r="F890" t="n">
+        <v>1513.640015</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="n">
+        <v>1500</v>
+      </c>
+      <c r="B891" t="n">
+        <v>1518.689941</v>
+      </c>
+      <c r="C891" t="n">
+        <v>1486.310059</v>
+      </c>
+      <c r="D891" t="n">
+        <v>1518</v>
+      </c>
+      <c r="E891" t="n">
+        <v>1519300</v>
+      </c>
+      <c r="F891" t="n">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="n">
+        <v>1521.619995</v>
+      </c>
+      <c r="B892" t="n">
+        <v>1523.439941</v>
+      </c>
+      <c r="C892" t="n">
+        <v>1498.420044</v>
+      </c>
+      <c r="D892" t="n">
+        <v>1515.550049</v>
+      </c>
+      <c r="E892" t="n">
+        <v>1456700</v>
+      </c>
+      <c r="F892" t="n">
+        <v>1515.550049</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="n">
+        <v>1515.26001</v>
+      </c>
+      <c r="B893" t="n">
+        <v>1570.290039</v>
+      </c>
+      <c r="C893" t="n">
+        <v>1503.599976</v>
+      </c>
+      <c r="D893" t="n">
+        <v>1565.719971</v>
+      </c>
+      <c r="E893" t="n">
+        <v>1557300</v>
+      </c>
+      <c r="F893" t="n">
+        <v>1565.719971</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="n">
+        <v>1586.98999</v>
+      </c>
+      <c r="B894" t="n">
+        <v>1586.98999</v>
+      </c>
+      <c r="C894" t="n">
+        <v>1554.280029</v>
+      </c>
+      <c r="D894" t="n">
+        <v>1558.420044</v>
+      </c>
+      <c r="E894" t="n">
+        <v>1218600</v>
+      </c>
+      <c r="F894" t="n">
+        <v>1558.420044</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="n">
+        <v>1560.5</v>
+      </c>
+      <c r="B895" t="n">
+        <v>1570</v>
+      </c>
+      <c r="C895" t="n">
+        <v>1546.099976</v>
+      </c>
+      <c r="D895" t="n">
+        <v>1568.48999</v>
+      </c>
+      <c r="E895" t="n">
+        <v>932000</v>
+      </c>
+      <c r="F895" t="n">
+        <v>1568.48999</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="n">
+        <v>1566.969971</v>
+      </c>
+      <c r="B896" t="n">
+        <v>1571.869995</v>
+      </c>
+      <c r="C896" t="n">
+        <v>1507.391968</v>
+      </c>
+      <c r="D896" t="n">
+        <v>1515.680054</v>
+      </c>
+      <c r="E896" t="n">
+        <v>1627600</v>
+      </c>
+      <c r="F896" t="n">
+        <v>1515.680054</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="n">
+        <v>1498.930054</v>
+      </c>
+      <c r="B897" t="n">
+        <v>1517.635986</v>
+      </c>
+      <c r="C897" t="n">
+        <v>1488.400024</v>
+      </c>
+      <c r="D897" t="n">
+        <v>1511.869995</v>
+      </c>
+      <c r="E897" t="n">
+        <v>1544000</v>
+      </c>
+      <c r="F897" t="n">
+        <v>1511.869995</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="n">
+        <v>1515.599976</v>
+      </c>
+      <c r="B898" t="n">
+        <v>1540.969971</v>
+      </c>
+      <c r="C898" t="n">
+        <v>1515.209961</v>
+      </c>
+      <c r="D898" t="n">
+        <v>1530.199951</v>
+      </c>
+      <c r="E898" t="n">
+        <v>1246000</v>
+      </c>
+      <c r="F898" t="n">
+        <v>1530.199951</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="n">
+        <v>1525.180054</v>
+      </c>
+      <c r="B899" t="n">
+        <v>1526.47998</v>
+      </c>
+      <c r="C899" t="n">
+        <v>1497.660034</v>
+      </c>
+      <c r="D899" t="n">
+        <v>1500.339966</v>
+      </c>
+      <c r="E899" t="n">
+        <v>1702200</v>
+      </c>
+      <c r="F899" t="n">
+        <v>1500.339966</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="n">
+        <v>1506.319946</v>
+      </c>
+      <c r="B900" t="n">
+        <v>1531.251953</v>
+      </c>
+      <c r="C900" t="n">
+        <v>1501.329956</v>
+      </c>
+      <c r="D900" t="n">
+        <v>1522.02002</v>
+      </c>
+      <c r="E900" t="n">
+        <v>1106500</v>
+      </c>
+      <c r="F900" t="n">
+        <v>1522.02002</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="n">
+        <v>1497</v>
+      </c>
+      <c r="B901" t="n">
+        <v>1537.869995</v>
+      </c>
+      <c r="C901" t="n">
+        <v>1492.219971</v>
+      </c>
+      <c r="D901" t="n">
+        <v>1531.449951</v>
+      </c>
+      <c r="E901" t="n">
+        <v>1671400</v>
+      </c>
+      <c r="F901" t="n">
+        <v>1531.449951</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="n">
+        <v>1505.01001</v>
+      </c>
+      <c r="B902" t="n">
+        <v>1508.949951</v>
+      </c>
+      <c r="C902" t="n">
+        <v>1454.030029</v>
+      </c>
+      <c r="D902" t="n">
+        <v>1482.959961</v>
+      </c>
+      <c r="E902" t="n">
+        <v>3439900</v>
+      </c>
+      <c r="F902" t="n">
+        <v>1482.959961</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="n">
+        <v>1486.640015</v>
+      </c>
+      <c r="B903" t="n">
+        <v>1490.469971</v>
+      </c>
+      <c r="C903" t="n">
+        <v>1465.640015</v>
+      </c>
+      <c r="D903" t="n">
+        <v>1474.449951</v>
+      </c>
+      <c r="E903" t="n">
+        <v>2330200</v>
+      </c>
+      <c r="F903" t="n">
+        <v>1474.449951</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="n">
+        <v>1476.569946</v>
+      </c>
+      <c r="B904" t="n">
+        <v>1485.560059</v>
+      </c>
+      <c r="C904" t="n">
+        <v>1458.650024</v>
+      </c>
+      <c r="D904" t="n">
+        <v>1464.969971</v>
+      </c>
+      <c r="E904" t="n">
+        <v>1903500</v>
+      </c>
+      <c r="F904" t="n">
+        <v>1464.969971</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="n">
+        <v>1469.300049</v>
+      </c>
+      <c r="B905" t="n">
+        <v>1482.410034</v>
+      </c>
+      <c r="C905" t="n">
+        <v>1463.459961</v>
+      </c>
+      <c r="D905" t="n">
+        <v>1473.609985</v>
+      </c>
+      <c r="E905" t="n">
+        <v>1979500</v>
+      </c>
+      <c r="F905" t="n">
+        <v>1473.609985</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="n">
+        <v>1471.75</v>
+      </c>
+      <c r="B906" t="n">
+        <v>1502.390015</v>
+      </c>
+      <c r="C906" t="n">
+        <v>1466</v>
+      </c>
+      <c r="D906" t="n">
+        <v>1500.099976</v>
+      </c>
+      <c r="E906" t="n">
+        <v>1995400</v>
+      </c>
+      <c r="F906" t="n">
+        <v>1500.099976</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="n">
+        <v>1500</v>
+      </c>
+      <c r="B907" t="n">
+        <v>1516.844971</v>
+      </c>
+      <c r="C907" t="n">
+        <v>1481.640015</v>
+      </c>
+      <c r="D907" t="n">
+        <v>1494.48999</v>
+      </c>
+      <c r="E907" t="n">
+        <v>1576600</v>
+      </c>
+      <c r="F907" t="n">
+        <v>1494.48999</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="n">
+        <v>1487.180054</v>
+      </c>
+      <c r="B908" t="n">
+        <v>1504.074951</v>
+      </c>
+      <c r="C908" t="n">
+        <v>1473.079956</v>
+      </c>
+      <c r="D908" t="n">
+        <v>1496.099976</v>
+      </c>
+      <c r="E908" t="n">
+        <v>1289300</v>
+      </c>
+      <c r="F908" t="n">
+        <v>1496.099976</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="n">
+        <v>1492.439941</v>
+      </c>
+      <c r="B909" t="n">
+        <v>1510</v>
+      </c>
+      <c r="C909" t="n">
+        <v>1478</v>
+      </c>
+      <c r="D909" t="n">
+        <v>1480.319946</v>
+      </c>
+      <c r="E909" t="n">
+        <v>1454400</v>
+      </c>
+      <c r="F909" t="n">
+        <v>1480.319946</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="n">
+        <v>1485.579956</v>
+      </c>
+      <c r="B910" t="n">
+        <v>1512.385986</v>
+      </c>
+      <c r="C910" t="n">
+        <v>1485.25</v>
+      </c>
+      <c r="D910" t="n">
+        <v>1506.619995</v>
+      </c>
+      <c r="E910" t="n">
+        <v>1437700</v>
+      </c>
+      <c r="F910" t="n">
+        <v>1506.619995</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="n">
+        <v>1510.339966</v>
+      </c>
+      <c r="B911" t="n">
+        <v>1537.25</v>
+      </c>
+      <c r="C911" t="n">
+        <v>1508.005005</v>
+      </c>
+      <c r="D911" t="n">
+        <v>1518.449951</v>
+      </c>
+      <c r="E911" t="n">
+        <v>1455200</v>
+      </c>
+      <c r="F911" t="n">
+        <v>1518.449951</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="n">
+        <v>1515.660034</v>
+      </c>
+      <c r="B912" t="n">
+        <v>1521.900024</v>
+      </c>
+      <c r="C912" t="n">
+        <v>1502.880005</v>
+      </c>
+      <c r="D912" t="n">
+        <v>1507.72998</v>
+      </c>
+      <c r="E912" t="n">
+        <v>1354800</v>
+      </c>
+      <c r="F912" t="n">
+        <v>1507.72998</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="n">
+        <v>1514.670044</v>
+      </c>
+      <c r="B913" t="n">
+        <v>1525.609985</v>
+      </c>
+      <c r="C913" t="n">
+        <v>1507.969971</v>
+      </c>
+      <c r="D913" t="n">
+        <v>1517.97998</v>
+      </c>
+      <c r="E913" t="n">
+        <v>1378300</v>
+      </c>
+      <c r="F913" t="n">
+        <v>1517.97998</v>
       </c>
     </row>
   </sheetData>
@@ -17370,172 +18670,172 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1355.80982887802</v>
+        <v>1517.48913999062</v>
       </c>
       <c r="B2" t="n">
-        <v>1330.39599066032</v>
+        <v>1491.80236051435</v>
       </c>
       <c r="C2" t="n">
-        <v>1381.22366709572</v>
+        <v>1543.17591946689</v>
       </c>
       <c r="D2" t="n">
-        <v>1316.94271735883</v>
+        <v>1478.20460083833</v>
       </c>
       <c r="E2" t="n">
-        <v>1394.67694039721</v>
+        <v>1556.77367914291</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1355.80982887802</v>
+        <v>1518.29181856409</v>
       </c>
       <c r="B3" t="n">
-        <v>1322.57508179</v>
+        <v>1484.78501717152</v>
       </c>
       <c r="C3" t="n">
-        <v>1389.04457596604</v>
+        <v>1551.79861995665</v>
       </c>
       <c r="D3" t="n">
-        <v>1304.9816694195</v>
+        <v>1467.04758795159</v>
       </c>
       <c r="E3" t="n">
-        <v>1406.63798833654</v>
+        <v>1569.53604917658</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1355.80982887802</v>
+        <v>1519.09449713755</v>
       </c>
       <c r="B4" t="n">
-        <v>1316.27207913105</v>
+        <v>1479.2748934321</v>
       </c>
       <c r="C4" t="n">
-        <v>1395.34757862499</v>
+        <v>1558.914100843</v>
       </c>
       <c r="D4" t="n">
-        <v>1295.34205870219</v>
+        <v>1458.19566853038</v>
       </c>
       <c r="E4" t="n">
-        <v>1416.27759905385</v>
+        <v>1579.99332574471</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1355.80982887802</v>
+        <v>1519.89717571101</v>
       </c>
       <c r="B5" t="n">
-        <v>1310.8440763979</v>
+        <v>1474.63686264363</v>
       </c>
       <c r="C5" t="n">
-        <v>1400.77558135814</v>
+        <v>1565.1574887784</v>
       </c>
       <c r="D5" t="n">
-        <v>1287.04064489179</v>
+        <v>1450.6775001817</v>
       </c>
       <c r="E5" t="n">
-        <v>1424.57901286426</v>
+        <v>1589.11685124033</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1355.80982887802</v>
+        <v>1520.69985428448</v>
       </c>
       <c r="B6" t="n">
-        <v>1306.00416517244</v>
+        <v>1470.58607335891</v>
       </c>
       <c r="C6" t="n">
-        <v>1405.6154925836</v>
+        <v>1570.81363521005</v>
       </c>
       <c r="D6" t="n">
-        <v>1279.63863942802</v>
+        <v>1444.05744021079</v>
       </c>
       <c r="E6" t="n">
-        <v>1431.98101832803</v>
+        <v>1597.34226835816</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1355.80982887802</v>
+        <v>1521.50253285794</v>
       </c>
       <c r="B7" t="n">
-        <v>1301.59461534711</v>
+        <v>1466.96551663635</v>
       </c>
       <c r="C7" t="n">
-        <v>1410.02504240894</v>
+        <v>1576.03954907953</v>
       </c>
       <c r="D7" t="n">
-        <v>1272.89481492805</v>
+        <v>1438.09536416304</v>
       </c>
       <c r="E7" t="n">
-        <v>1438.72484282799</v>
+        <v>1604.90970155285</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1355.80982887802</v>
+        <v>1522.3052114314</v>
       </c>
       <c r="B8" t="n">
-        <v>1297.51768001343</v>
+        <v>1463.67773290766</v>
       </c>
       <c r="C8" t="n">
-        <v>1414.10197774262</v>
+        <v>1580.93268995515</v>
       </c>
       <c r="D8" t="n">
-        <v>1266.6596803957</v>
+        <v>1432.64222049111</v>
       </c>
       <c r="E8" t="n">
-        <v>1444.95997736034</v>
+        <v>1611.9682023717</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1355.80982887802</v>
+        <v>1523.10789000487</v>
       </c>
       <c r="B9" t="n">
-        <v>1293.70781715295</v>
+        <v>1460.65729883272</v>
       </c>
       <c r="C9" t="n">
-        <v>1417.9118406031</v>
+        <v>1585.55848117702</v>
       </c>
       <c r="D9" t="n">
-        <v>1260.83299796376</v>
+        <v>1427.59795283068</v>
       </c>
       <c r="E9" t="n">
-        <v>1450.78665979228</v>
+        <v>1618.61782717906</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1355.80982887802</v>
+        <v>1523.91056857833</v>
       </c>
       <c r="B10" t="n">
-        <v>1290.11854253538</v>
+        <v>1457.85777577251</v>
       </c>
       <c r="C10" t="n">
-        <v>1421.50111522066</v>
+        <v>1589.96336138416</v>
       </c>
       <c r="D10" t="n">
-        <v>1255.34367613686</v>
+        <v>1422.89153941216</v>
       </c>
       <c r="E10" t="n">
-        <v>1456.27598161919</v>
+        <v>1624.9295977445</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1355.80982887802</v>
+        <v>1524.7132471518</v>
       </c>
       <c r="B11" t="n">
-        <v>1286.71547062498</v>
+        <v>1455.2447900137</v>
       </c>
       <c r="C11" t="n">
-        <v>1424.90418713107</v>
+        <v>1594.18170428989</v>
       </c>
       <c r="D11" t="n">
-        <v>1250.13912677613</v>
+        <v>1418.47041017756</v>
       </c>
       <c r="E11" t="n">
-        <v>1461.48053097992</v>
+        <v>1630.95608412603</v>
       </c>
     </row>
   </sheetData>

--- a/FILER/google.xlsx
+++ b/FILER/google.xlsx
@@ -16251,7 +16251,7 @@
         <v>1318.089966</v>
       </c>
       <c r="E794" t="n">
-        <v>2971100</v>
+        <v>2978300</v>
       </c>
       <c r="F794" t="n">
         <v>1318.089966</v>
@@ -16271,7 +16271,7 @@
         <v>1339.329956</v>
       </c>
       <c r="E795" t="n">
-        <v>3790600</v>
+        <v>3789100</v>
       </c>
       <c r="F795" t="n">
         <v>1339.329956</v>
@@ -18635,6 +18635,186 @@
       </c>
       <c r="F913" t="n">
         <v>1517.97998</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="n">
+        <v>1526.180054</v>
+      </c>
+      <c r="B914" t="n">
+        <v>1562.469971</v>
+      </c>
+      <c r="C914" t="n">
+        <v>1523.709961</v>
+      </c>
+      <c r="D914" t="n">
+        <v>1558.599976</v>
+      </c>
+      <c r="E914" t="n">
+        <v>2027100</v>
+      </c>
+      <c r="F914" t="n">
+        <v>1558.599976</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="n">
+        <v>1553.310059</v>
+      </c>
+      <c r="B915" t="n">
+        <v>1573.680054</v>
+      </c>
+      <c r="C915" t="n">
+        <v>1543.949951</v>
+      </c>
+      <c r="D915" t="n">
+        <v>1547.530029</v>
+      </c>
+      <c r="E915" t="n">
+        <v>1660600</v>
+      </c>
+      <c r="F915" t="n">
+        <v>1547.530029</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="n">
+        <v>1543.449951</v>
+      </c>
+      <c r="B916" t="n">
+        <v>1585.869995</v>
+      </c>
+      <c r="C916" t="n">
+        <v>1538.199951</v>
+      </c>
+      <c r="D916" t="n">
+        <v>1581.75</v>
+      </c>
+      <c r="E916" t="n">
+        <v>1706900</v>
+      </c>
+      <c r="F916" t="n">
+        <v>1581.75</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="n">
+        <v>1577.030029</v>
+      </c>
+      <c r="B917" t="n">
+        <v>1597.719971</v>
+      </c>
+      <c r="C917" t="n">
+        <v>1568.005005</v>
+      </c>
+      <c r="D917" t="n">
+        <v>1580.420044</v>
+      </c>
+      <c r="E917" t="n">
+        <v>1446500</v>
+      </c>
+      <c r="F917" t="n">
+        <v>1580.420044</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="n">
+        <v>1593.97998</v>
+      </c>
+      <c r="B918" t="n">
+        <v>1614.170044</v>
+      </c>
+      <c r="C918" t="n">
+        <v>1580.569946</v>
+      </c>
+      <c r="D918" t="n">
+        <v>1588.199951</v>
+      </c>
+      <c r="E918" t="n">
+        <v>1409900</v>
+      </c>
+      <c r="F918" t="n">
+        <v>1588.199951</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="n">
+        <v>1582.069946</v>
+      </c>
+      <c r="B919" t="n">
+        <v>1611.619995</v>
+      </c>
+      <c r="C919" t="n">
+        <v>1582.069946</v>
+      </c>
+      <c r="D919" t="n">
+        <v>1608.219971</v>
+      </c>
+      <c r="E919" t="n">
+        <v>2247100</v>
+      </c>
+      <c r="F919" t="n">
+        <v>1608.219971</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="n">
+        <v>1608</v>
+      </c>
+      <c r="B920" t="n">
+        <v>1659.219971</v>
+      </c>
+      <c r="C920" t="n">
+        <v>1603.599976</v>
+      </c>
+      <c r="D920" t="n">
+        <v>1652.380005</v>
+      </c>
+      <c r="E920" t="n">
+        <v>3993400</v>
+      </c>
+      <c r="F920" t="n">
+        <v>1652.380005</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="n">
+        <v>1653.680054</v>
+      </c>
+      <c r="B921" t="n">
+        <v>1655</v>
+      </c>
+      <c r="C921" t="n">
+        <v>1625.75</v>
+      </c>
+      <c r="D921" t="n">
+        <v>1634.329956</v>
+      </c>
+      <c r="E921" t="n">
+        <v>1861600</v>
+      </c>
+      <c r="F921" t="n">
+        <v>1634.329956</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="n">
+        <v>1633.48999</v>
+      </c>
+      <c r="B922" t="n">
+        <v>1647.170044</v>
+      </c>
+      <c r="C922" t="n">
+        <v>1630.75</v>
+      </c>
+      <c r="D922" t="n">
+        <v>1644.410034</v>
+      </c>
+      <c r="E922" t="n">
+        <v>1499000</v>
+      </c>
+      <c r="F922" t="n">
+        <v>1644.410034</v>
       </c>
     </row>
   </sheetData>
@@ -18670,172 +18850,172 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1517.48913999062</v>
+        <v>1644.17219323047</v>
       </c>
       <c r="B2" t="n">
-        <v>1491.80236051435</v>
+        <v>1618.4164160371</v>
       </c>
       <c r="C2" t="n">
-        <v>1543.17591946689</v>
+        <v>1669.92797042384</v>
       </c>
       <c r="D2" t="n">
-        <v>1478.20460083833</v>
+        <v>1604.78213117597</v>
       </c>
       <c r="E2" t="n">
-        <v>1556.77367914291</v>
+        <v>1683.56225528497</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1518.29181856409</v>
+        <v>1645.10424189301</v>
       </c>
       <c r="B3" t="n">
-        <v>1484.78501717152</v>
+        <v>1611.47200013676</v>
       </c>
       <c r="C3" t="n">
-        <v>1551.79861995665</v>
+        <v>1678.73648364926</v>
       </c>
       <c r="D3" t="n">
-        <v>1467.04758795159</v>
+        <v>1593.66816679947</v>
       </c>
       <c r="E3" t="n">
-        <v>1569.53604917658</v>
+        <v>1696.54031698655</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1519.09449713755</v>
+        <v>1646.03629055555</v>
       </c>
       <c r="B4" t="n">
-        <v>1479.2748934321</v>
+        <v>1606.05010153649</v>
       </c>
       <c r="C4" t="n">
-        <v>1558.914100843</v>
+        <v>1686.0224795746</v>
       </c>
       <c r="D4" t="n">
-        <v>1458.19566853038</v>
+        <v>1584.88269169661</v>
       </c>
       <c r="E4" t="n">
-        <v>1579.99332574471</v>
+        <v>1707.18988941449</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1519.89717571101</v>
+        <v>1646.96833921809</v>
       </c>
       <c r="B5" t="n">
-        <v>1474.63686264363</v>
+        <v>1601.50777456053</v>
       </c>
       <c r="C5" t="n">
-        <v>1565.1574887784</v>
+        <v>1692.42890387565</v>
       </c>
       <c r="D5" t="n">
-        <v>1450.6775001817</v>
+        <v>1577.44240531015</v>
       </c>
       <c r="E5" t="n">
-        <v>1589.11685124033</v>
+        <v>1716.49427312603</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1520.69985428448</v>
+        <v>1647.90038788063</v>
       </c>
       <c r="B6" t="n">
-        <v>1470.58607335891</v>
+        <v>1597.55725959383</v>
       </c>
       <c r="C6" t="n">
-        <v>1570.81363521005</v>
+        <v>1698.24351616742</v>
       </c>
       <c r="D6" t="n">
-        <v>1444.05744021079</v>
+        <v>1570.90721728646</v>
       </c>
       <c r="E6" t="n">
-        <v>1597.34226835816</v>
+        <v>1724.8935584748</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1521.50253285794</v>
+        <v>1648.83243654317</v>
       </c>
       <c r="B7" t="n">
-        <v>1466.96551663635</v>
+        <v>1594.04011780762</v>
       </c>
       <c r="C7" t="n">
-        <v>1576.03954907953</v>
+        <v>1703.62475527871</v>
       </c>
       <c r="D7" t="n">
-        <v>1438.09536416304</v>
+        <v>1565.03481634716</v>
       </c>
       <c r="E7" t="n">
-        <v>1604.90970155285</v>
+        <v>1732.63005673917</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1522.3052114314</v>
+        <v>1649.76448520571</v>
       </c>
       <c r="B8" t="n">
-        <v>1463.67773290766</v>
+        <v>1590.85806943345</v>
       </c>
       <c r="C8" t="n">
-        <v>1580.93268995515</v>
+        <v>1708.67090097796</v>
       </c>
       <c r="D8" t="n">
-        <v>1432.64222049111</v>
+        <v>1559.67489655704</v>
       </c>
       <c r="E8" t="n">
-        <v>1611.9682023717</v>
+        <v>1739.85407385437</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1523.10789000487</v>
+        <v>1650.69653386825</v>
       </c>
       <c r="B9" t="n">
-        <v>1460.65729883272</v>
+        <v>1587.9451717647</v>
       </c>
       <c r="C9" t="n">
-        <v>1585.55848117702</v>
+        <v>1713.44789597179</v>
       </c>
       <c r="D9" t="n">
-        <v>1427.59795283068</v>
+        <v>1554.72660724924</v>
       </c>
       <c r="E9" t="n">
-        <v>1618.61782717906</v>
+        <v>1746.66646048725</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1523.91056857833</v>
+        <v>1651.62858253078</v>
       </c>
       <c r="B10" t="n">
-        <v>1457.85777577251</v>
+        <v>1585.25463378154</v>
       </c>
       <c r="C10" t="n">
-        <v>1589.96336138416</v>
+        <v>1718.00253128003</v>
       </c>
       <c r="D10" t="n">
-        <v>1422.89153941216</v>
+        <v>1550.11838773426</v>
       </c>
       <c r="E10" t="n">
-        <v>1624.9295977445</v>
+        <v>1753.13877732731</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1524.7132471518</v>
+        <v>1652.56063119332</v>
       </c>
       <c r="B11" t="n">
-        <v>1455.2447900137</v>
+        <v>1582.75183017738</v>
       </c>
       <c r="C11" t="n">
-        <v>1594.18170428989</v>
+        <v>1722.36943220927</v>
       </c>
       <c r="D11" t="n">
-        <v>1418.47041017756</v>
+        <v>1545.79728317539</v>
       </c>
       <c r="E11" t="n">
-        <v>1630.95608412603</v>
+        <v>1759.32397921126</v>
       </c>
     </row>
   </sheetData>

--- a/FILER/google.xlsx
+++ b/FILER/google.xlsx
@@ -16271,7 +16271,7 @@
         <v>1339.329956</v>
       </c>
       <c r="E795" t="n">
-        <v>3789100</v>
+        <v>3790600</v>
       </c>
       <c r="F795" t="n">
         <v>1339.329956</v>
@@ -16311,7 +16311,7 @@
         <v>1341.390015</v>
       </c>
       <c r="E797" t="n">
-        <v>2402300</v>
+        <v>2400400</v>
       </c>
       <c r="F797" t="n">
         <v>1341.390015</v>
@@ -18811,10 +18811,110 @@
         <v>1644.410034</v>
       </c>
       <c r="E922" t="n">
-        <v>1499000</v>
+        <v>1499800</v>
       </c>
       <c r="F922" t="n">
         <v>1644.410034</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="n">
+        <v>1647.890015</v>
+      </c>
+      <c r="B923" t="n">
+        <v>1647.964966</v>
+      </c>
+      <c r="C923" t="n">
+        <v>1630.310059</v>
+      </c>
+      <c r="D923" t="n">
+        <v>1634.180054</v>
+      </c>
+      <c r="E923" t="n">
+        <v>1823400</v>
+      </c>
+      <c r="F923" t="n">
+        <v>1634.180054</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="n">
+        <v>1636.630005</v>
+      </c>
+      <c r="B924" t="n">
+        <v>1665.72998</v>
+      </c>
+      <c r="C924" t="n">
+        <v>1632.219971</v>
+      </c>
+      <c r="D924" t="n">
+        <v>1660.709961</v>
+      </c>
+      <c r="E924" t="n">
+        <v>1826700</v>
+      </c>
+      <c r="F924" t="n">
+        <v>1660.709961</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="n">
+        <v>1673.775024</v>
+      </c>
+      <c r="B925" t="n">
+        <v>1733.180054</v>
+      </c>
+      <c r="C925" t="n">
+        <v>1666.329956</v>
+      </c>
+      <c r="D925" t="n">
+        <v>1728.280029</v>
+      </c>
+      <c r="E925" t="n">
+        <v>2511200</v>
+      </c>
+      <c r="F925" t="n">
+        <v>1728.280029</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="n">
+        <v>1709.713989</v>
+      </c>
+      <c r="B926" t="n">
+        <v>1709.713989</v>
+      </c>
+      <c r="C926" t="n">
+        <v>1615.060059</v>
+      </c>
+      <c r="D926" t="n">
+        <v>1641.839966</v>
+      </c>
+      <c r="E926" t="n">
+        <v>3100800</v>
+      </c>
+      <c r="F926" t="n">
+        <v>1641.839966</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="n">
+        <v>1624.26001</v>
+      </c>
+      <c r="B927" t="n">
+        <v>1645.109985</v>
+      </c>
+      <c r="C927" t="n">
+        <v>1547.612549</v>
+      </c>
+      <c r="D927" t="n">
+        <v>1591.040039</v>
+      </c>
+      <c r="E927" t="n">
+        <v>2608568</v>
+      </c>
+      <c r="F927" t="n">
+        <v>1591.040039</v>
       </c>
     </row>
   </sheetData>
@@ -18850,172 +18950,172 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1644.17219323047</v>
+        <v>1602.19714198477</v>
       </c>
       <c r="B2" t="n">
-        <v>1618.4164160371</v>
+        <v>1575.97936564477</v>
       </c>
       <c r="C2" t="n">
-        <v>1669.92797042384</v>
+        <v>1628.41491832477</v>
       </c>
       <c r="D2" t="n">
-        <v>1604.78213117597</v>
+        <v>1562.10051320863</v>
       </c>
       <c r="E2" t="n">
-        <v>1683.56225528497</v>
+        <v>1642.29377076091</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1645.10424189301</v>
+        <v>1603.07818115926</v>
       </c>
       <c r="B3" t="n">
-        <v>1611.47200013676</v>
+        <v>1568.85190653182</v>
       </c>
       <c r="C3" t="n">
-        <v>1678.73648364926</v>
+        <v>1637.30445578671</v>
       </c>
       <c r="D3" t="n">
-        <v>1593.66816679947</v>
+        <v>1550.73361118774</v>
       </c>
       <c r="E3" t="n">
-        <v>1696.54031698655</v>
+        <v>1655.42275113079</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1646.03629055555</v>
+        <v>1603.95922033376</v>
       </c>
       <c r="B4" t="n">
-        <v>1606.05010153649</v>
+        <v>1563.27133572996</v>
       </c>
       <c r="C4" t="n">
-        <v>1686.0224795746</v>
+        <v>1644.64710493756</v>
       </c>
       <c r="D4" t="n">
-        <v>1584.88269169661</v>
+        <v>1541.73247068543</v>
       </c>
       <c r="E4" t="n">
-        <v>1707.18988941449</v>
+        <v>1666.18596998209</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1646.96833921809</v>
+        <v>1604.84025950825</v>
       </c>
       <c r="B5" t="n">
-        <v>1601.50777456053</v>
+        <v>1558.58477299918</v>
       </c>
       <c r="C5" t="n">
-        <v>1692.42890387565</v>
+        <v>1651.09574601732</v>
       </c>
       <c r="D5" t="n">
-        <v>1577.44240531015</v>
+        <v>1534.09859753959</v>
       </c>
       <c r="E5" t="n">
-        <v>1716.49427312603</v>
+        <v>1675.58192147691</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1647.90038788063</v>
+        <v>1605.72129868274</v>
       </c>
       <c r="B6" t="n">
-        <v>1597.55725959383</v>
+        <v>1554.49985677752</v>
       </c>
       <c r="C6" t="n">
-        <v>1698.24351616742</v>
+        <v>1656.94274058796</v>
       </c>
       <c r="D6" t="n">
-        <v>1570.90721728646</v>
+        <v>1527.38486332613</v>
       </c>
       <c r="E6" t="n">
-        <v>1724.8935584748</v>
+        <v>1684.05773403935</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1648.83243654317</v>
+        <v>1606.60233785724</v>
       </c>
       <c r="B7" t="n">
-        <v>1594.04011780762</v>
+        <v>1550.85556943512</v>
       </c>
       <c r="C7" t="n">
-        <v>1703.62475527871</v>
+        <v>1662.34910627935</v>
       </c>
       <c r="D7" t="n">
-        <v>1565.03481634716</v>
+        <v>1521.34501283075</v>
       </c>
       <c r="E7" t="n">
-        <v>1732.63005673917</v>
+        <v>1691.85966288372</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1649.76448520571</v>
+        <v>1607.48337703173</v>
       </c>
       <c r="B8" t="n">
-        <v>1590.85806943345</v>
+        <v>1547.55201405567</v>
       </c>
       <c r="C8" t="n">
-        <v>1708.67090097796</v>
+        <v>1667.41474000778</v>
       </c>
       <c r="D8" t="n">
-        <v>1559.67489655704</v>
+        <v>1515.82626690401</v>
       </c>
       <c r="E8" t="n">
-        <v>1739.85407385437</v>
+        <v>1699.14048715944</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1650.69653386825</v>
+        <v>1608.36441620622</v>
       </c>
       <c r="B9" t="n">
-        <v>1587.9451717647</v>
+        <v>1544.52215475797</v>
       </c>
       <c r="C9" t="n">
-        <v>1713.44789597179</v>
+        <v>1672.20667765447</v>
       </c>
       <c r="D9" t="n">
-        <v>1554.72660724924</v>
+        <v>1510.7261030128</v>
       </c>
       <c r="E9" t="n">
-        <v>1746.66646048725</v>
+        <v>1706.00272939964</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1651.62858253078</v>
+        <v>1609.24545538071</v>
       </c>
       <c r="B10" t="n">
-        <v>1585.25463378154</v>
+        <v>1541.71842060585</v>
       </c>
       <c r="C10" t="n">
-        <v>1718.00253128003</v>
+        <v>1676.77249015558</v>
       </c>
       <c r="D10" t="n">
-        <v>1550.11838773426</v>
+        <v>1505.9717676885</v>
       </c>
       <c r="E10" t="n">
-        <v>1753.13877732731</v>
+        <v>1712.51914307292</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1652.56063119332</v>
+        <v>1610.12649455521</v>
       </c>
       <c r="B11" t="n">
-        <v>1582.75183017738</v>
+        <v>1539.10560675348</v>
       </c>
       <c r="C11" t="n">
-        <v>1722.36943220927</v>
+        <v>1681.14738235693</v>
       </c>
       <c r="D11" t="n">
-        <v>1545.79728317539</v>
+        <v>1501.50941976565</v>
       </c>
       <c r="E11" t="n">
-        <v>1759.32397921126</v>
+        <v>1718.74356934476</v>
       </c>
     </row>
   </sheetData>

--- a/FILER/google.xlsx
+++ b/FILER/google.xlsx
@@ -16311,7 +16311,7 @@
         <v>1341.390015</v>
       </c>
       <c r="E797" t="n">
-        <v>2400400</v>
+        <v>2402300</v>
       </c>
       <c r="F797" t="n">
         <v>1341.390015</v>
@@ -16391,7 +16391,7 @@
         <v>1215.560059</v>
       </c>
       <c r="E801" t="n">
-        <v>3365400</v>
+        <v>3362500</v>
       </c>
       <c r="F801" t="n">
         <v>1215.560059</v>
@@ -18891,7 +18891,7 @@
         <v>1641.839966</v>
       </c>
       <c r="E926" t="n">
-        <v>3100800</v>
+        <v>3107800</v>
       </c>
       <c r="F926" t="n">
         <v>1641.839966</v>
@@ -18905,16 +18905,36 @@
         <v>1645.109985</v>
       </c>
       <c r="C927" t="n">
-        <v>1547.612549</v>
+        <v>1547.613037</v>
       </c>
       <c r="D927" t="n">
         <v>1591.040039</v>
       </c>
       <c r="E927" t="n">
-        <v>2608568</v>
+        <v>2608600</v>
       </c>
       <c r="F927" t="n">
         <v>1591.040039</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="n">
+        <v>1533.51001</v>
+      </c>
+      <c r="B928" t="n">
+        <v>1563.86499</v>
+      </c>
+      <c r="C928" t="n">
+        <v>1528.01001</v>
+      </c>
+      <c r="D928" t="n">
+        <v>1532.390015</v>
+      </c>
+      <c r="E928" t="n">
+        <v>2608000</v>
+      </c>
+      <c r="F928" t="n">
+        <v>1532.390015</v>
       </c>
     </row>
   </sheetData>
@@ -18950,172 +18970,172 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1602.19714198477</v>
+        <v>1542.25416914275</v>
       </c>
       <c r="B2" t="n">
-        <v>1575.97936564477</v>
+        <v>1515.87378688611</v>
       </c>
       <c r="C2" t="n">
-        <v>1628.41491832477</v>
+        <v>1568.63455139939</v>
       </c>
       <c r="D2" t="n">
-        <v>1562.10051320863</v>
+        <v>1501.9088560773</v>
       </c>
       <c r="E2" t="n">
-        <v>1642.29377076091</v>
+        <v>1582.5994822082</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1603.07818115926</v>
+        <v>1542.25416914275</v>
       </c>
       <c r="B3" t="n">
-        <v>1568.85190653182</v>
+        <v>1507.55905226267</v>
       </c>
       <c r="C3" t="n">
-        <v>1637.30445578671</v>
+        <v>1576.94928602283</v>
       </c>
       <c r="D3" t="n">
-        <v>1550.73361118774</v>
+        <v>1489.19256682207</v>
       </c>
       <c r="E3" t="n">
-        <v>1655.42275113079</v>
+        <v>1595.31577146343</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1603.95922033376</v>
+        <v>1542.25416914275</v>
       </c>
       <c r="B4" t="n">
-        <v>1563.27133572996</v>
+        <v>1500.88295085469</v>
       </c>
       <c r="C4" t="n">
-        <v>1644.64710493756</v>
+        <v>1583.62538743081</v>
       </c>
       <c r="D4" t="n">
-        <v>1541.73247068543</v>
+        <v>1478.98235080847</v>
       </c>
       <c r="E4" t="n">
-        <v>1666.18596998209</v>
+        <v>1605.52598747703</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1604.84025950825</v>
+        <v>1542.25416914275</v>
       </c>
       <c r="B5" t="n">
-        <v>1558.58477299918</v>
+        <v>1495.14361544239</v>
       </c>
       <c r="C5" t="n">
-        <v>1651.09574601732</v>
+        <v>1589.36472284311</v>
       </c>
       <c r="D5" t="n">
-        <v>1534.09859753959</v>
+        <v>1470.20479475397</v>
       </c>
       <c r="E5" t="n">
-        <v>1675.58192147691</v>
+        <v>1614.30354353153</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1605.72129868274</v>
+        <v>1542.25416914275</v>
       </c>
       <c r="B6" t="n">
-        <v>1554.49985677752</v>
+        <v>1490.03127342381</v>
       </c>
       <c r="C6" t="n">
-        <v>1656.94274058796</v>
+        <v>1594.47706486168</v>
       </c>
       <c r="D6" t="n">
-        <v>1527.38486332613</v>
+        <v>1462.38614234665</v>
       </c>
       <c r="E6" t="n">
-        <v>1684.05773403935</v>
+        <v>1622.12219593885</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1606.60233785724</v>
+        <v>1542.25416914275</v>
       </c>
       <c r="B7" t="n">
-        <v>1550.85556943512</v>
+        <v>1485.37660410532</v>
       </c>
       <c r="C7" t="n">
-        <v>1662.34910627935</v>
+        <v>1599.13173418018</v>
       </c>
       <c r="D7" t="n">
-        <v>1521.34501283075</v>
+        <v>1455.26743993196</v>
       </c>
       <c r="E7" t="n">
-        <v>1691.85966288372</v>
+        <v>1629.24089835354</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1607.48337703173</v>
+        <v>1542.25416914275</v>
       </c>
       <c r="B8" t="n">
-        <v>1547.55201405567</v>
+        <v>1481.07505528922</v>
       </c>
       <c r="C8" t="n">
-        <v>1667.41474000778</v>
+        <v>1603.43328299628</v>
       </c>
       <c r="D8" t="n">
-        <v>1515.82626690401</v>
+        <v>1448.688788722</v>
       </c>
       <c r="E8" t="n">
-        <v>1699.14048715944</v>
+        <v>1635.8195495635</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1608.36441620622</v>
+        <v>1542.25416914275</v>
       </c>
       <c r="B9" t="n">
-        <v>1544.52215475797</v>
+        <v>1477.05669573144</v>
       </c>
       <c r="C9" t="n">
-        <v>1672.20667765447</v>
+        <v>1607.45164255406</v>
       </c>
       <c r="D9" t="n">
-        <v>1510.7261030128</v>
+        <v>1442.54323810824</v>
       </c>
       <c r="E9" t="n">
-        <v>1706.00272939964</v>
+        <v>1641.96510017725</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1609.24545538071</v>
+        <v>1542.25416914275</v>
       </c>
       <c r="B10" t="n">
-        <v>1541.71842060585</v>
+        <v>1473.27201850554</v>
       </c>
       <c r="C10" t="n">
-        <v>1676.77249015558</v>
+        <v>1611.23631977996</v>
       </c>
       <c r="D10" t="n">
-        <v>1505.9717676885</v>
+        <v>1436.75507378048</v>
       </c>
       <c r="E10" t="n">
-        <v>1712.51914307292</v>
+        <v>1647.75326450501</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1610.12649455521</v>
+        <v>1542.25416914275</v>
       </c>
       <c r="B11" t="n">
-        <v>1539.10560675348</v>
+        <v>1469.68445318733</v>
       </c>
       <c r="C11" t="n">
-        <v>1681.14738235693</v>
+        <v>1614.82388509817</v>
       </c>
       <c r="D11" t="n">
-        <v>1501.50941976565</v>
+        <v>1431.26836610135</v>
       </c>
       <c r="E11" t="n">
-        <v>1718.74356934476</v>
+        <v>1653.23997218415</v>
       </c>
     </row>
   </sheetData>

--- a/FILER/google.xlsx
+++ b/FILER/google.xlsx
@@ -16391,7 +16391,7 @@
         <v>1215.560059</v>
       </c>
       <c r="E801" t="n">
-        <v>3362500</v>
+        <v>3365400</v>
       </c>
       <c r="F801" t="n">
         <v>1215.560059</v>
@@ -16591,7 +16591,7 @@
         <v>1056.619995</v>
       </c>
       <c r="E811" t="n">
-        <v>4044100</v>
+        <v>4040500</v>
       </c>
       <c r="F811" t="n">
         <v>1056.619995</v>
@@ -18931,10 +18931,210 @@
         <v>1532.390015</v>
       </c>
       <c r="E928" t="n">
-        <v>2608000</v>
+        <v>2610900</v>
       </c>
       <c r="F928" t="n">
         <v>1532.390015</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="n">
+        <v>1557.530029</v>
+      </c>
+      <c r="B929" t="n">
+        <v>1569</v>
+      </c>
+      <c r="C929" t="n">
+        <v>1536.051025</v>
+      </c>
+      <c r="D929" t="n">
+        <v>1556.959961</v>
+      </c>
+      <c r="E929" t="n">
+        <v>1774700</v>
+      </c>
+      <c r="F929" t="n">
+        <v>1556.959961</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="n">
+        <v>1560.640015</v>
+      </c>
+      <c r="B930" t="n">
+        <v>1584.081055</v>
+      </c>
+      <c r="C930" t="n">
+        <v>1525.805054</v>
+      </c>
+      <c r="D930" t="n">
+        <v>1532.02002</v>
+      </c>
+      <c r="E930" t="n">
+        <v>1618600</v>
+      </c>
+      <c r="F930" t="n">
+        <v>1532.02002</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="n">
+        <v>1536</v>
+      </c>
+      <c r="B931" t="n">
+        <v>1575.199951</v>
+      </c>
+      <c r="C931" t="n">
+        <v>1497.359985</v>
+      </c>
+      <c r="D931" t="n">
+        <v>1520.719971</v>
+      </c>
+      <c r="E931" t="n">
+        <v>1597100</v>
+      </c>
+      <c r="F931" t="n">
+        <v>1520.719971</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="n">
+        <v>1539.005005</v>
+      </c>
+      <c r="B932" t="n">
+        <v>1564</v>
+      </c>
+      <c r="C932" t="n">
+        <v>1515.73999</v>
+      </c>
+      <c r="D932" t="n">
+        <v>1519.280029</v>
+      </c>
+      <c r="E932" t="n">
+        <v>1696600</v>
+      </c>
+      <c r="F932" t="n">
+        <v>1519.280029</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="n">
+        <v>1536</v>
+      </c>
+      <c r="B933" t="n">
+        <v>1559.569946</v>
+      </c>
+      <c r="C933" t="n">
+        <v>1531.834961</v>
+      </c>
+      <c r="D933" t="n">
+        <v>1541.439941</v>
+      </c>
+      <c r="E933" t="n">
+        <v>1331100</v>
+      </c>
+      <c r="F933" t="n">
+        <v>1541.439941</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="n">
+        <v>1555.540039</v>
+      </c>
+      <c r="B934" t="n">
+        <v>1562</v>
+      </c>
+      <c r="C934" t="n">
+        <v>1519.819946</v>
+      </c>
+      <c r="D934" t="n">
+        <v>1520.900024</v>
+      </c>
+      <c r="E934" t="n">
+        <v>1311700</v>
+      </c>
+      <c r="F934" t="n">
+        <v>1520.900024</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="n">
+        <v>1496</v>
+      </c>
+      <c r="B935" t="n">
+        <v>1508.297974</v>
+      </c>
+      <c r="C935" t="n">
+        <v>1470</v>
+      </c>
+      <c r="D935" t="n">
+        <v>1495.530029</v>
+      </c>
+      <c r="E935" t="n">
+        <v>1879800</v>
+      </c>
+      <c r="F935" t="n">
+        <v>1495.530029</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="n">
+        <v>1498.01001</v>
+      </c>
+      <c r="B936" t="n">
+        <v>1503.003052</v>
+      </c>
+      <c r="C936" t="n">
+        <v>1437.130005</v>
+      </c>
+      <c r="D936" t="n">
+        <v>1459.98999</v>
+      </c>
+      <c r="E936" t="n">
+        <v>3103900</v>
+      </c>
+      <c r="F936" t="n">
+        <v>1459.98999</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="n">
+        <v>1440.060059</v>
+      </c>
+      <c r="B937" t="n">
+        <v>1448.359985</v>
+      </c>
+      <c r="C937" t="n">
+        <v>1406.550049</v>
+      </c>
+      <c r="D937" t="n">
+        <v>1431.160034</v>
+      </c>
+      <c r="E937" t="n">
+        <v>2888800</v>
+      </c>
+      <c r="F937" t="n">
+        <v>1431.160034</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="n">
+        <v>1450.089966</v>
+      </c>
+      <c r="B938" t="n">
+        <v>1469.52002</v>
+      </c>
+      <c r="C938" t="n">
+        <v>1434.530029</v>
+      </c>
+      <c r="D938" t="n">
+        <v>1465.459961</v>
+      </c>
+      <c r="E938" t="n">
+        <v>1581300</v>
+      </c>
+      <c r="F938" t="n">
+        <v>1465.459961</v>
       </c>
     </row>
   </sheetData>
@@ -18970,172 +19170,172 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1542.25416914275</v>
+        <v>1461.22718188116</v>
       </c>
       <c r="B2" t="n">
-        <v>1515.87378688611</v>
+        <v>1434.78375755419</v>
       </c>
       <c r="C2" t="n">
-        <v>1568.63455139939</v>
+        <v>1487.67060620812</v>
       </c>
       <c r="D2" t="n">
-        <v>1501.9088560773</v>
+        <v>1420.78545428923</v>
       </c>
       <c r="E2" t="n">
-        <v>1582.5994822082</v>
+        <v>1501.66890947309</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1542.25416914275</v>
+        <v>1461.22718188116</v>
       </c>
       <c r="B3" t="n">
-        <v>1507.55905226267</v>
+        <v>1426.42577989769</v>
       </c>
       <c r="C3" t="n">
-        <v>1576.94928602283</v>
+        <v>1496.02858386463</v>
       </c>
       <c r="D3" t="n">
-        <v>1489.19256682207</v>
+        <v>1408.00303052201</v>
       </c>
       <c r="E3" t="n">
-        <v>1595.31577146343</v>
+        <v>1514.45133324031</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1542.25416914275</v>
+        <v>1461.22718188116</v>
       </c>
       <c r="B4" t="n">
-        <v>1500.88295085469</v>
+        <v>1419.71790014931</v>
       </c>
       <c r="C4" t="n">
-        <v>1583.62538743081</v>
+        <v>1502.73646361301</v>
       </c>
       <c r="D4" t="n">
-        <v>1478.98235080847</v>
+        <v>1397.74421373077</v>
       </c>
       <c r="E4" t="n">
-        <v>1605.52598747703</v>
+        <v>1524.71015003155</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1542.25416914275</v>
+        <v>1461.22718188116</v>
       </c>
       <c r="B5" t="n">
-        <v>1495.14361544239</v>
+        <v>1413.95241736802</v>
       </c>
       <c r="C5" t="n">
-        <v>1589.36472284311</v>
+        <v>1508.5019463943</v>
       </c>
       <c r="D5" t="n">
-        <v>1470.20479475397</v>
+        <v>1388.92666872624</v>
       </c>
       <c r="E5" t="n">
-        <v>1614.30354353153</v>
+        <v>1533.52769503608</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1542.25416914275</v>
+        <v>1461.22718188116</v>
       </c>
       <c r="B6" t="n">
-        <v>1490.03127342381</v>
+        <v>1408.81739033748</v>
       </c>
       <c r="C6" t="n">
-        <v>1594.47706486168</v>
+        <v>1513.63697342484</v>
       </c>
       <c r="D6" t="n">
-        <v>1462.38614234665</v>
+        <v>1381.073322587</v>
       </c>
       <c r="E6" t="n">
-        <v>1622.12219593885</v>
+        <v>1541.38104117531</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1542.25416914275</v>
+        <v>1461.22718188116</v>
       </c>
       <c r="B7" t="n">
-        <v>1485.37660410532</v>
+        <v>1404.14242787861</v>
       </c>
       <c r="C7" t="n">
-        <v>1599.13173418018</v>
+        <v>1518.3119358837</v>
       </c>
       <c r="D7" t="n">
-        <v>1455.26743993196</v>
+        <v>1373.92358449234</v>
       </c>
       <c r="E7" t="n">
-        <v>1629.24089835354</v>
+        <v>1548.53077926997</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1542.25416914275</v>
+        <v>1461.22718188116</v>
       </c>
       <c r="B8" t="n">
-        <v>1481.07505528922</v>
+        <v>1399.82236098402</v>
       </c>
       <c r="C8" t="n">
-        <v>1603.43328299628</v>
+        <v>1522.6320027783</v>
       </c>
       <c r="D8" t="n">
-        <v>1448.688788722</v>
+        <v>1367.31661232527</v>
       </c>
       <c r="E8" t="n">
-        <v>1635.8195495635</v>
+        <v>1555.13775143704</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1542.25416914275</v>
+        <v>1461.22718188116</v>
       </c>
       <c r="B9" t="n">
-        <v>1477.05669573144</v>
+        <v>1395.78686617831</v>
       </c>
       <c r="C9" t="n">
-        <v>1607.45164255406</v>
+        <v>1526.66749758401</v>
       </c>
       <c r="D9" t="n">
-        <v>1442.54323810824</v>
+        <v>1361.14485561127</v>
       </c>
       <c r="E9" t="n">
-        <v>1641.96510017725</v>
+        <v>1561.30950815104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1542.25416914275</v>
+        <v>1461.22718188116</v>
       </c>
       <c r="B10" t="n">
-        <v>1473.27201850554</v>
+        <v>1391.98616940179</v>
       </c>
       <c r="C10" t="n">
-        <v>1611.23631977996</v>
+        <v>1530.46819436052</v>
       </c>
       <c r="D10" t="n">
-        <v>1436.75507378048</v>
+        <v>1355.33219149505</v>
       </c>
       <c r="E10" t="n">
-        <v>1647.75326450501</v>
+        <v>1567.12217226727</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1542.25416914275</v>
+        <v>1461.22718188116</v>
       </c>
       <c r="B11" t="n">
-        <v>1469.68445318733</v>
+        <v>1388.38350886114</v>
       </c>
       <c r="C11" t="n">
-        <v>1614.82388509817</v>
+        <v>1534.07085490117</v>
       </c>
       <c r="D11" t="n">
-        <v>1431.26836610135</v>
+        <v>1349.82239766542</v>
       </c>
       <c r="E11" t="n">
-        <v>1653.23997218415</v>
+        <v>1572.6319660969</v>
       </c>
     </row>
   </sheetData>
